--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D211449-26C7-4020-92C5-CDE4714C21E4}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A3018D-2330-47B9-94C8-43D7093A255F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="10890" yWindow="743" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -69,6 +69,93 @@
   </si>
   <si>
     <t>ADRIFT_033</t>
+  </si>
+  <si>
+    <t>ADRIFT_054</t>
+  </si>
+  <si>
+    <t>ADRIFT_055</t>
+  </si>
+  <si>
+    <t>ADRIFT_057</t>
+  </si>
+  <si>
+    <t>ADRIFT_065</t>
+  </si>
+  <si>
+    <t>ADRIFT_067</t>
+  </si>
+  <si>
+    <t>ADRIFT_068</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Double check clicks look ok - initial PG was thick line of clicks</t>
+  </si>
+  <si>
+    <t>Physical Copy?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ADRIFT_003</t>
+  </si>
+  <si>
+    <t>ADRIFT_006</t>
+  </si>
+  <si>
+    <t>No - on Box</t>
+  </si>
+  <si>
+    <t>Chunk 4 of RMD 2 took a LONG time</t>
+  </si>
+  <si>
+    <t>Add Files to Box</t>
+  </si>
+  <si>
+    <t>RMD 1 taking a long time (multiple hours)</t>
+  </si>
+  <si>
+    <t>ADRIFT_007</t>
+  </si>
+  <si>
+    <t>ADRIFT_012</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ADRIFT_037</t>
+  </si>
+  <si>
+    <t>ADRIFT_039</t>
+  </si>
+  <si>
+    <t>ADRIFT_042</t>
+  </si>
+  <si>
+    <t>ADRIFT_043</t>
+  </si>
+  <si>
+    <t>ADRIFT_077</t>
+  </si>
+  <si>
+    <t>ADRIFT_079</t>
+  </si>
+  <si>
+    <t>ADRIFT_081</t>
+  </si>
+  <si>
+    <t>ADRIFT_083</t>
+  </si>
+  <si>
+    <t>ADRIFT_087</t>
+  </si>
+  <si>
+    <t>ADRIFT_088</t>
   </si>
 </sst>
 </file>
@@ -76,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -150,24 +237,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +270,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,279 +593,817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.46484375" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="6" width="24.1328125" customWidth="1"/>
-    <col min="7" max="7" width="24.1328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="9" width="24.1328125" customWidth="1"/>
+    <col min="10" max="10" width="50.73046875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44403.170833333337</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44403.179166666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C3" s="2">
+        <v>44407.519768518519</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44407.534814814819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44404.561458333337</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44404.602083333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44360.256701388891</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44360.28528935185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44580.109351851846</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44580.123611111107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="2">
+        <v>44580.177847222221</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44580.200335648136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C8" s="2">
+        <v>44580.225891203707</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44580.245625000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C9" s="2">
+        <v>44580.253530092603</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44580.272847222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C10" s="2">
+        <v>44580.292696759258</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44580.323900462958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
         <v>44735.246354166673</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D11" s="2">
         <v>44735.249305555553</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="2">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C12" s="2">
         <v>44737.283750000002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D12" s="2">
         <v>44737.304293981477</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44818.156134259261</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44818.174768518518</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44818.185706018507</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44818.250856481478</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D15" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44818.156134259261</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44818.174768518518</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44818.185706018507</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44818.250856481478</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44882.326249999998</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44882.345405092587</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D16" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44909.985347222217</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44910.02342592593</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D17" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C17" s="2">
+        <v>44910.070185185177</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44910.078402777777</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D18" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45005.351689814823</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45005.373553240737</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D19" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45005.294664351852</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45005.301898148136</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D21" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45002.156157407408</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45002.260150462957</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C21" s="2">
+        <v>45002.272129629629</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45002.283009259263</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D22" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C22" s="2">
+        <v>45002.29892361111</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45002.372870370367</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D23" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C23" s="2">
+        <v>45002.429236111107</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45002.440057870372</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D24" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C24" s="2">
+        <v>45002.964166666672</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45003.045578703714</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45002.077708333338</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45002.100451388891</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D26" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C26" s="2">
+        <v>45002.114224537043</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45002.139166666668</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D27" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C27" s="2">
+        <v>45002.160868055551</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45002.248530092591</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D28" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C28" s="2">
+        <v>45002.342222222222</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45002.472083333327</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D29" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C29" s="2">
+        <v>45002.523240740753</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45002.559004629627</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D30" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C30" s="2">
+        <v>45003.08756944444</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45003.199548611112</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D31" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C31" s="2">
+        <v>45003.336469907408</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45003.382997685178</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45002.345046296286</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45002.569745370369</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C33" s="2">
+        <v>45003.131979166668</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45003.165717592587</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C34" s="2">
+        <v>45003.354826388888</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45003.393020833333</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45044.219282407408</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45044.23646990741</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45054.301666666674</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45054.370532407411</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C37" s="2">
+        <v>45054.415324074071</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45054.417407407411</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45054.290162037039</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45054.302893518507</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C39" s="2">
+        <v>45054.415335648147</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45054.421180555553</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C40" s="2">
+        <v>45055.170219907413</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45055.199849537043</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C41" s="2">
+        <v>45055.351006944453</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45055.355405092589</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C42" s="2">
+        <v>45055.378020833326</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45055.399027777778</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45128.184965277767</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45128.190115740741</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45119.225254629629</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45119.260034722218</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C45" s="2">
+        <v>45119.310439814813</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45119.365300925929</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C46" s="2">
+        <v>45119.398460648154</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45119.429537037038</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45122.301076388889</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45122.310162037043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45119.29614583333</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45119.330231481479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="2">
+        <v>45123.17931712963</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45123.182326388887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45143.215335648143</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45143.242708333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45166.222685185188</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45166.280787037038</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A3018D-2330-47B9-94C8-43D7093A255F}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC7639B-050D-48D1-95D5-AF25CFC353DA}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="743" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="10890" yWindow="525" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>ADRIFT_088</t>
+  </si>
+  <si>
+    <t>PASCAL_012</t>
+  </si>
+  <si>
+    <t>PASCAL_008</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -653,6 +659,7 @@
       <c r="D2" s="2">
         <v>44403.179166666669</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C3" s="2">
@@ -661,6 +668,7 @@
       <c r="D3" s="2">
         <v>44407.534814814819</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -675,6 +683,7 @@
       <c r="D4" s="2">
         <v>44404.602083333331</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -689,6 +698,7 @@
       <c r="D5" s="2">
         <v>44360.28528935185</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -703,6 +713,7 @@
       <c r="D6" s="2">
         <v>44580.123611111107</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="2">
@@ -711,6 +722,7 @@
       <c r="D7" s="2">
         <v>44580.200335648136</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C8" s="2">
@@ -719,6 +731,7 @@
       <c r="D8" s="2">
         <v>44580.245625000003</v>
       </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C9" s="2">
@@ -727,6 +740,7 @@
       <c r="D9" s="2">
         <v>44580.272847222222</v>
       </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C10" s="2">
@@ -735,6 +749,7 @@
       <c r="D10" s="2">
         <v>44580.323900462958</v>
       </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -1020,7 +1035,9 @@
       <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1187,7 +1204,9 @@
       <c r="D36" s="2">
         <v>45054.370532407411</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1354,6 +1373,7 @@
       <c r="D47" s="2">
         <v>45122.310162037043</v>
       </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
@@ -1368,16 +1388,18 @@
       <c r="D48" s="2">
         <v>45119.330231481479</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C49" s="2">
         <v>45123.17931712963</v>
       </c>
       <c r="D49" s="2">
         <v>45123.182326388887</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1390,8 +1412,9 @@
       <c r="D50" s="2">
         <v>45143.242708333331</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1404,6 +1427,174 @@
       <c r="D51" s="2">
         <v>45166.280787037038</v>
       </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC7639B-050D-48D1-95D5-AF25CFC353DA}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C403DBFF-48C9-425D-9D84-5DE9A20B4A2B}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="525" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>PASCAL_008</t>
+  </si>
+  <si>
+    <t>PASCAL_007</t>
+  </si>
+  <si>
+    <t>PASCAL_009</t>
+  </si>
+  <si>
+    <t>PASCAL_010</t>
+  </si>
+  <si>
+    <t>CCES_007</t>
+  </si>
+  <si>
+    <t>CCES_008</t>
+  </si>
+  <si>
+    <t>CCES_012</t>
+  </si>
+  <si>
+    <t>CCES_013</t>
+  </si>
+  <si>
+    <t>Downloaded to SD? (If on Box)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -171,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +210,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,9 +254,60 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -231,19 +315,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thick">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -254,13 +342,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,173 +731,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:BN129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.46484375" customWidth="1"/>
     <col min="2" max="2" width="19.06640625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="9" width="24.1328125" customWidth="1"/>
-    <col min="10" max="10" width="50.73046875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="10" width="24.1328125" customWidth="1"/>
+    <col min="11" max="11" width="50.73046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:66" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
         <v>44403.170833333337</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>44403.179166666669</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C3" s="2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="5">
         <v>44407.519768518519</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="5">
         <v>44407.534814814819</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="F3" s="6"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="20"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+    </row>
+    <row r="4" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
         <v>44404.561458333337</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="8">
         <v>44404.602083333331</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="F4" s="9"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="20"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+    </row>
+    <row r="5" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8">
         <v>44360.256701388891</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="8">
         <v>44360.28528935185</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F5" s="9"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="20"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2">
         <v>44580.109351851846</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>44580.123611111107</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D7" s="2">
         <v>44580.177847222221</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>44580.200335648136</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D8" s="2">
         <v>44580.225891203707</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>44580.245625000003</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C9" s="2">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D9" s="2">
         <v>44580.253530092603</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>44580.272847222222</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C10" s="2">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="5">
         <v>44580.292696759258</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="5">
         <v>44580.323900462958</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F10" s="6"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="20"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
         <v>44735.246354166673</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>44735.249305555553</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>8</v>
@@ -773,182 +1147,595 @@
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="2">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="5">
         <v>44737.283750000002</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="5">
         <v>44737.304293981477</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="20"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+    </row>
+    <row r="13" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8">
         <v>44818.156134259261</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="8">
         <v>44818.174768518518</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="K13" s="17"/>
+      <c r="L13" s="20"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+    </row>
+    <row r="14" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8">
         <v>44818.185706018507</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="8">
         <v>44818.250856481478</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="20"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+    </row>
+    <row r="15" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
         <v>44882.326249999998</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="8">
         <v>44882.345405092587</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="20"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2">
+        <v>23</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
         <v>44909.985347222217</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>44910.02342592593</v>
       </c>
-      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C17" s="2">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="5">
         <v>44910.070185185177</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="5">
         <v>44910.078402777777</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="20"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+    </row>
+    <row r="18" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8">
         <v>45005.351689814823</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="8">
         <v>45005.373553240737</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="20"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+    </row>
+    <row r="19" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8">
         <v>45005.294664351852</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="8">
         <v>45005.301898148136</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="20"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
         <v>45002.156157407408</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>45002.260150462957</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
@@ -956,647 +1743,2089 @@
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C21" s="2">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D21" s="2">
         <v>45002.272129629629</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>45002.283009259263</v>
       </c>
-      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C22" s="2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D22" s="2">
         <v>45002.29892361111</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>45002.372870370367</v>
       </c>
-      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C23" s="2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D23" s="2">
         <v>45002.429236111107</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>45002.440057870372</v>
       </c>
-      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C24" s="2">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="5">
         <v>45002.964166666672</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="5">
         <v>45003.045578703714</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2">
         <v>45002.077708333338</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>45002.100451388891</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C26" s="2">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D26" s="2">
         <v>45002.114224537043</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>45002.139166666668</v>
       </c>
-      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C27" s="2">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D27" s="2">
         <v>45002.160868055551</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>45002.248530092591</v>
       </c>
-      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C28" s="2">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D28" s="2">
         <v>45002.342222222222</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>45002.472083333327</v>
       </c>
-      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C29" s="2">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D29" s="2">
         <v>45002.523240740753</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>45002.559004629627</v>
       </c>
-      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C30" s="2">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D30" s="2">
         <v>45003.08756944444</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>45003.199548611112</v>
       </c>
-      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C31" s="2">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="5">
         <v>45003.336469907408</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="5">
         <v>45003.382997685178</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="20"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
         <v>45002.345046296286</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>45002.569745370369</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C33" s="2">
+      <c r="J32" s="3"/>
+      <c r="K32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D33" s="2">
         <v>45003.131979166668</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>45003.165717592587</v>
       </c>
-      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="2">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="5">
         <v>45003.354826388888</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="5">
         <v>45003.393020833333</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="20"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+      <c r="BN34"/>
+    </row>
+    <row r="35" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="8">
         <v>45044.219282407408</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="8">
         <v>45044.23646990741</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="20"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+    </row>
+    <row r="36" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2">
         <v>45054.301666666674</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>45054.370532407411</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C37" s="2">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="5">
         <v>45054.415324074071</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="5">
         <v>45054.417407407411</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="20"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+      <c r="BK37"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+      <c r="BN37"/>
+    </row>
+    <row r="38" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="2">
         <v>45054.290162037039</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>45054.302893518507</v>
       </c>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="2">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D39" s="2">
         <v>45054.415335648147</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>45054.421180555553</v>
       </c>
-      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C40" s="2">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D40" s="2">
         <v>45055.170219907413</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>45055.199849537043</v>
       </c>
-      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C41" s="2">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D41" s="2">
         <v>45055.351006944453</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>45055.355405092589</v>
       </c>
-      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C42" s="2">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D42" s="5">
         <v>45055.378020833326</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="5">
         <v>45055.399027777778</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="20"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42"/>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+      <c r="BB42"/>
+      <c r="BC42"/>
+      <c r="BD42"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+      <c r="BK42"/>
+      <c r="BL42"/>
+      <c r="BM42"/>
+      <c r="BN42"/>
+    </row>
+    <row r="43" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="8">
         <v>45128.184965277767</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="8">
         <v>45128.190115740741</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="20"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+    </row>
+    <row r="44" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="2">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
         <v>45119.225254629629</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>45119.260034722218</v>
       </c>
-      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C45" s="2">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D45" s="2">
         <v>45119.310439814813</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>45119.365300925929</v>
       </c>
-      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C46" s="2">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D46" s="5">
         <v>45119.398460648154</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="5">
         <v>45119.429537037038</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="20"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+      <c r="AW46"/>
+      <c r="AX46"/>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="BA46"/>
+      <c r="BB46"/>
+      <c r="BC46"/>
+      <c r="BD46"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+      <c r="BK46"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+      <c r="BN46"/>
+    </row>
+    <row r="47" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="8">
         <v>45122.301076388889</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="8">
         <v>45122.310162037043</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F47" s="9"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="20"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+    </row>
+    <row r="48" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45119.29614583333</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45119.330231481479</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D49" s="5">
+        <v>45123.17931712963</v>
+      </c>
+      <c r="E49" s="5">
+        <v>45123.182326388887</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="20"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+      <c r="AW49"/>
+      <c r="AX49"/>
+      <c r="AY49"/>
+      <c r="AZ49"/>
+      <c r="BA49"/>
+      <c r="BB49"/>
+      <c r="BC49"/>
+      <c r="BD49"/>
+      <c r="BE49"/>
+      <c r="BF49"/>
+      <c r="BG49"/>
+      <c r="BH49"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
+      <c r="BK49"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+      <c r="BN49"/>
+    </row>
+    <row r="50" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="2">
-        <v>45119.29614583333</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45119.330231481479</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C49" s="2">
-        <v>45123.17931712963</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45123.182326388887</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="8">
+        <v>45143.215335648143</v>
+      </c>
+      <c r="E50" s="8">
+        <v>45143.242708333331</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="20"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+    </row>
+    <row r="51" spans="1:66" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="11">
+        <v>45166.222685185188</v>
+      </c>
+      <c r="E51" s="11">
+        <v>45166.280787037038</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="20"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+    </row>
+    <row r="52" spans="1:66" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="2">
-        <v>45143.215335648143</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45143.242708333331</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C52" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2">
+        <v>42612.580873842591</v>
+      </c>
+      <c r="E52" s="2">
+        <v>42612.603443287036</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D53" s="2">
+        <v>42614.355943287039</v>
+      </c>
+      <c r="E53" s="2">
+        <v>42614.377528935191</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D54" s="2">
+        <v>42615.103859953699</v>
+      </c>
+      <c r="E54" s="2">
+        <v>42615.120468749999</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D55" s="2">
+        <v>42616.176603009248</v>
+      </c>
+      <c r="E55" s="2">
+        <v>42616.210109953703</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D56" s="2">
+        <v>42616.414797453697</v>
+      </c>
+      <c r="E56" s="2">
+        <v>42616.434068287039</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D57" s="2">
+        <v>42618.576927083333</v>
+      </c>
+      <c r="E57" s="2">
+        <v>42618.598454861123</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="5">
+        <v>42623.506336805563</v>
+      </c>
+      <c r="E58" s="5">
+        <v>42623.522656250003</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="20"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58"/>
+      <c r="AX58"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58"/>
+      <c r="BB58"/>
+      <c r="BC58"/>
+      <c r="BD58"/>
+      <c r="BE58"/>
+      <c r="BF58"/>
+      <c r="BG58"/>
+      <c r="BH58"/>
+      <c r="BI58"/>
+      <c r="BJ58"/>
+      <c r="BK58"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+      <c r="BN58"/>
+    </row>
+    <row r="59" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2">
+        <v>42612.561255787034</v>
+      </c>
+      <c r="E59" s="2">
+        <v>42612.620804398153</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D60" s="2">
+        <v>42616.558420138877</v>
+      </c>
+      <c r="E60" s="2">
+        <v>42616.592332175933</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D61" s="2">
+        <v>42617.194646990742</v>
+      </c>
+      <c r="E61" s="2">
+        <v>42617.223524305547</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D62" s="2">
+        <v>42618.178038194441</v>
+      </c>
+      <c r="E62" s="2">
+        <v>42618.190017361107</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D63" s="5">
+        <v>42618.300086805553</v>
+      </c>
+      <c r="E63" s="5">
+        <v>42618.317447916663</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="20"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+    </row>
+    <row r="64" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2">
+        <v>42612.348975694447</v>
+      </c>
+      <c r="E64" s="2">
+        <v>42612.370908564822</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D65" s="2">
+        <v>42612.474091435193</v>
+      </c>
+      <c r="E65" s="2">
+        <v>42612.502795138891</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D66" s="2">
+        <v>42617.710376157411</v>
+      </c>
+      <c r="E66" s="2">
+        <v>42617.759739583329</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D67" s="5">
+        <v>42618.696718749998</v>
+      </c>
+      <c r="E67" s="5">
+        <v>42618.704241898136</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="20"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+      <c r="AS67"/>
+      <c r="AT67"/>
+      <c r="AU67"/>
+      <c r="AV67"/>
+      <c r="AW67"/>
+      <c r="AX67"/>
+      <c r="AY67"/>
+      <c r="AZ67"/>
+      <c r="BA67"/>
+      <c r="BB67"/>
+      <c r="BC67"/>
+      <c r="BD67"/>
+      <c r="BE67"/>
+      <c r="BF67"/>
+      <c r="BG67"/>
+      <c r="BH67"/>
+      <c r="BI67"/>
+      <c r="BJ67"/>
+      <c r="BK67"/>
+      <c r="BL67"/>
+      <c r="BM67"/>
+      <c r="BN67"/>
+    </row>
+    <row r="68" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="2">
-        <v>45166.222685185188</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45166.280787037038</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C68" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="2">
+        <v>42610.535399305547</v>
+      </c>
+      <c r="E68" s="2">
+        <v>42610.555225694443</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D69" s="2">
+        <v>42612.31131365741</v>
+      </c>
+      <c r="E69" s="2">
+        <v>42612.336788194443</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D70" s="2">
+        <v>42612.969021990742</v>
+      </c>
+      <c r="E70" s="2">
+        <v>42612.983778935188</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D71" s="2">
+        <v>42616.257019675933</v>
+      </c>
+      <c r="E71" s="2">
+        <v>42616.291394675922</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D72" s="2">
+        <v>42621.241869212958</v>
+      </c>
+      <c r="E72" s="2">
+        <v>42621.275318287036</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D73" s="2">
+        <v>42623.419010416663</v>
+      </c>
+      <c r="E73" s="2">
+        <v>42623.431278935182</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D74" s="2">
+        <v>42624.161082175917</v>
+      </c>
+      <c r="E74" s="2">
+        <v>42624.177401620371</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D75" s="2">
+        <v>42626.26449652778</v>
+      </c>
+      <c r="E75" s="2">
+        <v>42626.29942708333</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="D76" s="2">
+        <v>42626.344184027781</v>
+      </c>
+      <c r="E76" s="2">
+        <v>42626.386487268523</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D77" s="5">
+        <v>42627.304484953696</v>
+      </c>
+      <c r="E77" s="5">
+        <v>42627.315017361107</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="20"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+      <c r="AV77"/>
+      <c r="AW77"/>
+      <c r="AX77"/>
+      <c r="AY77"/>
+      <c r="AZ77"/>
+      <c r="BA77"/>
+      <c r="BB77"/>
+      <c r="BC77"/>
+      <c r="BD77"/>
+      <c r="BE77"/>
+      <c r="BF77"/>
+      <c r="BG77"/>
+      <c r="BH77"/>
+      <c r="BI77"/>
+      <c r="BJ77"/>
+      <c r="BK77"/>
+      <c r="BL77"/>
+      <c r="BM77"/>
+      <c r="BN77"/>
+    </row>
+    <row r="78" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2">
+        <v>42612.397146990741</v>
+      </c>
+      <c r="E78" s="2">
+        <v>42612.39830439815</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D79" s="14">
+        <v>42627.17509837963</v>
+      </c>
+      <c r="E79" s="14">
+        <v>42627.183026620369</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="20"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+      <c r="AW79"/>
+      <c r="AX79"/>
+      <c r="AY79"/>
+      <c r="AZ79"/>
+      <c r="BA79"/>
+      <c r="BB79"/>
+      <c r="BC79"/>
+      <c r="BD79"/>
+      <c r="BE79"/>
+      <c r="BF79"/>
+      <c r="BG79"/>
+      <c r="BH79"/>
+      <c r="BI79"/>
+      <c r="BJ79"/>
+      <c r="BK79"/>
+      <c r="BL79"/>
+      <c r="BM79"/>
+      <c r="BN79"/>
+    </row>
+    <row r="80" spans="1:66" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E102" s="3"/>
-    </row>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43358.436255787034</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D81" s="2">
+        <v>43358.450086805547</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D82" s="2">
+        <v>43358.464033564807</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D83" s="5">
+        <v>43358.477864583328</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="24"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="2">
+        <v>43338.193535879633</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D85" s="2">
+        <v>43338.207309027777</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D86" s="2">
+        <v>43339.263501157402</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D87" s="2">
+        <v>43339.277042824076</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D88" s="2">
+        <v>43339.290700231482</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D89" s="2">
+        <v>43339.304589120373</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D90" s="2">
+        <v>43339.734913194443</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D91" s="2">
+        <v>43339.749149305557</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D92" s="2">
+        <v>43344.179531250003</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D93" s="2">
+        <v>43344.193420138887</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D94" s="2">
+        <v>43345.248917824079</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D95" s="2">
+        <v>43345.262748842593</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D96" s="2">
+        <v>43345.2769849537</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D97" s="2">
+        <v>43345.457366898147</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D98" s="2">
+        <v>43346.276753472222</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D99" s="2">
+        <v>43347.457482638893</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D100" s="2">
+        <v>43348.318304398148</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D101" s="2">
+        <v>43348.332193287039</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D102" s="2">
+        <v>43349.151695601853</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D103" s="2">
+        <v>43349.458234953709</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D104" s="2">
+        <v>43349.471487268507</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D105" s="2">
+        <v>43351.24909143518</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D106" s="2">
+        <v>43353.151637731477</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D107" s="2">
+        <v>43357.471313657406</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D108" s="2">
+        <v>43358.318188657402</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D109" s="2">
+        <v>43359.318651620371</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D110" s="2">
+        <v>43363.818651620371</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D111" s="2">
+        <v>43367.123802083333</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D112" s="2">
+        <v>43367.138211805563</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D113" s="2">
+        <v>43367.151695601853</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D114" s="2">
+        <v>43368.346197916668</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D115" s="2">
+        <v>43368.359971064812</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D116" s="2">
+        <v>43370.290642361113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D117" s="2">
+        <v>43370.304704861112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D118" s="2">
+        <v>43370.373859953703</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D119" s="2">
+        <v>43370.401753472222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D120" s="2">
+        <v>43370.41587384259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D121" s="2">
+        <v>43372.929473379627</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D122" s="5">
+        <v>43372.943709490741</v>
+      </c>
+      <c r="K122" s="16"/>
+      <c r="L122" s="24"/>
+    </row>
+    <row r="123" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="8">
+        <v>43353.138153935193</v>
+      </c>
+      <c r="K123" s="17"/>
+      <c r="L123" s="25"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2">
+        <v>43369.178304398149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D125" s="2">
+        <v>43369.192193287032</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D126" s="2">
+        <v>43369.219971064813</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D127" s="2">
+        <v>43369.733802083327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D128" s="14">
+        <v>43370.192251157408</v>
+      </c>
+      <c r="K128" s="19"/>
+      <c r="L128" s="21"/>
+    </row>
+    <row r="129" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C403DBFF-48C9-425D-9D84-5DE9A20B4A2B}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118A6D3A-62F2-4D7C-BA13-134D7E5D55E9}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,11 +327,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,7 +410,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BN129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -800,7 +823,15 @@
       <c r="E2" s="2">
         <v>44403.179166666669</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D3" s="5">
@@ -810,6 +841,8 @@
         <v>44407.534814814819</v>
       </c>
       <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="K3" s="16"/>
       <c r="L3" s="20"/>
       <c r="M3"/>
@@ -883,7 +916,15 @@
       <c r="E4" s="8">
         <v>44404.602083333331</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="K4" s="17"/>
       <c r="L4" s="20"/>
       <c r="M4"/>
@@ -957,7 +998,15 @@
       <c r="E5" s="8">
         <v>44360.28528935185</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="K5" s="17"/>
       <c r="L5" s="20"/>
       <c r="M5"/>
@@ -1032,6 +1081,8 @@
         <v>44580.123611111107</v>
       </c>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D7" s="2">
@@ -1041,6 +1092,8 @@
         <v>44580.200335648136</v>
       </c>
       <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D8" s="2">
@@ -1050,6 +1103,8 @@
         <v>44580.245625000003</v>
       </c>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D9" s="2">
@@ -1059,6 +1114,8 @@
         <v>44580.272847222222</v>
       </c>
       <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D10" s="5">
@@ -1068,6 +1125,8 @@
         <v>44580.323900462958</v>
       </c>
       <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="K10" s="16"/>
       <c r="L10" s="20"/>
       <c r="M10"/>
@@ -1412,7 +1471,9 @@
       <c r="E15" s="8">
         <v>44882.345405092587</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1481,7 +1542,7 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2">
@@ -1490,7 +1551,9 @@
       <c r="E16" s="2">
         <v>44910.02342592593</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1581,7 +1644,9 @@
       <c r="E18" s="8">
         <v>45005.373553240737</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1659,7 +1724,9 @@
       <c r="E19" s="8">
         <v>45005.301898148136</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1891,7 +1958,9 @@
         <v>8</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,9 +2121,13 @@
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2160,10 +2233,16 @@
       <c r="F35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="K35" s="17"/>
       <c r="L35" s="20"/>
       <c r="M35"/>
@@ -2240,10 +2319,16 @@
       <c r="F36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D37" s="5">
@@ -2330,9 +2415,15 @@
       <c r="E38" s="2">
         <v>45054.302893518507</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
@@ -2460,7 +2551,9 @@
       <c r="E43" s="8">
         <v>45128.190115740741</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -2538,9 +2631,15 @@
       <c r="E44" s="2">
         <v>45119.260034722218</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
@@ -2642,7 +2741,15 @@
       <c r="E47" s="8">
         <v>45122.310162037043</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="K47" s="17"/>
       <c r="L47" s="20"/>
       <c r="M47"/>
@@ -2707,7 +2814,7 @@
       <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2">
@@ -2716,7 +2823,15 @@
       <c r="E48" s="2">
         <v>45119.330231481479</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D49" s="5">
@@ -2726,6 +2841,8 @@
         <v>45123.182326388887</v>
       </c>
       <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="K49" s="16"/>
       <c r="L49" s="20"/>
       <c r="M49"/>
@@ -2799,7 +2916,11 @@
       <c r="E50" s="8">
         <v>45143.242708333331</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="K50" s="17"/>
       <c r="L50" s="20"/>
       <c r="M50"/>
@@ -2873,7 +2994,15 @@
       <c r="E51" s="11">
         <v>45166.280787037038</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="K51" s="18"/>
       <c r="L51" s="20"/>
       <c r="M51"/>
@@ -2947,7 +3076,11 @@
       <c r="E52" s="2">
         <v>42612.603443287036</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D53" s="2">
@@ -2957,6 +3090,8 @@
         <v>42614.377528935191</v>
       </c>
       <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D54" s="2">
@@ -2966,6 +3101,8 @@
         <v>42615.120468749999</v>
       </c>
       <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D55" s="2">
@@ -2975,6 +3112,8 @@
         <v>42616.210109953703</v>
       </c>
       <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D56" s="2">
@@ -2984,6 +3123,8 @@
         <v>42616.434068287039</v>
       </c>
       <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D57" s="2">
@@ -2993,6 +3134,8 @@
         <v>42618.598454861123</v>
       </c>
       <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5">
@@ -3002,6 +3145,8 @@
         <v>42623.522656250003</v>
       </c>
       <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
       <c r="K58" s="16"/>
       <c r="L58" s="20"/>
       <c r="M58"/>
@@ -3075,7 +3220,11 @@
       <c r="E59" s="2">
         <v>42612.620804398153</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D60" s="2">
@@ -3085,6 +3234,8 @@
         <v>42616.592332175933</v>
       </c>
       <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D61" s="2">
@@ -3094,6 +3245,8 @@
         <v>42617.223524305547</v>
       </c>
       <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D62" s="2">
@@ -3103,6 +3256,8 @@
         <v>42618.190017361107</v>
       </c>
       <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D63" s="5">
@@ -3112,6 +3267,8 @@
         <v>42618.317447916663</v>
       </c>
       <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="K63" s="16"/>
       <c r="L63" s="20"/>
       <c r="M63"/>
@@ -3185,7 +3342,11 @@
       <c r="E64" s="2">
         <v>42612.370908564822</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D65" s="2">
@@ -3195,6 +3356,8 @@
         <v>42612.502795138891</v>
       </c>
       <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D66" s="2">
@@ -3204,6 +3367,8 @@
         <v>42617.759739583329</v>
       </c>
       <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="5">
@@ -3213,6 +3378,8 @@
         <v>42618.704241898136</v>
       </c>
       <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="K67" s="16"/>
       <c r="L67" s="20"/>
       <c r="M67"/>
@@ -3286,7 +3453,11 @@
       <c r="E68" s="2">
         <v>42610.555225694443</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D69" s="2">
@@ -3296,6 +3467,8 @@
         <v>42612.336788194443</v>
       </c>
       <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D70" s="2">
@@ -3305,6 +3478,8 @@
         <v>42612.983778935188</v>
       </c>
       <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D71" s="2">
@@ -3314,6 +3489,8 @@
         <v>42616.291394675922</v>
       </c>
       <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D72" s="2">
@@ -3323,6 +3500,8 @@
         <v>42621.275318287036</v>
       </c>
       <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D73" s="2">
@@ -3332,6 +3511,8 @@
         <v>42623.431278935182</v>
       </c>
       <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D74" s="2">
@@ -3341,6 +3522,8 @@
         <v>42624.177401620371</v>
       </c>
       <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D75" s="2">
@@ -3350,6 +3533,8 @@
         <v>42626.29942708333</v>
       </c>
       <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D76" s="2">
@@ -3359,6 +3544,8 @@
         <v>42626.386487268523</v>
       </c>
       <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5">
@@ -3368,6 +3555,8 @@
         <v>42627.315017361107</v>
       </c>
       <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="K77" s="16"/>
       <c r="L77" s="20"/>
       <c r="M77"/>
@@ -3444,6 +3633,8 @@
       <c r="F78" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D79" s="14">
@@ -3453,6 +3644,8 @@
         <v>42627.183026620369</v>
       </c>
       <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
       <c r="K79" s="19"/>
       <c r="L79" s="20"/>
       <c r="M79"/>
@@ -3523,25 +3716,35 @@
       <c r="D80" s="2">
         <v>43358.436255787034</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D81" s="2">
         <v>43358.450086805547</v>
       </c>
       <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D82" s="2">
         <v>43358.464033564807</v>
       </c>
       <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D83" s="5">
         <v>43358.477864583328</v>
       </c>
       <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="K83" s="16"/>
       <c r="L83" s="24"/>
     </row>
@@ -3558,216 +3761,315 @@
       <c r="D84" s="2">
         <v>43338.193535879633</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D85" s="2">
         <v>43338.207309027777</v>
       </c>
       <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D86" s="2">
         <v>43339.263501157402</v>
       </c>
       <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D87" s="2">
         <v>43339.277042824076</v>
       </c>
       <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D88" s="2">
         <v>43339.290700231482</v>
       </c>
       <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D89" s="2">
         <v>43339.304589120373</v>
       </c>
       <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D90" s="2">
         <v>43339.734913194443</v>
       </c>
       <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D91" s="2">
         <v>43339.749149305557</v>
       </c>
       <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D92" s="2">
         <v>43344.179531250003</v>
       </c>
       <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D93" s="2">
         <v>43344.193420138887</v>
       </c>
       <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D94" s="2">
         <v>43345.248917824079</v>
       </c>
       <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D95" s="2">
         <v>43345.262748842593</v>
       </c>
       <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D96" s="2">
         <v>43345.2769849537</v>
       </c>
       <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D97" s="2">
         <v>43345.457366898147</v>
       </c>
       <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D98" s="2">
         <v>43346.276753472222</v>
       </c>
       <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D99" s="2">
         <v>43347.457482638893</v>
       </c>
       <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D100" s="2">
         <v>43348.318304398148</v>
       </c>
       <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D101" s="2">
         <v>43348.332193287039</v>
       </c>
       <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D102" s="2">
         <v>43349.151695601853</v>
       </c>
       <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D103" s="2">
         <v>43349.458234953709</v>
       </c>
       <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D104" s="2">
         <v>43349.471487268507</v>
       </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D105" s="2">
         <v>43351.24909143518</v>
       </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D106" s="2">
         <v>43353.151637731477</v>
       </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D107" s="2">
         <v>43357.471313657406</v>
       </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D108" s="2">
         <v>43358.318188657402</v>
       </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D109" s="2">
         <v>43359.318651620371</v>
       </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D110" s="2">
         <v>43363.818651620371</v>
       </c>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D111" s="2">
         <v>43367.123802083333</v>
       </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D112" s="2">
         <v>43367.138211805563</v>
       </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D113" s="2">
         <v>43367.151695601853</v>
       </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D114" s="2">
         <v>43368.346197916668</v>
       </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D115" s="2">
         <v>43368.359971064812</v>
       </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D116" s="2">
         <v>43370.290642361113</v>
       </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D117" s="2">
         <v>43370.304704861112</v>
       </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D118" s="2">
         <v>43370.373859953703</v>
       </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D119" s="2">
         <v>43370.401753472222</v>
       </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D120" s="2">
         <v>43370.41587384259</v>
       </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D121" s="2">
         <v>43372.929473379627</v>
       </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D122" s="5">
         <v>43372.943709490741</v>
       </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
       <c r="K122" s="16"/>
       <c r="L122" s="24"/>
     </row>
@@ -3784,6 +4086,11 @@
       <c r="D123" s="8">
         <v>43353.138153935193</v>
       </c>
+      <c r="F123" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
       <c r="K123" s="17"/>
       <c r="L123" s="25"/>
     </row>
@@ -3800,26 +4107,43 @@
       <c r="D124" s="2">
         <v>43369.178304398149</v>
       </c>
+      <c r="F124" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D125" s="2">
         <v>43369.192193287032</v>
       </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D126" s="2">
         <v>43369.219971064813</v>
       </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D127" s="2">
         <v>43369.733802083327</v>
       </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:12" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D128" s="14">
         <v>43370.192251157408</v>
       </c>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
       <c r="K128" s="19"/>
       <c r="L128" s="21"/>
     </row>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118A6D3A-62F2-4D7C-BA13-134D7E5D55E9}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4708A864-175A-4896-A8B7-3AE94BC69873}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView minimized="1" xWindow="1103" yWindow="885" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -336,15 +336,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -413,7 +404,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BN129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1080,9 +1071,15 @@
       <c r="E6" s="2">
         <v>44580.123611111107</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D7" s="2">
@@ -1474,8 +1471,12 @@
       <c r="F15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="17"/>
@@ -1554,8 +1555,12 @@
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
@@ -1647,8 +1652,12 @@
       <c r="F18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="17"/>
@@ -1727,8 +1736,12 @@
       <c r="F19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="17"/>
@@ -2554,8 +2567,12 @@
       <c r="F43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="17"/>
@@ -2919,8 +2936,12 @@
       <c r="F50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="K50" s="17"/>
       <c r="L50" s="20"/>
       <c r="M50"/>
@@ -2997,7 +3018,7 @@
       <c r="F51" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="12" t="s">
@@ -3079,8 +3100,12 @@
       <c r="F52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="3"/>
+      <c r="G52" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D53" s="2">
@@ -3223,8 +3248,12 @@
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D60" s="2">
@@ -3345,8 +3374,12 @@
       <c r="F64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="65" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D65" s="2">
@@ -3456,8 +3489,12 @@
       <c r="F68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="69" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D69" s="2">
@@ -3633,8 +3670,12 @@
       <c r="F78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D79" s="14">

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4708A864-175A-4896-A8B7-3AE94BC69873}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D740C461-7E87-4EC0-A24B-EA575FD96B39}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1103" yWindow="885" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="54">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>No - with Anne</t>
+  </si>
+  <si>
+    <t>Not using this drift</t>
+  </si>
+  <si>
+    <t>Something wrong with this dirft</t>
   </si>
 </sst>
 </file>
@@ -340,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,12 +409,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BN129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -823,6 +846,9 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D3" s="5">
@@ -834,6 +860,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="16"/>
       <c r="L3" s="20"/>
       <c r="M3"/>
@@ -916,6 +943,9 @@
       <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="J4" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K4" s="17"/>
       <c r="L4" s="20"/>
       <c r="M4"/>
@@ -998,6 +1028,9 @@
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K5" s="17"/>
       <c r="L5" s="20"/>
       <c r="M5"/>
@@ -1059,11 +1092,11 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>44580.109351851846</v>
@@ -1072,13 +1105,16 @@
         <v>44580.123611111107</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
@@ -1091,6 +1127,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D8" s="2">
@@ -1102,6 +1139,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D9" s="2">
@@ -1113,6 +1151,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D10" s="5">
@@ -1124,6 +1163,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="16"/>
       <c r="L10" s="20"/>
       <c r="M10"/>
@@ -1207,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1222,7 +1262,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="16"/>
       <c r="L12" s="20"/>
       <c r="M12"/>
@@ -1306,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="17"/>
@@ -1392,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="17"/>
@@ -1478,7 +1518,9 @@
         <v>8</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K15" s="17"/>
       <c r="L15" s="20"/>
       <c r="M15"/>
@@ -1562,7 +1604,9 @@
         <v>8</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D17" s="5">
@@ -1575,7 +1619,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="16"/>
       <c r="L17" s="20"/>
       <c r="M17"/>
@@ -1637,10 +1681,10 @@
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="8">
@@ -1650,16 +1694,18 @@
         <v>45005.373553240737</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K18" s="17"/>
       <c r="L18" s="20"/>
       <c r="M18"/>
@@ -1721,10 +1767,10 @@
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="8">
@@ -1734,16 +1780,18 @@
         <v>45005.301898148136</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K19" s="17"/>
       <c r="L19" s="20"/>
       <c r="M19"/>
@@ -1827,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1845,7 +1893,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +1909,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D23" s="2">
@@ -1874,7 +1922,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="5">
@@ -1887,7 +1935,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="16"/>
       <c r="L24" s="20"/>
       <c r="M24"/>
@@ -1971,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -1989,7 +2037,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D27" s="2">
@@ -2002,7 +2050,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D28" s="2">
@@ -2015,7 +2063,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D29" s="2">
@@ -2028,7 +2076,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D30" s="2">
@@ -2041,7 +2089,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="5">
@@ -2054,7 +2102,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="16"/>
       <c r="L31" s="20"/>
       <c r="M31"/>
@@ -2138,7 +2186,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -2156,7 +2204,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D34" s="5">
@@ -2169,7 +2217,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="16"/>
       <c r="L34" s="20"/>
       <c r="M34"/>
@@ -2249,11 +2297,11 @@
       <c r="G35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="27" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K35" s="17"/>
@@ -2335,11 +2383,11 @@
       <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2354,7 +2402,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="16"/>
       <c r="L37" s="20"/>
       <c r="M37"/>
@@ -2438,7 +2486,9 @@
         <v>8</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D39" s="2">
@@ -2451,7 +2501,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D40" s="2">
@@ -2464,7 +2514,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D41" s="2">
@@ -2477,7 +2527,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D42" s="5">
@@ -2490,7 +2540,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="16"/>
       <c r="L42" s="20"/>
       <c r="M42"/>
@@ -2552,10 +2602,10 @@
       <c r="A43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="8">
@@ -2565,17 +2615,21 @@
         <v>45128.190115740741</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="17"/>
+      <c r="J43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="L43" s="20"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -2658,7 +2712,9 @@
         <v>8</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D45" s="2">
@@ -2671,7 +2727,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D46" s="5">
@@ -2684,7 +2740,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="16"/>
       <c r="L46" s="20"/>
       <c r="M46"/>
@@ -2767,6 +2823,9 @@
       <c r="H47" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="J47" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="K47" s="17"/>
       <c r="L47" s="20"/>
       <c r="M47"/>
@@ -2849,6 +2908,9 @@
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J48" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D49" s="5">
@@ -2860,6 +2922,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="16"/>
       <c r="L49" s="20"/>
       <c r="M49"/>
@@ -2921,10 +2984,10 @@
       <c r="A50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="8">
@@ -2934,13 +2997,16 @@
         <v>45143.242708333331</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="20"/>
@@ -3024,6 +3090,9 @@
       <c r="H51" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="J51" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="K51" s="18"/>
       <c r="L51" s="20"/>
       <c r="M51"/>
@@ -3100,11 +3169,17 @@
       <c r="F52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.45">
@@ -3117,6 +3192,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D54" s="2">
@@ -3128,6 +3204,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D55" s="2">
@@ -3139,6 +3216,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
+      <c r="J55" s="28"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D56" s="2">
@@ -3150,6 +3228,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
+      <c r="J56" s="28"/>
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D57" s="2">
@@ -3161,6 +3240,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
+      <c r="J57" s="28"/>
     </row>
     <row r="58" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5">
@@ -3172,6 +3252,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="16"/>
       <c r="L58" s="20"/>
       <c r="M58"/>
@@ -3254,6 +3335,9 @@
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J59" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D60" s="2">
@@ -3265,6 +3349,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
+      <c r="J60" s="28"/>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D61" s="2">
@@ -3276,6 +3361,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
+      <c r="J61" s="28"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D62" s="2">
@@ -3287,6 +3373,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
+      <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D63" s="5">
@@ -3298,6 +3385,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="16"/>
       <c r="L63" s="20"/>
       <c r="M63"/>
@@ -3380,6 +3468,9 @@
       <c r="H64" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J64" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="65" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D65" s="2">
@@ -3391,6 +3482,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
+      <c r="J65" s="28"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D66" s="2">
@@ -3402,6 +3494,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
+      <c r="J66" s="28"/>
     </row>
     <row r="67" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="5">
@@ -3413,6 +3506,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="16"/>
       <c r="L67" s="20"/>
       <c r="M67"/>
@@ -3495,6 +3589,12 @@
       <c r="H68" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="J68" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="69" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D69" s="2">
@@ -3506,6 +3606,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
+      <c r="J69" s="28"/>
     </row>
     <row r="70" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D70" s="2">
@@ -3517,6 +3618,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
+      <c r="J70" s="28"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D71" s="2">
@@ -3528,6 +3630,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
+      <c r="J71" s="28"/>
     </row>
     <row r="72" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D72" s="2">
@@ -3539,6 +3642,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
+      <c r="J72" s="28"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D73" s="2">
@@ -3550,6 +3654,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
+      <c r="J73" s="28"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D74" s="2">
@@ -3561,6 +3666,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
+      <c r="J74" s="28"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D75" s="2">
@@ -3572,6 +3678,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
+      <c r="J75" s="28"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.45">
       <c r="D76" s="2">
@@ -3583,6 +3690,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
+      <c r="J76" s="28"/>
     </row>
     <row r="77" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5">
@@ -3594,6 +3702,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
+      <c r="J77" s="29"/>
       <c r="K77" s="16"/>
       <c r="L77" s="20"/>
       <c r="M77"/>
@@ -3676,6 +3785,9 @@
       <c r="H78" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J78" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D79" s="14">
@@ -3687,6 +3799,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="19"/>
       <c r="L79" s="20"/>
       <c r="M79"/>
@@ -3760,8 +3873,15 @@
       <c r="F80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D81" s="2">
@@ -3770,6 +3890,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
+      <c r="J81" s="28"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D82" s="2">
@@ -3778,6 +3899,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
+      <c r="J82" s="28"/>
     </row>
     <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D83" s="5">
@@ -3786,6 +3908,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
+      <c r="J83" s="29"/>
       <c r="K83" s="16"/>
       <c r="L83" s="24"/>
     </row>
@@ -3805,8 +3928,11 @@
       <c r="F84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H84" s="3"/>
+      <c r="J84" s="28"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D85" s="2">
@@ -3815,6 +3941,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
+      <c r="J85" s="28"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D86" s="2">
@@ -3823,6 +3950,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
+      <c r="J86" s="28"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D87" s="2">
@@ -3831,6 +3959,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
+      <c r="J87" s="28"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D88" s="2">
@@ -3839,6 +3968,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
+      <c r="J88" s="28"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D89" s="2">
@@ -3847,6 +3977,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
+      <c r="J89" s="28"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D90" s="2">
@@ -3855,6 +3986,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
+      <c r="J90" s="28"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D91" s="2">
@@ -3863,6 +3995,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
+      <c r="J91" s="28"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D92" s="2">
@@ -3871,6 +4004,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
+      <c r="J92" s="28"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D93" s="2">
@@ -3879,6 +4013,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
+      <c r="J93" s="28"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D94" s="2">
@@ -3887,6 +4022,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
+      <c r="J94" s="28"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D95" s="2">
@@ -3895,6 +4031,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
+      <c r="J95" s="28"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D96" s="2">
@@ -3903,134 +4040,151 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J96" s="28"/>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D97" s="2">
         <v>43345.457366898147</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J97" s="28"/>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D98" s="2">
         <v>43346.276753472222</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J98" s="28"/>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D99" s="2">
         <v>43347.457482638893</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J99" s="28"/>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D100" s="2">
         <v>43348.318304398148</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J100" s="28"/>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D101" s="2">
         <v>43348.332193287039</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J101" s="28"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D102" s="2">
         <v>43349.151695601853</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J102" s="28"/>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D103" s="2">
         <v>43349.458234953709</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J103" s="28"/>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D104" s="2">
         <v>43349.471487268507</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J104" s="28"/>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D105" s="2">
         <v>43351.24909143518</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J105" s="28"/>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D106" s="2">
         <v>43353.151637731477</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J106" s="28"/>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D107" s="2">
         <v>43357.471313657406</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J107" s="28"/>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D108" s="2">
         <v>43358.318188657402</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J108" s="28"/>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D109" s="2">
         <v>43359.318651620371</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J109" s="28"/>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D110" s="2">
         <v>43363.818651620371</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J110" s="28"/>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D111" s="2">
         <v>43367.123802083333</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="J111" s="28"/>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D112" s="2">
         <v>43367.138211805563</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D113" s="2">
@@ -4039,6 +4193,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
+      <c r="J113" s="28"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D114" s="2">
@@ -4047,6 +4202,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
+      <c r="J114" s="28"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D115" s="2">
@@ -4055,6 +4211,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
+      <c r="J115" s="28"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D116" s="2">
@@ -4063,6 +4220,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
+      <c r="J116" s="28"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D117" s="2">
@@ -4071,6 +4229,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
+      <c r="J117" s="28"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D118" s="2">
@@ -4079,6 +4238,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
+      <c r="J118" s="28"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D119" s="2">
@@ -4087,6 +4247,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
+      <c r="J119" s="28"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D120" s="2">
@@ -4095,6 +4256,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
+      <c r="J120" s="28"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D121" s="2">
@@ -4103,6 +4265,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
+      <c r="J121" s="28"/>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D122" s="5">
@@ -4111,6 +4274,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
+      <c r="J122" s="29"/>
       <c r="K122" s="16"/>
       <c r="L122" s="24"/>
     </row>
@@ -4127,11 +4291,19 @@
       <c r="D123" s="8">
         <v>43353.138153935193</v>
       </c>
-      <c r="F123" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="F123" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="30"/>
       <c r="K123" s="17"/>
       <c r="L123" s="25"/>
     </row>
@@ -4148,11 +4320,19 @@
       <c r="D124" s="2">
         <v>43369.178304398149</v>
       </c>
-      <c r="F124" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="F124" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="28"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D125" s="2">
@@ -4161,6 +4341,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
+      <c r="J125" s="28"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D126" s="2">
@@ -4169,6 +4350,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
+      <c r="J126" s="28"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D127" s="2">
@@ -4177,6 +4359,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
+      <c r="J127" s="28"/>
     </row>
     <row r="128" spans="1:12" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D128" s="14">
@@ -4185,6 +4368,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
+      <c r="J128" s="32"/>
       <c r="K128" s="19"/>
       <c r="L128" s="21"/>
     </row>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D740C461-7E87-4EC0-A24B-EA575FD96B39}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830F13B4-C1D8-4CD9-B116-86BA90CAD00A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="2325" yWindow="0" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="54">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BN129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="41" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3931,8 +3931,12 @@
       <c r="G84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="J84" s="28"/>
+      <c r="H84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D85" s="2">

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830F13B4-C1D8-4CD9-B116-86BA90CAD00A}"/>
+  <xr:revisionPtr revIDLastSave="617" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DB5C94-2BFD-4520-ABAA-650EA9243B62}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="0" windowWidth="10710" windowHeight="11895" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="56">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Add_Events_To_Database</t>
   </si>
   <si>
-    <t>Manual_Click_Verification</t>
-  </si>
-  <si>
     <t>Drift</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>ADRIFT_068</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Double check clicks look ok - initial PG was thick line of clicks</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Chunk 4 of RMD 2 took a LONG time</t>
   </si>
   <si>
-    <t>Add Files to Box</t>
-  </si>
-  <si>
     <t>RMD 1 taking a long time (multiple hours)</t>
   </si>
   <si>
@@ -198,6 +189,21 @@
   </si>
   <si>
     <t>Something wrong with this dirft</t>
+  </si>
+  <si>
+    <t>Spectrograms_And_Spectra</t>
+  </si>
+  <si>
+    <t>Add Acoustic Studies, Databases, and Binaries to Box</t>
+  </si>
+  <si>
+    <t>Add Spectrograms and Spectra to Box</t>
+  </si>
+  <si>
+    <t>General Notes</t>
+  </si>
+  <si>
+    <t>Notes on Spectrograms and Specta (Events worth looking into)</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -402,10 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +431,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
-  <dimension ref="A1:BN129"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="41" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -780,56 +791,65 @@
     <col min="2" max="2" width="19.06640625" customWidth="1"/>
     <col min="3" max="3" width="29.19921875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="10" width="24.1328125" customWidth="1"/>
-    <col min="11" max="11" width="50.73046875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.06640625" style="20"/>
+    <col min="5" max="9" width="24.1328125" customWidth="1"/>
+    <col min="10" max="10" width="44.265625" customWidth="1"/>
+    <col min="11" max="11" width="35.53125" customWidth="1"/>
+    <col min="12" max="12" width="53.86328125" customWidth="1"/>
+    <col min="13" max="13" width="50.73046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:68" s="34" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="E1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:66" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>44403.170833333337</v>
@@ -838,19 +858,24 @@
         <v>44403.179166666669</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D3" s="5">
         <v>44407.519768518519</v>
       </c>
@@ -860,11 +885,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="20"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="20"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -917,16 +943,18 @@
       <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3"/>
-    </row>
-    <row r="4" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO3"/>
+      <c r="BP3"/>
+    </row>
+    <row r="4" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8">
         <v>44404.561458333337</v>
@@ -935,21 +963,22 @@
         <v>44404.602083333331</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="20"/>
-      <c r="M4"/>
-      <c r="N4"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="20"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1002,16 +1031,18 @@
       <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4"/>
-    </row>
-    <row r="5" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO4"/>
+      <c r="BP4"/>
+    </row>
+    <row r="5" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>44360.256701388891</v>
@@ -1020,21 +1051,22 @@
         <v>44360.28528935185</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="20"/>
-      <c r="M5"/>
-      <c r="N5"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="20"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1087,16 +1119,18 @@
       <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO5"/>
+      <c r="BP5"/>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>44580.109351851846</v>
@@ -1105,19 +1139,22 @@
         <v>44580.123611111107</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D7" s="2">
         <v>44580.177847222221</v>
       </c>
@@ -1127,9 +1164,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I7" s="3"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D8" s="2">
         <v>44580.225891203707</v>
       </c>
@@ -1139,9 +1179,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I8" s="3"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D9" s="2">
         <v>44580.253530092603</v>
       </c>
@@ -1151,9 +1194,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="3"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D10" s="5">
         <v>44580.292696759258</v>
       </c>
@@ -1163,11 +1209,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="20"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="20"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1220,16 +1267,18 @@
       <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10"/>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO10"/>
+      <c r="BP10"/>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <v>44735.246354166673</v>
@@ -1238,20 +1287,22 @@
         <v>44735.249305555553</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5">
         <v>44737.283750000002</v>
       </c>
@@ -1262,11 +1313,11 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="20"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="20"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
@@ -1319,16 +1370,18 @@
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12"/>
-    </row>
-    <row r="13" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO12"/>
+      <c r="BP12"/>
+    </row>
+    <row r="13" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8">
         <v>44818.156134259261</v>
@@ -1337,22 +1390,22 @@
         <v>44818.174768518518</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="20"/>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="J13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="20"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
@@ -1405,16 +1458,18 @@
       <c r="BL13"/>
       <c r="BM13"/>
       <c r="BN13"/>
-    </row>
-    <row r="14" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO13"/>
+      <c r="BP13"/>
+    </row>
+    <row r="14" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8">
         <v>44818.185706018507</v>
@@ -1423,22 +1478,22 @@
         <v>44818.250856481478</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="20"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="20"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
@@ -1491,16 +1546,18 @@
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14"/>
-    </row>
-    <row r="15" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO14"/>
+      <c r="BP14"/>
+    </row>
+    <row r="15" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8">
         <v>44882.326249999998</v>
@@ -1509,22 +1566,22 @@
         <v>44882.345405092587</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="20"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="20"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
@@ -1577,16 +1634,18 @@
       <c r="BL15"/>
       <c r="BM15"/>
       <c r="BN15"/>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO15"/>
+      <c r="BP15"/>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>44909.985347222217</v>
@@ -1595,20 +1654,22 @@
         <v>44910.02342592593</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D17" s="5">
         <v>44910.070185185177</v>
       </c>
@@ -1619,11 +1680,11 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="20"/>
-      <c r="M17"/>
-      <c r="N17"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="20"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
@@ -1676,16 +1737,18 @@
       <c r="BL17"/>
       <c r="BM17"/>
       <c r="BN17"/>
-    </row>
-    <row r="18" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO17"/>
+      <c r="BP17"/>
+    </row>
+    <row r="18" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8">
         <v>45005.351689814823</v>
@@ -1694,22 +1757,22 @@
         <v>45005.373553240737</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="20"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="20"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
@@ -1762,16 +1825,18 @@
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18"/>
-    </row>
-    <row r="19" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO18"/>
+      <c r="BP18"/>
+    </row>
+    <row r="19" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8">
         <v>45005.294664351852</v>
@@ -1780,22 +1845,22 @@
         <v>45005.301898148136</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="20"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="20"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
@@ -1848,16 +1913,18 @@
       <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19"/>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO19"/>
+      <c r="BP19"/>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
         <v>45002.156157407408</v>
@@ -1866,23 +1933,25 @@
         <v>45002.260150462957</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D21" s="2">
         <v>45002.272129629629</v>
       </c>
@@ -1893,12 +1962,14 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D22" s="2">
         <v>45002.29892361111</v>
       </c>
@@ -1909,9 +1980,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D23" s="2">
         <v>45002.429236111107</v>
       </c>
@@ -1922,9 +1995,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="5">
         <v>45002.964166666672</v>
       </c>
@@ -1935,11 +2010,11 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24"/>
-      <c r="N24"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="20"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -1992,16 +2067,18 @@
       <c r="BL24"/>
       <c r="BM24"/>
       <c r="BN24"/>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO24"/>
+      <c r="BP24"/>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>45002.077708333338</v>
@@ -2010,23 +2087,25 @@
         <v>45002.100451388891</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D26" s="2">
         <v>45002.114224537043</v>
       </c>
@@ -2037,9 +2116,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D27" s="2">
         <v>45002.160868055551</v>
       </c>
@@ -2050,9 +2131,11 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D28" s="2">
         <v>45002.342222222222</v>
       </c>
@@ -2063,9 +2146,11 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D29" s="2">
         <v>45002.523240740753</v>
       </c>
@@ -2076,9 +2161,11 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D30" s="2">
         <v>45003.08756944444</v>
       </c>
@@ -2089,9 +2176,11 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="5">
         <v>45003.336469907408</v>
       </c>
@@ -2102,11 +2191,11 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="20"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
@@ -2159,16 +2248,18 @@
       <c r="BL31"/>
       <c r="BM31"/>
       <c r="BN31"/>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO31"/>
+      <c r="BP31"/>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>45002.345046296286</v>
@@ -2177,23 +2268,25 @@
         <v>45002.569745370369</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D33" s="2">
         <v>45003.131979166668</v>
       </c>
@@ -2204,9 +2297,11 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D34" s="5">
         <v>45003.354826388888</v>
       </c>
@@ -2217,11 +2312,11 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="20"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="20"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
@@ -2274,16 +2369,18 @@
       <c r="BL34"/>
       <c r="BM34"/>
       <c r="BN34"/>
-    </row>
-    <row r="35" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO34"/>
+      <c r="BP34"/>
+    </row>
+    <row r="35" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D35" s="8">
         <v>45044.219282407408</v>
@@ -2292,22 +2389,22 @@
         <v>45044.23646990741</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="20"/>
-      <c r="M35"/>
-      <c r="N35"/>
+        <v>7</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="J35" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="20"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
@@ -2360,16 +2457,18 @@
       <c r="BL35"/>
       <c r="BM35"/>
       <c r="BN35"/>
-    </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO35"/>
+      <c r="BP35"/>
+    </row>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2">
         <v>45054.301666666674</v>
@@ -2378,20 +2477,22 @@
         <v>45054.370532407411</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D37" s="5">
         <v>45054.415324074071</v>
       </c>
@@ -2402,11 +2503,11 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="20"/>
-      <c r="M37"/>
-      <c r="N37"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="20"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
@@ -2459,16 +2560,18 @@
       <c r="BL37"/>
       <c r="BM37"/>
       <c r="BN37"/>
-    </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO37"/>
+      <c r="BP37"/>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2">
         <v>45054.290162037039</v>
@@ -2477,20 +2580,22 @@
         <v>45054.302893518507</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D39" s="2">
         <v>45054.415335648147</v>
       </c>
@@ -2501,9 +2606,11 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D40" s="2">
         <v>45055.170219907413</v>
       </c>
@@ -2514,9 +2621,11 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="28"/>
-    </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D41" s="2">
         <v>45055.351006944453</v>
       </c>
@@ -2527,9 +2636,11 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D42" s="5">
         <v>45055.378020833326</v>
       </c>
@@ -2540,11 +2651,11 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="20"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="20"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
@@ -2597,16 +2708,18 @@
       <c r="BL42"/>
       <c r="BM42"/>
       <c r="BN42"/>
-    </row>
-    <row r="43" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO42"/>
+      <c r="BP42"/>
+    </row>
+    <row r="43" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D43" s="8">
         <v>45128.184965277767</v>
@@ -2615,24 +2728,24 @@
         <v>45128.190115740741</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="J43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="20"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="J43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="20"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
@@ -2685,16 +2798,18 @@
       <c r="BL43"/>
       <c r="BM43"/>
       <c r="BN43"/>
-    </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO43"/>
+      <c r="BP43"/>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
         <v>45119.225254629629</v>
@@ -2703,20 +2818,22 @@
         <v>45119.260034722218</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="J44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D45" s="2">
         <v>45119.310439814813</v>
       </c>
@@ -2727,9 +2844,11 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D46" s="5">
         <v>45119.398460648154</v>
       </c>
@@ -2740,11 +2859,11 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="20"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="20"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
@@ -2797,16 +2916,18 @@
       <c r="BL46"/>
       <c r="BM46"/>
       <c r="BN46"/>
-    </row>
-    <row r="47" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO46"/>
+      <c r="BP46"/>
+    </row>
+    <row r="47" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="8">
         <v>45122.301076388889</v>
@@ -2815,21 +2936,22 @@
         <v>45122.310162037043</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="20"/>
-      <c r="M47"/>
-      <c r="N47"/>
+        <v>7</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="20"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -2882,16 +3004,18 @@
       <c r="BL47"/>
       <c r="BM47"/>
       <c r="BN47"/>
-    </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO47"/>
+      <c r="BP47"/>
+    </row>
+    <row r="48" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2">
         <v>45119.29614583333</v>
@@ -2900,19 +3024,22 @@
         <v>45119.330231481479</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D49" s="5">
         <v>45123.17931712963</v>
       </c>
@@ -2922,11 +3049,12 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="20"/>
-      <c r="M49"/>
-      <c r="N49"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="20"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
@@ -2979,16 +3107,18 @@
       <c r="BL49"/>
       <c r="BM49"/>
       <c r="BN49"/>
-    </row>
-    <row r="50" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BO49"/>
+      <c r="BP49"/>
+    </row>
+    <row r="50" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" s="8">
         <v>45143.215335648143</v>
@@ -2997,21 +3127,22 @@
         <v>45143.242708333331</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="20"/>
-      <c r="M50"/>
-      <c r="N50"/>
+        <v>7</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="20"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
@@ -3064,16 +3195,18 @@
       <c r="BL50"/>
       <c r="BM50"/>
       <c r="BN50"/>
-    </row>
-    <row r="51" spans="1:66" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BO50"/>
+      <c r="BP50"/>
+    </row>
+    <row r="51" spans="1:68" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="11">
         <v>45166.222685185188</v>
@@ -3082,21 +3215,22 @@
         <v>45166.280787037038</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="20"/>
-      <c r="M51"/>
-      <c r="N51"/>
+        <v>7</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="20"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
@@ -3149,16 +3283,18 @@
       <c r="BL51"/>
       <c r="BM51"/>
       <c r="BN51"/>
-    </row>
-    <row r="52" spans="1:66" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="BO51"/>
+      <c r="BP51"/>
+    </row>
+    <row r="52" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="D52" s="2">
         <v>42612.580873842591</v>
@@ -3167,22 +3303,25 @@
         <v>42612.603443287036</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K52" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D53" s="2">
         <v>42614.355943287039</v>
       </c>
@@ -3192,9 +3331,12 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="J53" s="28"/>
-    </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I53" s="3"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D54" s="2">
         <v>42615.103859953699</v>
       </c>
@@ -3204,9 +3346,12 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="J54" s="28"/>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I54" s="3"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D55" s="2">
         <v>42616.176603009248</v>
       </c>
@@ -3216,9 +3361,12 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="J55" s="28"/>
-    </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I55" s="3"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D56" s="2">
         <v>42616.414797453697</v>
       </c>
@@ -3228,9 +3376,12 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="J56" s="28"/>
-    </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I56" s="3"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D57" s="2">
         <v>42618.576927083333</v>
       </c>
@@ -3240,9 +3391,12 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I57" s="3"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5">
         <v>42623.506336805563</v>
       </c>
@@ -3252,11 +3406,12 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="20"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="20"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
@@ -3309,16 +3464,18 @@
       <c r="BL58"/>
       <c r="BM58"/>
       <c r="BN58"/>
-    </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO58"/>
+      <c r="BP58"/>
+    </row>
+    <row r="59" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2">
         <v>42612.561255787034</v>
@@ -3327,19 +3484,22 @@
         <v>42612.620804398153</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+    </row>
+    <row r="60" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D60" s="2">
         <v>42616.558420138877</v>
       </c>
@@ -3349,9 +3509,12 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="J60" s="28"/>
-    </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I60" s="3"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+    </row>
+    <row r="61" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D61" s="2">
         <v>42617.194646990742</v>
       </c>
@@ -3361,9 +3524,12 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="J61" s="28"/>
-    </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I61" s="3"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+    </row>
+    <row r="62" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D62" s="2">
         <v>42618.178038194441</v>
       </c>
@@ -3373,9 +3539,12 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="J62" s="28"/>
-    </row>
-    <row r="63" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I62" s="3"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="63" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D63" s="5">
         <v>42618.300086805553</v>
       </c>
@@ -3385,11 +3554,12 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="20"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="20"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
@@ -3442,16 +3612,18 @@
       <c r="BL63"/>
       <c r="BM63"/>
       <c r="BN63"/>
-    </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO63"/>
+      <c r="BP63"/>
+    </row>
+    <row r="64" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2">
         <v>42612.348975694447</v>
@@ -3460,19 +3632,22 @@
         <v>42612.370908564822</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D65" s="2">
         <v>42612.474091435193</v>
       </c>
@@ -3482,9 +3657,12 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="J65" s="28"/>
-    </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I65" s="3"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D66" s="2">
         <v>42617.710376157411</v>
       </c>
@@ -3494,9 +3672,12 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="J66" s="28"/>
-    </row>
-    <row r="67" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I66" s="3"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+    </row>
+    <row r="67" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="5">
         <v>42618.696718749998</v>
       </c>
@@ -3506,11 +3687,12 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="20"/>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="20"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
@@ -3563,16 +3745,18 @@
       <c r="BL67"/>
       <c r="BM67"/>
       <c r="BN67"/>
-    </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO67"/>
+      <c r="BP67"/>
+    </row>
+    <row r="68" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="D68" s="2">
         <v>42610.535399305547</v>
@@ -3581,22 +3765,25 @@
         <v>42610.555225694443</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J68" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="K68" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D69" s="2">
         <v>42612.31131365741</v>
       </c>
@@ -3606,9 +3793,12 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="J69" s="28"/>
-    </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I69" s="3"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+    </row>
+    <row r="70" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D70" s="2">
         <v>42612.969021990742</v>
       </c>
@@ -3618,9 +3808,12 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="J70" s="28"/>
-    </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I70" s="3"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D71" s="2">
         <v>42616.257019675933</v>
       </c>
@@ -3630,9 +3823,12 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="J71" s="28"/>
-    </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I71" s="3"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+    </row>
+    <row r="72" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D72" s="2">
         <v>42621.241869212958</v>
       </c>
@@ -3642,9 +3838,12 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="J72" s="28"/>
-    </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I72" s="3"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D73" s="2">
         <v>42623.419010416663</v>
       </c>
@@ -3654,9 +3853,12 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="J73" s="28"/>
-    </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I73" s="3"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+    </row>
+    <row r="74" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D74" s="2">
         <v>42624.161082175917</v>
       </c>
@@ -3666,9 +3868,12 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="J74" s="28"/>
-    </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I74" s="3"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+    </row>
+    <row r="75" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D75" s="2">
         <v>42626.26449652778</v>
       </c>
@@ -3678,9 +3883,12 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="J75" s="28"/>
-    </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="I75" s="3"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+    </row>
+    <row r="76" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D76" s="2">
         <v>42626.344184027781</v>
       </c>
@@ -3690,9 +3898,12 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="J76" s="28"/>
-    </row>
-    <row r="77" spans="1:66" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I76" s="3"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+    </row>
+    <row r="77" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5">
         <v>42627.304484953696</v>
       </c>
@@ -3702,11 +3913,12 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="20"/>
-      <c r="M77"/>
-      <c r="N77"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="20"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
@@ -3759,16 +3971,18 @@
       <c r="BL77"/>
       <c r="BM77"/>
       <c r="BN77"/>
-    </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="BO77"/>
+      <c r="BP77"/>
+    </row>
+    <row r="78" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2">
         <v>42612.397146990741</v>
@@ -3777,19 +3991,22 @@
         <v>42612.39830439815</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:66" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+    </row>
+    <row r="79" spans="1:68" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D79" s="14">
         <v>42627.17509837963</v>
       </c>
@@ -3799,11 +4016,12 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="20"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="20"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
@@ -3856,525 +4074,668 @@
       <c r="BL79"/>
       <c r="BM79"/>
       <c r="BN79"/>
-    </row>
-    <row r="80" spans="1:66" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="BO79"/>
+      <c r="BP79"/>
+    </row>
+    <row r="80" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2">
         <v>43358.436255787034</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J80" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D81" s="2">
         <v>43358.450086805547</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="J81" s="28"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I81" s="3"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D82" s="2">
         <v>43358.464033564807</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="J82" s="28"/>
-    </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I82" s="3"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+    </row>
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D83" s="5">
         <v>43358.477864583328</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="24"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I83" s="6"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="22"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2">
         <v>43338.193535879633</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J84" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D85" s="2">
         <v>43338.207309027777</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="J85" s="28"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I85" s="3"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D86" s="2">
         <v>43339.263501157402</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="J86" s="28"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I86" s="3"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D87" s="2">
         <v>43339.277042824076</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="J87" s="28"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I87" s="3"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D88" s="2">
         <v>43339.290700231482</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="J88" s="28"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I88" s="3"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D89" s="2">
         <v>43339.304589120373</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="J89" s="28"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I89" s="3"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D90" s="2">
         <v>43339.734913194443</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="J90" s="28"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I90" s="3"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D91" s="2">
         <v>43339.749149305557</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="J91" s="28"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I91" s="3"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D92" s="2">
         <v>43344.179531250003</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="J92" s="28"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I92" s="3"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D93" s="2">
         <v>43344.193420138887</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="J93" s="28"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I93" s="3"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D94" s="2">
         <v>43345.248917824079</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="J94" s="28"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I94" s="3"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D95" s="2">
         <v>43345.262748842593</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="J95" s="28"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I95" s="3"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D96" s="2">
         <v>43345.2769849537</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="J96" s="28"/>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I96" s="3"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D97" s="2">
         <v>43345.457366898147</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="J97" s="28"/>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I97" s="3"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D98" s="2">
         <v>43346.276753472222</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="J98" s="28"/>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I98" s="3"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D99" s="2">
         <v>43347.457482638893</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="J99" s="28"/>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I99" s="3"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D100" s="2">
         <v>43348.318304398148</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="J100" s="28"/>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I100" s="3"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D101" s="2">
         <v>43348.332193287039</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="J101" s="28"/>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I101" s="3"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D102" s="2">
         <v>43349.151695601853</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="J102" s="28"/>
-    </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I102" s="3"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D103" s="2">
         <v>43349.458234953709</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="J103" s="28"/>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I103" s="3"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D104" s="2">
         <v>43349.471487268507</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="J104" s="28"/>
-    </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I104" s="3"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+    </row>
+    <row r="105" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D105" s="2">
         <v>43351.24909143518</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="J105" s="28"/>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I105" s="3"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+    </row>
+    <row r="106" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D106" s="2">
         <v>43353.151637731477</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="J106" s="28"/>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I106" s="3"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+    </row>
+    <row r="107" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D107" s="2">
         <v>43357.471313657406</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="J107" s="28"/>
-    </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I107" s="3"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+    </row>
+    <row r="108" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D108" s="2">
         <v>43358.318188657402</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="J108" s="28"/>
-    </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I108" s="3"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+    </row>
+    <row r="109" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D109" s="2">
         <v>43359.318651620371</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="J109" s="28"/>
-    </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I109" s="3"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+    </row>
+    <row r="110" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D110" s="2">
         <v>43363.818651620371</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="J110" s="28"/>
-    </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I110" s="3"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+    </row>
+    <row r="111" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D111" s="2">
         <v>43367.123802083333</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="J111" s="28"/>
-    </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I111" s="3"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
+    </row>
+    <row r="112" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D112" s="2">
         <v>43367.138211805563</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="J112" s="28"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I112" s="3"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D113" s="2">
         <v>43367.151695601853</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="J113" s="28"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I113" s="3"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D114" s="2">
         <v>43368.346197916668</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="J114" s="28"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I114" s="3"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D115" s="2">
         <v>43368.359971064812</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="J115" s="28"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I115" s="3"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D116" s="2">
         <v>43370.290642361113</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="J116" s="28"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I116" s="3"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D117" s="2">
         <v>43370.304704861112</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="J117" s="28"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I117" s="3"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D118" s="2">
         <v>43370.373859953703</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="J118" s="28"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I118" s="3"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D119" s="2">
         <v>43370.401753472222</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="J119" s="28"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I119" s="3"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D120" s="2">
         <v>43370.41587384259</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="J120" s="28"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I120" s="3"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D121" s="2">
         <v>43372.929473379627</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="J121" s="28"/>
-    </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I121" s="3"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="26"/>
+    </row>
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D122" s="5">
         <v>43372.943709490741</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="24"/>
-    </row>
-    <row r="123" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I122" s="6"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="22"/>
+    </row>
+    <row r="123" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D123" s="8">
         <v>43353.138153935193</v>
       </c>
-      <c r="F123" s="27" t="s">
-        <v>8</v>
+      <c r="F123" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J123" s="30"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="25"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="23"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2">
         <v>43369.178304398149</v>
       </c>
-      <c r="F124" s="27" t="s">
-        <v>8</v>
+      <c r="F124" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J124" s="28"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D125" s="2">
         <v>43369.192193287032</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="J125" s="28"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I125" s="3"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="26"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D126" s="2">
         <v>43369.219971064813</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-      <c r="J126" s="28"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I126" s="3"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D127" s="2">
         <v>43369.733802083327</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="J127" s="28"/>
-    </row>
-    <row r="128" spans="1:12" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I127" s="3"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+    </row>
+    <row r="128" spans="1:14" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D128" s="14">
         <v>43370.192251157408</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
-      <c r="J128" s="32"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="21"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="21"/>
     </row>
     <row r="129" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="617" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DB5C94-2BFD-4520-ABAA-650EA9243B62}"/>
+  <xr:revisionPtr revIDLastSave="742" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679E015A-7CB2-4D96-A4EA-A320EE602669}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="72">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -204,6 +204,88 @@
   </si>
   <si>
     <t>Notes on Spectrograms and Specta (Events worth looking into)</t>
+  </si>
+  <si>
+    <t>Look into Event_001 further</t>
+  </si>
+  <si>
+    <t>Low number of clicks in Event_001</t>
+  </si>
+  <si>
+    <t>Look into Event_001 further - big chunks of dark</t>
+  </si>
+  <si>
+    <t>Look into Event_001 further - first third of Event_001 messy</t>
+  </si>
+  <si>
+    <t>Look into Event_001 and event_002 further - messy banding / missing banding</t>
+  </si>
+  <si>
+    <t>Look into Event_001 - messy</t>
+  </si>
+  <si>
+    <t>Look into Event_001 and Event_004 further</t>
+  </si>
+  <si>
+    <t>Look into Event_001 and Event_002 further</t>
+  </si>
+  <si>
+    <t>Look into Event_003, Event_004 (no spectral banding at all) and  Event_005 further</t>
+  </si>
+  <si>
+    <t>Look into Event_001 and Event_002 further - low number of clicks in Event_002</t>
+  </si>
+  <si>
+    <t>All Events need review - something really weird is going on here</t>
+  </si>
+  <si>
+    <t>All Events need review</t>
+  </si>
+  <si>
+    <t>Look into Event_001 (messy) and Event_002 (no banding) further</t>
+  </si>
+  <si>
+    <t>Look into Event_001 (messy), Event_002 (low click count), Event_003, Event_004 (low click count), and Event_005 further</t>
+  </si>
+  <si>
+    <t>Low number of clicks in Event_003</t>
+  </si>
+  <si>
+    <t>Look into following Events further (almost all of them): 
+Event_001 - low click count
+Event_002 - patchy banding
+Event_003 - low click count
+Event_004 - patchy banding
+Event_005 - patchy banding
+Event_006 - patchy banding
+Event_007 - low click count
+Event_008 - low click count
+Event_009 - patchy banding
+Event_011 - patchy banding
+Event_012 - patchy banding
+Event_013 - low click count
+Event_014 - low click count
+Event_015 - patchy banding
+Event_016 - low click count
+Event_017 - low click count
+Event_018 -low click count
+Event_019 - low click count
+Event_020 - low click count
+Event_021 - low click count
+Event_022 - patchy banding
+Event_023 - low click count
+Event_027 - low click count
+Event_028 - low click count
+Event_030 - low click count
+Event_031 - patchy banding
+Event_032 - patchy banding
+Event_033 - patchy banding
+Event_034 - patchy banding
+Event_035 - low click count
+Event_036 - patchy banding
+Event_037 - low click count
+Event_038 - low click count
+Event_039 - low click count</t>
   </si>
 </sst>
 </file>
@@ -213,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +313,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,7 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,9 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,6 +533,91 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BP129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D101" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -794,52 +972,52 @@
     <col min="5" max="9" width="24.1328125" customWidth="1"/>
     <col min="10" max="10" width="44.265625" customWidth="1"/>
     <col min="11" max="11" width="35.53125" customWidth="1"/>
-    <col min="12" max="12" width="53.86328125" customWidth="1"/>
+    <col min="12" max="12" width="97.73046875" style="1" customWidth="1"/>
     <col min="13" max="13" width="50.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.06640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="34" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:68" s="32" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="33"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -869,11 +1047,11 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D3" s="5">
@@ -886,9 +1064,9 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="16"/>
       <c r="N3" s="20"/>
       <c r="O3"/>
@@ -971,12 +1149,16 @@
       <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="M4" s="17"/>
       <c r="N4" s="20"/>
       <c r="O4"/>
@@ -1059,12 +1241,14 @@
       <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="17"/>
       <c r="N5" s="20"/>
       <c r="O5"/>
@@ -1122,153 +1306,165 @@
       <c r="BO5"/>
       <c r="BP5"/>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="34">
         <v>44580.109351851846</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="34">
         <v>44580.123611111107</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D7" s="2">
+      <c r="F6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="34">
         <v>44580.177847222221</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="34">
         <v>44580.200335648136</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D8" s="2">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="34">
         <v>44580.225891203707</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="34">
         <v>44580.245625000003</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D9" s="2">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="34">
         <v>44580.253530092603</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="34">
         <v>44580.272847222222</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="5">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:68" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="40">
         <v>44580.292696759258</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="40">
         <v>44580.323900462958</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="20"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="33"/>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="33"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="33"/>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="33"/>
+      <c r="BM10" s="33"/>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="33"/>
+      <c r="BP10" s="33"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -1295,12 +1491,16 @@
       <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="46" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5">
@@ -1313,9 +1513,9 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="16"/>
       <c r="N12" s="20"/>
       <c r="O12"/>
@@ -1398,12 +1598,14 @@
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="17"/>
       <c r="N13" s="20"/>
       <c r="O13"/>
@@ -1486,12 +1688,14 @@
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="17"/>
       <c r="N14" s="20"/>
       <c r="O14"/>
@@ -1574,12 +1778,16 @@
       <c r="H15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" s="20"/>
       <c r="O15"/>
@@ -1662,12 +1870,16 @@
       <c r="H16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="46" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D17" s="5">
@@ -1680,9 +1892,9 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="16"/>
       <c r="N17" s="20"/>
       <c r="O17"/>
@@ -1740,93 +1952,95 @@
       <c r="BO17"/>
       <c r="BP17"/>
     </row>
-    <row r="18" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:68" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="59">
         <v>45005.351689814823</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="59">
         <v>45005.373553240737</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="20"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
-      <c r="AP18"/>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
-      <c r="AW18"/>
-      <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="BA18"/>
-      <c r="BB18"/>
-      <c r="BC18"/>
-      <c r="BD18"/>
-      <c r="BE18"/>
-      <c r="BF18"/>
-      <c r="BG18"/>
-      <c r="BH18"/>
-      <c r="BI18"/>
-      <c r="BJ18"/>
-      <c r="BK18"/>
-      <c r="BL18"/>
-      <c r="BM18"/>
-      <c r="BN18"/>
-      <c r="BO18"/>
-      <c r="BP18"/>
+      <c r="F18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
     </row>
     <row r="19" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
@@ -1853,12 +2067,14 @@
       <c r="H19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="17"/>
       <c r="N19" s="20"/>
       <c r="O19"/>
@@ -1941,12 +2157,16 @@
       <c r="H20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1962,9 +2182,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1980,9 +2200,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D23" s="2">
@@ -1995,9 +2215,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="5">
@@ -2010,9 +2230,9 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="16"/>
       <c r="N24" s="20"/>
       <c r="O24"/>
@@ -2095,12 +2315,16 @@
       <c r="H25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="M25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,9 +2340,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D27" s="2">
@@ -2131,9 +2355,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D28" s="2">
@@ -2146,9 +2370,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D29" s="2">
@@ -2161,9 +2385,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D30" s="2">
@@ -2176,9 +2400,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="5">
@@ -2191,9 +2415,9 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="16"/>
       <c r="N31" s="20"/>
       <c r="O31"/>
@@ -2251,40 +2475,45 @@
       <c r="BO31"/>
       <c r="BP31"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="1:68" s="61" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="63">
         <v>45002.345046296286</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="63">
         <v>45002.569745370369</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="1" t="s">
+      <c r="F32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D33" s="2">
@@ -2297,9 +2526,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D34" s="5">
@@ -2312,9 +2541,9 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="16"/>
       <c r="N34" s="20"/>
       <c r="O34"/>
@@ -2394,15 +2623,17 @@
       <c r="G35" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="H35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="17"/>
       <c r="N35" s="20"/>
       <c r="O35"/>
@@ -2482,15 +2713,17 @@
       <c r="G36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+      <c r="H36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="25"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D37" s="5">
@@ -2503,9 +2736,9 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="16"/>
       <c r="N37" s="20"/>
       <c r="O37"/>
@@ -2588,12 +2821,14 @@
       <c r="H38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+      <c r="I38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="25"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D39" s="2">
@@ -2606,9 +2841,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D40" s="2">
@@ -2621,9 +2856,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D41" s="2">
@@ -2636,9 +2871,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D42" s="5">
@@ -2651,9 +2886,9 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="16"/>
       <c r="N42" s="20"/>
       <c r="O42"/>
@@ -2736,12 +2971,16 @@
       <c r="H43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="I43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="M43" s="17" t="s">
         <v>50</v>
       </c>
@@ -2826,12 +3065,14 @@
       <c r="H44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
+      <c r="I44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="25"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D45" s="2">
@@ -2844,9 +3085,9 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D46" s="5">
@@ -2859,9 +3100,9 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="48"/>
       <c r="M46" s="16"/>
       <c r="N46" s="20"/>
       <c r="O46"/>
@@ -2944,12 +3185,16 @@
       <c r="H47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
+      <c r="I47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="27"/>
+      <c r="L47" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="M47" s="17"/>
       <c r="N47" s="20"/>
       <c r="O47"/>
@@ -3032,12 +3277,16 @@
       <c r="H48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+      <c r="I48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="25"/>
+      <c r="L48" s="46" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="49" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D49" s="5">
@@ -3050,9 +3299,9 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="48"/>
       <c r="M49" s="16"/>
       <c r="N49" s="20"/>
       <c r="O49"/>
@@ -3135,12 +3384,14 @@
       <c r="H50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+      <c r="I50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="27"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="17"/>
       <c r="N50" s="20"/>
       <c r="O50"/>
@@ -3223,12 +3474,14 @@
       <c r="H51" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
+      <c r="I51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="28"/>
+      <c r="L51" s="51"/>
       <c r="M51" s="18"/>
       <c r="N51" s="20"/>
       <c r="O51"/>
@@ -3286,186 +3539,199 @@
       <c r="BO51"/>
       <c r="BP51"/>
     </row>
-    <row r="52" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" spans="1:68" s="33" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="34">
         <v>42612.580873842591</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="34">
         <v>42612.603443287036</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="26" t="s">
+      <c r="I52" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="31" t="s">
+      <c r="J52" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D53" s="2">
+      <c r="N52" s="38"/>
+    </row>
+    <row r="53" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D53" s="34">
         <v>42614.355943287039</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="34">
         <v>42614.377528935191</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-    </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D54" s="2">
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+    </row>
+    <row r="54" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D54" s="34">
         <v>42615.103859953699</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="34">
         <v>42615.120468749999</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-    </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D55" s="2">
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38"/>
+    </row>
+    <row r="55" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D55" s="34">
         <v>42616.176603009248</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="34">
         <v>42616.210109953703</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-    </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D56" s="2">
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38"/>
+    </row>
+    <row r="56" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D56" s="34">
         <v>42616.414797453697</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="34">
         <v>42616.434068287039</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-    </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D57" s="2">
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+    </row>
+    <row r="57" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="34">
         <v>42618.576927083333</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="34">
         <v>42618.598454861123</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-    </row>
-    <row r="58" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D58" s="5">
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="38"/>
+    </row>
+    <row r="58" spans="1:68" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="40">
         <v>42623.506336805563</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="40">
         <v>42623.522656250003</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="20"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
-      <c r="AL58"/>
-      <c r="AM58"/>
-      <c r="AN58"/>
-      <c r="AO58"/>
-      <c r="AP58"/>
-      <c r="AQ58"/>
-      <c r="AR58"/>
-      <c r="AS58"/>
-      <c r="AT58"/>
-      <c r="AU58"/>
-      <c r="AV58"/>
-      <c r="AW58"/>
-      <c r="AX58"/>
-      <c r="AY58"/>
-      <c r="AZ58"/>
-      <c r="BA58"/>
-      <c r="BB58"/>
-      <c r="BC58"/>
-      <c r="BD58"/>
-      <c r="BE58"/>
-      <c r="BF58"/>
-      <c r="BG58"/>
-      <c r="BH58"/>
-      <c r="BI58"/>
-      <c r="BJ58"/>
-      <c r="BK58"/>
-      <c r="BL58"/>
-      <c r="BM58"/>
-      <c r="BN58"/>
-      <c r="BO58"/>
-      <c r="BP58"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="33"/>
+      <c r="AP58" s="33"/>
+      <c r="AQ58" s="33"/>
+      <c r="AR58" s="33"/>
+      <c r="AS58" s="33"/>
+      <c r="AT58" s="33"/>
+      <c r="AU58" s="33"/>
+      <c r="AV58" s="33"/>
+      <c r="AW58" s="33"/>
+      <c r="AX58" s="33"/>
+      <c r="AY58" s="33"/>
+      <c r="AZ58" s="33"/>
+      <c r="BA58" s="33"/>
+      <c r="BB58" s="33"/>
+      <c r="BC58" s="33"/>
+      <c r="BD58" s="33"/>
+      <c r="BE58" s="33"/>
+      <c r="BF58" s="33"/>
+      <c r="BG58" s="33"/>
+      <c r="BH58" s="33"/>
+      <c r="BI58" s="33"/>
+      <c r="BJ58" s="33"/>
+      <c r="BK58" s="33"/>
+      <c r="BL58" s="33"/>
+      <c r="BM58" s="33"/>
+      <c r="BN58" s="33"/>
+      <c r="BO58" s="33"/>
+      <c r="BP58" s="33"/>
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
@@ -3492,12 +3758,16 @@
       <c r="H59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
+      <c r="I59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="25"/>
+      <c r="L59" s="46" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D60" s="2">
@@ -3510,9 +3780,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D61" s="2">
@@ -3525,9 +3795,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D62" s="2">
@@ -3540,9 +3810,9 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D63" s="5">
@@ -3555,9 +3825,9 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="48"/>
       <c r="M63" s="16"/>
       <c r="N63" s="20"/>
       <c r="O63"/>
@@ -3640,12 +3910,16 @@
       <c r="H64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
+      <c r="I64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="25"/>
+      <c r="L64" s="46" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="65" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D65" s="2">
@@ -3658,9 +3932,9 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="46"/>
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.45">
       <c r="D66" s="2">
@@ -3673,9 +3947,9 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="5">
@@ -3688,9 +3962,9 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="48"/>
       <c r="M67" s="16"/>
       <c r="N67" s="20"/>
       <c r="O67"/>
@@ -3748,231 +4022,250 @@
       <c r="BO67"/>
       <c r="BP67"/>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="68" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="34">
         <v>42610.535399305547</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="34">
         <v>42610.555225694443</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="26" t="s">
+      <c r="I68" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="31" t="s">
+      <c r="J68" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="55"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D69" s="2">
+      <c r="N68" s="38"/>
+    </row>
+    <row r="69" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D69" s="34">
         <v>42612.31131365741</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="34">
         <v>42612.336788194443</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-    </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D70" s="2">
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="38"/>
+    </row>
+    <row r="70" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D70" s="34">
         <v>42612.969021990742</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="34">
         <v>42612.983778935188</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-    </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D71" s="2">
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="38"/>
+    </row>
+    <row r="71" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D71" s="34">
         <v>42616.257019675933</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="34">
         <v>42616.291394675922</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-    </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D72" s="2">
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="38"/>
+    </row>
+    <row r="72" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D72" s="34">
         <v>42621.241869212958</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="34">
         <v>42621.275318287036</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-    </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D73" s="2">
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="38"/>
+    </row>
+    <row r="73" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D73" s="34">
         <v>42623.419010416663</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="34">
         <v>42623.431278935182</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-    </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D74" s="2">
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="38"/>
+    </row>
+    <row r="74" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D74" s="34">
         <v>42624.161082175917</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="34">
         <v>42624.177401620371</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-    </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D75" s="2">
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="38"/>
+    </row>
+    <row r="75" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D75" s="34">
         <v>42626.26449652778</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="34">
         <v>42626.29942708333</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-    </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D76" s="2">
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="38"/>
+    </row>
+    <row r="76" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D76" s="34">
         <v>42626.344184027781</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="34">
         <v>42626.386487268523</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-    </row>
-    <row r="77" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D77" s="5">
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="38"/>
+    </row>
+    <row r="77" spans="1:68" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D77" s="40">
         <v>42627.304484953696</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="40">
         <v>42627.315017361107</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="20"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
-      <c r="AL77"/>
-      <c r="AM77"/>
-      <c r="AN77"/>
-      <c r="AO77"/>
-      <c r="AP77"/>
-      <c r="AQ77"/>
-      <c r="AR77"/>
-      <c r="AS77"/>
-      <c r="AT77"/>
-      <c r="AU77"/>
-      <c r="AV77"/>
-      <c r="AW77"/>
-      <c r="AX77"/>
-      <c r="AY77"/>
-      <c r="AZ77"/>
-      <c r="BA77"/>
-      <c r="BB77"/>
-      <c r="BC77"/>
-      <c r="BD77"/>
-      <c r="BE77"/>
-      <c r="BF77"/>
-      <c r="BG77"/>
-      <c r="BH77"/>
-      <c r="BI77"/>
-      <c r="BJ77"/>
-      <c r="BK77"/>
-      <c r="BL77"/>
-      <c r="BM77"/>
-      <c r="BN77"/>
-      <c r="BO77"/>
-      <c r="BP77"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="33"/>
+      <c r="X77" s="33"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="33"/>
+      <c r="AC77" s="33"/>
+      <c r="AD77" s="33"/>
+      <c r="AE77" s="33"/>
+      <c r="AF77" s="33"/>
+      <c r="AG77" s="33"/>
+      <c r="AH77" s="33"/>
+      <c r="AI77" s="33"/>
+      <c r="AJ77" s="33"/>
+      <c r="AK77" s="33"/>
+      <c r="AL77" s="33"/>
+      <c r="AM77" s="33"/>
+      <c r="AN77" s="33"/>
+      <c r="AO77" s="33"/>
+      <c r="AP77" s="33"/>
+      <c r="AQ77" s="33"/>
+      <c r="AR77" s="33"/>
+      <c r="AS77" s="33"/>
+      <c r="AT77" s="33"/>
+      <c r="AU77" s="33"/>
+      <c r="AV77" s="33"/>
+      <c r="AW77" s="33"/>
+      <c r="AX77" s="33"/>
+      <c r="AY77" s="33"/>
+      <c r="AZ77" s="33"/>
+      <c r="BA77" s="33"/>
+      <c r="BB77" s="33"/>
+      <c r="BC77" s="33"/>
+      <c r="BD77" s="33"/>
+      <c r="BE77" s="33"/>
+      <c r="BF77" s="33"/>
+      <c r="BG77" s="33"/>
+      <c r="BH77" s="33"/>
+      <c r="BI77" s="33"/>
+      <c r="BJ77" s="33"/>
+      <c r="BK77" s="33"/>
+      <c r="BL77" s="33"/>
+      <c r="BM77" s="33"/>
+      <c r="BN77" s="33"/>
+      <c r="BO77" s="33"/>
+      <c r="BP77" s="33"/>
     </row>
     <row r="78" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
@@ -3999,12 +4292,16 @@
       <c r="H78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
+      <c r="I78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="25"/>
+      <c r="L78" s="46" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="79" spans="1:68" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D79" s="14">
@@ -4017,9 +4314,9 @@
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="52"/>
       <c r="M79" s="19"/>
       <c r="N79" s="20"/>
       <c r="O79"/>
@@ -4099,12 +4396,16 @@
       <c r="H80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
+      <c r="I80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="25"/>
+      <c r="L80" s="46" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D81" s="2">
@@ -4114,9 +4415,9 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="46"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D82" s="2">
@@ -4126,9 +4427,9 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="46"/>
     </row>
     <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D83" s="5">
@@ -4138,40 +4439,44 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="48"/>
       <c r="M83" s="16"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="84" spans="1:14" s="61" customFormat="1" ht="57.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="63">
         <v>43338.193535879633</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
+      <c r="F84" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="25"/>
+      <c r="L84" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84" s="46"/>
+      <c r="N84" s="60"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D85" s="2">
@@ -4181,9 +4486,9 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="46"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D86" s="2">
@@ -4193,9 +4498,9 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="46"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D87" s="2">
@@ -4205,9 +4510,9 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="46"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D88" s="2">
@@ -4217,9 +4522,9 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="46"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D89" s="2">
@@ -4229,9 +4534,9 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="46"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D90" s="2">
@@ -4241,9 +4546,9 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="46"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D91" s="2">
@@ -4253,9 +4558,9 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D92" s="2">
@@ -4265,9 +4570,9 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="46"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D93" s="2">
@@ -4277,9 +4582,9 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="46"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D94" s="2">
@@ -4289,9 +4594,9 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="46"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D95" s="2">
@@ -4301,9 +4606,9 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="46"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D96" s="2">
@@ -4313,9 +4618,9 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="46"/>
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D97" s="2">
@@ -4325,9 +4630,9 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="46"/>
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D98" s="2">
@@ -4337,9 +4642,9 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="26"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="46"/>
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D99" s="2">
@@ -4349,9 +4654,9 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="46"/>
     </row>
     <row r="100" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D100" s="2">
@@ -4361,9 +4666,9 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="46"/>
     </row>
     <row r="101" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D101" s="2">
@@ -4373,9 +4678,9 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26"/>
-      <c r="L101" s="26"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="46"/>
     </row>
     <row r="102" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D102" s="2">
@@ -4385,9 +4690,9 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="46"/>
     </row>
     <row r="103" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D103" s="2">
@@ -4397,9 +4702,9 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="46"/>
     </row>
     <row r="104" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D104" s="2">
@@ -4409,9 +4714,9 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="46"/>
     </row>
     <row r="105" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D105" s="2">
@@ -4421,9 +4726,9 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="46"/>
     </row>
     <row r="106" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D106" s="2">
@@ -4433,9 +4738,9 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="46"/>
     </row>
     <row r="107" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D107" s="2">
@@ -4445,9 +4750,9 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="46"/>
     </row>
     <row r="108" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D108" s="2">
@@ -4457,9 +4762,9 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="46"/>
     </row>
     <row r="109" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D109" s="2">
@@ -4469,9 +4774,9 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="46"/>
     </row>
     <row r="110" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D110" s="2">
@@ -4481,9 +4786,9 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="46"/>
     </row>
     <row r="111" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D111" s="2">
@@ -4493,9 +4798,9 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="46"/>
     </row>
     <row r="112" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D112" s="2">
@@ -4505,9 +4810,9 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
-      <c r="L112" s="26"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="46"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D113" s="2">
@@ -4517,9 +4822,9 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="26"/>
-      <c r="L113" s="26"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="46"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D114" s="2">
@@ -4529,9 +4834,9 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="26"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="46"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D115" s="2">
@@ -4541,9 +4846,9 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="46"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D116" s="2">
@@ -4553,9 +4858,9 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="26"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="46"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D117" s="2">
@@ -4565,9 +4870,9 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="46"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D118" s="2">
@@ -4577,9 +4882,9 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="46"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D119" s="2">
@@ -4589,9 +4894,9 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="26"/>
-      <c r="L119" s="26"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="46"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D120" s="2">
@@ -4601,9 +4906,9 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="46"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D121" s="2">
@@ -4613,9 +4918,9 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="26"/>
-      <c r="L121" s="26"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="46"/>
     </row>
     <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D122" s="5">
@@ -4625,9 +4930,9 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="48"/>
       <c r="M122" s="16"/>
       <c r="N122" s="22"/>
     </row>
@@ -4644,7 +4949,7 @@
       <c r="D123" s="8">
         <v>43353.138153935193</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F123" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="9" t="s">
@@ -4653,10 +4958,14 @@
       <c r="H123" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="28"/>
+      <c r="I123" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="M123" s="17"/>
       <c r="N123" s="23"/>
     </row>
@@ -4673,7 +4982,7 @@
       <c r="D124" s="2">
         <v>43369.178304398149</v>
       </c>
-      <c r="F124" s="25" t="s">
+      <c r="F124" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
@@ -4682,10 +4991,14 @@
       <c r="H124" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
-      <c r="L124" s="26"/>
+      <c r="I124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="46" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D125" s="2">
@@ -4695,9 +5008,9 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="26"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="46"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D126" s="2">
@@ -4707,9 +5020,9 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="46"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D127" s="2">
@@ -4719,9 +5032,9 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="46"/>
     </row>
     <row r="128" spans="1:14" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D128" s="14">
@@ -4731,9 +5044,9 @@
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
-      <c r="J128" s="30"/>
-      <c r="K128" s="30"/>
-      <c r="L128" s="30"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="52"/>
       <c r="M128" s="19"/>
       <c r="N128" s="21"/>
     </row>
@@ -4741,5 +5054,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="742" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679E015A-7CB2-4D96-A4EA-A320EE602669}"/>
+  <xr:revisionPtr revIDLastSave="769" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B57E13-375B-4C2E-B3AD-E526B4386654}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="77">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -286,6 +286,21 @@
 Event_037 - low click count
 Event_038 - low click count
 Event_039 - low click count</t>
+  </si>
+  <si>
+    <t>Notes on LTSA Files for Low Click Counts</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*** Either vessel or dolphin noise - Risso's present when detections not listed?</t>
+  </si>
+  <si>
+    <t>***Very faint banding with background noise</t>
+  </si>
+  <si>
+    <t>Not uing this drift</t>
   </si>
 </sst>
 </file>
@@ -452,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -617,6 +632,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -957,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BQ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D101" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="48" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -972,12 +993,13 @@
     <col min="5" max="9" width="24.1328125" customWidth="1"/>
     <col min="10" max="10" width="44.265625" customWidth="1"/>
     <col min="11" max="11" width="35.53125" customWidth="1"/>
-    <col min="12" max="12" width="97.73046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="50.73046875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="20"/>
+    <col min="12" max="12" width="97.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="66.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.73046875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="32" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:69" s="32" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
@@ -1014,12 +1036,15 @@
       <c r="L1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:69" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1052,8 +1077,9 @@
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="46"/>
-    </row>
-    <row r="3" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D3" s="5">
         <v>44407.519768518519</v>
       </c>
@@ -1067,9 +1093,9 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="20"/>
-      <c r="O3"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="20"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1123,8 +1149,9 @@
       <c r="BN3"/>
       <c r="BO3"/>
       <c r="BP3"/>
-    </row>
-    <row r="4" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ3"/>
+    </row>
+    <row r="4" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1159,9 +1186,9 @@
       <c r="L4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="20"/>
-      <c r="O4"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1215,8 +1242,9 @@
       <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
-    </row>
-    <row r="5" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ4"/>
+    </row>
+    <row r="5" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1249,9 +1277,9 @@
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="45"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="20"/>
-      <c r="O5"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="20"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1305,8 +1333,9 @@
       <c r="BN5"/>
       <c r="BO5"/>
       <c r="BP5"/>
-    </row>
-    <row r="6" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ5"/>
+    </row>
+    <row r="6" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="33" t="s">
         <v>25</v>
       </c>
@@ -1339,12 +1368,13 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="34">
         <v>44580.177847222221</v>
       </c>
@@ -1358,10 +1388,11 @@
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
       <c r="L7" s="49"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M7" s="49"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D8" s="34">
         <v>44580.225891203707</v>
       </c>
@@ -1375,10 +1406,11 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="49"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
-    </row>
-    <row r="9" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M8" s="49"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D9" s="34">
         <v>44580.253530092603</v>
       </c>
@@ -1392,10 +1424,11 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="49"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="1:68" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M9" s="49"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:69" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D10" s="40">
         <v>44580.292696759258</v>
       </c>
@@ -1409,9 +1442,9 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="33"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
@@ -1465,8 +1498,9 @@
       <c r="BN10" s="33"/>
       <c r="BO10" s="33"/>
       <c r="BP10" s="33"/>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ10" s="33"/>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1501,8 +1535,11 @@
       <c r="L11" s="46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M11" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5">
         <v>44737.283750000002</v>
       </c>
@@ -1516,9 +1553,9 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="48"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="20"/>
-      <c r="O12"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="20"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1572,8 +1609,9 @@
       <c r="BN12"/>
       <c r="BO12"/>
       <c r="BP12"/>
-    </row>
-    <row r="13" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ12"/>
+    </row>
+    <row r="13" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1606,9 +1644,9 @@
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="20"/>
-      <c r="O13"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="20"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -1662,8 +1700,9 @@
       <c r="BN13"/>
       <c r="BO13"/>
       <c r="BP13"/>
-    </row>
-    <row r="14" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ13"/>
+    </row>
+    <row r="14" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1696,9 +1735,9 @@
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="20"/>
-      <c r="O14"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="20"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1752,8 +1791,9 @@
       <c r="BN14"/>
       <c r="BO14"/>
       <c r="BP14"/>
-    </row>
-    <row r="15" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ14"/>
+    </row>
+    <row r="15" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1788,9 +1828,9 @@
       <c r="L15" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="20"/>
-      <c r="O15"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="20"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1844,8 +1884,9 @@
       <c r="BN15"/>
       <c r="BO15"/>
       <c r="BP15"/>
-    </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ15"/>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1880,8 +1921,9 @@
       <c r="L16" s="46" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D17" s="5">
         <v>44910.070185185177</v>
       </c>
@@ -1895,9 +1937,9 @@
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="20"/>
-      <c r="O17"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="20"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -1951,8 +1993,9 @@
       <c r="BN17"/>
       <c r="BO17"/>
       <c r="BP17"/>
-    </row>
-    <row r="18" spans="1:68" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ17"/>
+    </row>
+    <row r="18" spans="1:69" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="58" t="s">
         <v>29</v>
       </c>
@@ -1985,9 +2028,9 @@
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="53"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="60"/>
       <c r="P18" s="61"/>
       <c r="Q18" s="61"/>
       <c r="R18" s="61"/>
@@ -2041,8 +2084,9 @@
       <c r="BN18" s="61"/>
       <c r="BO18" s="61"/>
       <c r="BP18" s="61"/>
-    </row>
-    <row r="19" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ18" s="61"/>
+    </row>
+    <row r="19" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -2075,9 +2119,9 @@
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="45"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="20"/>
-      <c r="O19"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="20"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
@@ -2131,8 +2175,9 @@
       <c r="BN19"/>
       <c r="BO19"/>
       <c r="BP19"/>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ19"/>
+    </row>
+    <row r="20" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2167,11 +2212,14 @@
       <c r="L20" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D21" s="2">
         <v>45002.272129629629</v>
       </c>
@@ -2185,11 +2233,12 @@
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="46"/>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D22" s="2">
         <v>45002.29892361111</v>
       </c>
@@ -2203,8 +2252,9 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D23" s="2">
         <v>45002.429236111107</v>
       </c>
@@ -2218,8 +2268,9 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="5">
         <v>45002.964166666672</v>
       </c>
@@ -2233,9 +2284,9 @@
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="48"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="20"/>
-      <c r="O24"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="20"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
@@ -2289,8 +2340,9 @@
       <c r="BN24"/>
       <c r="BO24"/>
       <c r="BP24"/>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ24"/>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2325,11 +2377,12 @@
       <c r="L25" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="46"/>
+      <c r="N25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D26" s="2">
         <v>45002.114224537043</v>
       </c>
@@ -2343,8 +2396,9 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="46"/>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D27" s="2">
         <v>45002.160868055551</v>
       </c>
@@ -2358,8 +2412,9 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="46"/>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M27" s="46"/>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D28" s="2">
         <v>45002.342222222222</v>
       </c>
@@ -2373,8 +2428,9 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="46"/>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D29" s="2">
         <v>45002.523240740753</v>
       </c>
@@ -2388,8 +2444,9 @@
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="46"/>
-    </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M29" s="46"/>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D30" s="2">
         <v>45003.08756944444</v>
       </c>
@@ -2403,8 +2460,9 @@
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="46"/>
-    </row>
-    <row r="31" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="5">
         <v>45003.336469907408</v>
       </c>
@@ -2418,9 +2476,9 @@
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
       <c r="L31" s="48"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="20"/>
-      <c r="O31"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="20"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
@@ -2474,8 +2532,9 @@
       <c r="BN31"/>
       <c r="BO31"/>
       <c r="BP31"/>
-    </row>
-    <row r="32" spans="1:68" s="61" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ31"/>
+    </row>
+    <row r="32" spans="1:69" s="61" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="61" t="s">
         <v>12</v>
       </c>
@@ -2510,12 +2569,15 @@
       <c r="L32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="60"/>
-    </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="O32" s="60"/>
+    </row>
+    <row r="33" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D33" s="2">
         <v>45003.131979166668</v>
       </c>
@@ -2529,8 +2591,9 @@
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="46"/>
-    </row>
-    <row r="34" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M33" s="46"/>
+    </row>
+    <row r="34" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D34" s="5">
         <v>45003.354826388888</v>
       </c>
@@ -2544,9 +2607,9 @@
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
       <c r="L34" s="48"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="20"/>
-      <c r="O34"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="20"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
@@ -2600,8 +2663,9 @@
       <c r="BN34"/>
       <c r="BO34"/>
       <c r="BP34"/>
-    </row>
-    <row r="35" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ34"/>
+    </row>
+    <row r="35" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -2634,9 +2698,9 @@
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="45"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="20"/>
-      <c r="O35"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="20"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
@@ -2690,8 +2754,9 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-    </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ35"/>
+    </row>
+    <row r="36" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2724,8 +2789,9 @@
       </c>
       <c r="K36" s="25"/>
       <c r="L36" s="46"/>
-    </row>
-    <row r="37" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M36" s="46"/>
+    </row>
+    <row r="37" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D37" s="5">
         <v>45054.415324074071</v>
       </c>
@@ -2739,9 +2805,9 @@
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="48"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="20"/>
-      <c r="O37"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="20"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
@@ -2795,8 +2861,9 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-    </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ37"/>
+    </row>
+    <row r="38" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2829,8 +2896,9 @@
       </c>
       <c r="K38" s="25"/>
       <c r="L38" s="46"/>
-    </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M38" s="46"/>
+    </row>
+    <row r="39" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D39" s="2">
         <v>45054.415335648147</v>
       </c>
@@ -2844,8 +2912,9 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="46"/>
-    </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M39" s="46"/>
+    </row>
+    <row r="40" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D40" s="2">
         <v>45055.170219907413</v>
       </c>
@@ -2859,8 +2928,9 @@
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M40" s="46"/>
+    </row>
+    <row r="41" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D41" s="2">
         <v>45055.351006944453</v>
       </c>
@@ -2874,8 +2944,9 @@
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="46"/>
-    </row>
-    <row r="42" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M41" s="46"/>
+    </row>
+    <row r="42" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D42" s="5">
         <v>45055.378020833326</v>
       </c>
@@ -2889,9 +2960,9 @@
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="48"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="20"/>
-      <c r="O42"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="20"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
@@ -2945,8 +3016,9 @@
       <c r="BN42"/>
       <c r="BO42"/>
       <c r="BP42"/>
-    </row>
-    <row r="43" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ42"/>
+    </row>
+    <row r="43" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>31</v>
       </c>
@@ -2981,11 +3053,13 @@
       <c r="L43" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43"/>
+      <c r="O43" s="20"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
@@ -3039,8 +3113,9 @@
       <c r="BN43"/>
       <c r="BO43"/>
       <c r="BP43"/>
-    </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ43"/>
+    </row>
+    <row r="44" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -3073,8 +3148,9 @@
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="46"/>
-    </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D45" s="2">
         <v>45119.310439814813</v>
       </c>
@@ -3088,8 +3164,9 @@
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="46"/>
-    </row>
-    <row r="46" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M45" s="46"/>
+    </row>
+    <row r="46" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D46" s="5">
         <v>45119.398460648154</v>
       </c>
@@ -3103,9 +3180,9 @@
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" s="48"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="20"/>
-      <c r="O46"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="20"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
@@ -3159,8 +3236,9 @@
       <c r="BN46"/>
       <c r="BO46"/>
       <c r="BP46"/>
-    </row>
-    <row r="47" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ46"/>
+    </row>
+    <row r="47" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
@@ -3195,9 +3273,9 @@
       <c r="L47" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="20"/>
-      <c r="O47"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="20"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
@@ -3251,8 +3329,9 @@
       <c r="BN47"/>
       <c r="BO47"/>
       <c r="BP47"/>
-    </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ47"/>
+    </row>
+    <row r="48" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -3287,8 +3366,11 @@
       <c r="L48" s="46" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M48" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D49" s="5">
         <v>45123.17931712963</v>
       </c>
@@ -3302,9 +3384,9 @@
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" s="48"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="20"/>
-      <c r="O49"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="20"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
@@ -3358,8 +3440,9 @@
       <c r="BN49"/>
       <c r="BO49"/>
       <c r="BP49"/>
-    </row>
-    <row r="50" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ49"/>
+    </row>
+    <row r="50" spans="1:69" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>35</v>
       </c>
@@ -3392,9 +3475,9 @@
       </c>
       <c r="K50" s="27"/>
       <c r="L50" s="45"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="20"/>
-      <c r="O50"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="20"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -3448,8 +3531,9 @@
       <c r="BN50"/>
       <c r="BO50"/>
       <c r="BP50"/>
-    </row>
-    <row r="51" spans="1:68" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ50"/>
+    </row>
+    <row r="51" spans="1:69" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="10" t="s">
         <v>36</v>
       </c>
@@ -3482,9 +3566,9 @@
       </c>
       <c r="K51" s="28"/>
       <c r="L51" s="51"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="20"/>
-      <c r="O51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="20"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
@@ -3538,8 +3622,9 @@
       <c r="BN51"/>
       <c r="BO51"/>
       <c r="BP51"/>
-    </row>
-    <row r="52" spans="1:68" s="33" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="BQ51"/>
+    </row>
+    <row r="52" spans="1:69" s="33" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A52" s="33" t="s">
         <v>39</v>
       </c>
@@ -3572,12 +3657,13 @@
       </c>
       <c r="K52" s="36"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="37" t="s">
+      <c r="M52" s="49"/>
+      <c r="N52" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="N52" s="38"/>
-    </row>
-    <row r="53" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O52" s="38"/>
+    </row>
+    <row r="53" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D53" s="34">
         <v>42614.355943287039</v>
       </c>
@@ -3591,10 +3677,11 @@
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-    </row>
-    <row r="54" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M53" s="49"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="38"/>
+    </row>
+    <row r="54" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D54" s="34">
         <v>42615.103859953699</v>
       </c>
@@ -3608,10 +3695,11 @@
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="49"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38"/>
-    </row>
-    <row r="55" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M54" s="49"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
+    </row>
+    <row r="55" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D55" s="34">
         <v>42616.176603009248</v>
       </c>
@@ -3625,10 +3713,11 @@
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="49"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38"/>
-    </row>
-    <row r="56" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M55" s="49"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38"/>
+    </row>
+    <row r="56" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D56" s="34">
         <v>42616.414797453697</v>
       </c>
@@ -3642,10 +3731,11 @@
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="49"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
-    </row>
-    <row r="57" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M56" s="49"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="38"/>
+    </row>
+    <row r="57" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D57" s="34">
         <v>42618.576927083333</v>
       </c>
@@ -3659,10 +3749,11 @@
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="49"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="38"/>
-    </row>
-    <row r="58" spans="1:68" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M57" s="49"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="38"/>
+    </row>
+    <row r="58" spans="1:69" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D58" s="40">
         <v>42623.506336805563</v>
       </c>
@@ -3676,9 +3767,9 @@
       <c r="J58" s="42"/>
       <c r="K58" s="42"/>
       <c r="L58" s="50"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="33"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="38"/>
       <c r="P58" s="33"/>
       <c r="Q58" s="33"/>
       <c r="R58" s="33"/>
@@ -3732,160 +3823,178 @@
       <c r="BN58" s="33"/>
       <c r="BO58" s="33"/>
       <c r="BP58" s="33"/>
-    </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="BQ58" s="33"/>
+    </row>
+    <row r="59" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="34">
         <v>42612.561255787034</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="34">
         <v>42612.620804398153</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="46" t="s">
+      <c r="F59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="36"/>
+      <c r="L59" s="49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D60" s="2">
+      <c r="M59" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="N59" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="O59" s="38"/>
+    </row>
+    <row r="60" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D60" s="34">
         <v>42616.558420138877</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="34">
         <v>42616.592332175933</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="46"/>
-    </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D61" s="2">
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
+    </row>
+    <row r="61" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D61" s="34">
         <v>42617.194646990742</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="34">
         <v>42617.223524305547</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="46"/>
-    </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="D62" s="2">
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
+    </row>
+    <row r="62" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="34">
         <v>42618.178038194441</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="34">
         <v>42618.190017361107</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="46"/>
-    </row>
-    <row r="63" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D63" s="5">
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
+    </row>
+    <row r="63" spans="1:69" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D63" s="40">
         <v>42618.300086805553</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="40">
         <v>42618.317447916663</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="20"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
-      <c r="AN63"/>
-      <c r="AO63"/>
-      <c r="AP63"/>
-      <c r="AQ63"/>
-      <c r="AR63"/>
-      <c r="AS63"/>
-      <c r="AT63"/>
-      <c r="AU63"/>
-      <c r="AV63"/>
-      <c r="AW63"/>
-      <c r="AX63"/>
-      <c r="AY63"/>
-      <c r="AZ63"/>
-      <c r="BA63"/>
-      <c r="BB63"/>
-      <c r="BC63"/>
-      <c r="BD63"/>
-      <c r="BE63"/>
-      <c r="BF63"/>
-      <c r="BG63"/>
-      <c r="BH63"/>
-      <c r="BI63"/>
-      <c r="BJ63"/>
-      <c r="BK63"/>
-      <c r="BL63"/>
-      <c r="BM63"/>
-      <c r="BN63"/>
-      <c r="BO63"/>
-      <c r="BP63"/>
-    </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="33"/>
+      <c r="AL63" s="33"/>
+      <c r="AM63" s="33"/>
+      <c r="AN63" s="33"/>
+      <c r="AO63" s="33"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="33"/>
+      <c r="AS63" s="33"/>
+      <c r="AT63" s="33"/>
+      <c r="AU63" s="33"/>
+      <c r="AV63" s="33"/>
+      <c r="AW63" s="33"/>
+      <c r="AX63" s="33"/>
+      <c r="AY63" s="33"/>
+      <c r="AZ63" s="33"/>
+      <c r="BA63" s="33"/>
+      <c r="BB63" s="33"/>
+      <c r="BC63" s="33"/>
+      <c r="BD63" s="33"/>
+      <c r="BE63" s="33"/>
+      <c r="BF63" s="33"/>
+      <c r="BG63" s="33"/>
+      <c r="BH63" s="33"/>
+      <c r="BI63" s="33"/>
+      <c r="BJ63" s="33"/>
+      <c r="BK63" s="33"/>
+      <c r="BL63" s="33"/>
+      <c r="BM63" s="33"/>
+      <c r="BN63" s="33"/>
+      <c r="BO63" s="33"/>
+      <c r="BP63" s="33"/>
+      <c r="BQ63" s="33"/>
+    </row>
+    <row r="64" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -3920,8 +4029,11 @@
       <c r="L64" s="46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M64" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D65" s="2">
         <v>42612.474091435193</v>
       </c>
@@ -3935,8 +4047,9 @@
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="46"/>
-    </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="M65" s="46"/>
+    </row>
+    <row r="66" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D66" s="2">
         <v>42617.710376157411</v>
       </c>
@@ -3950,8 +4063,9 @@
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
       <c r="L66" s="46"/>
-    </row>
-    <row r="67" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M66" s="46"/>
+    </row>
+    <row r="67" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="5">
         <v>42618.696718749998</v>
       </c>
@@ -3965,9 +4079,9 @@
       <c r="J67" s="26"/>
       <c r="K67" s="26"/>
       <c r="L67" s="48"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="20"/>
-      <c r="O67"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="20"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
@@ -4021,8 +4135,9 @@
       <c r="BN67"/>
       <c r="BO67"/>
       <c r="BP67"/>
-    </row>
-    <row r="68" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BQ67"/>
+    </row>
+    <row r="68" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="33" t="s">
         <v>41</v>
       </c>
@@ -4055,12 +4170,13 @@
       </c>
       <c r="K68" s="55"/>
       <c r="L68" s="49"/>
-      <c r="M68" s="37" t="s">
+      <c r="M68" s="49"/>
+      <c r="N68" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="N68" s="38"/>
-    </row>
-    <row r="69" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O68" s="38"/>
+    </row>
+    <row r="69" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D69" s="34">
         <v>42612.31131365741</v>
       </c>
@@ -4074,10 +4190,11 @@
       <c r="J69" s="55"/>
       <c r="K69" s="55"/>
       <c r="L69" s="49"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="38"/>
-    </row>
-    <row r="70" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M69" s="49"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="38"/>
+    </row>
+    <row r="70" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D70" s="34">
         <v>42612.969021990742</v>
       </c>
@@ -4091,10 +4208,11 @@
       <c r="J70" s="55"/>
       <c r="K70" s="55"/>
       <c r="L70" s="49"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="38"/>
-    </row>
-    <row r="71" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M70" s="49"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="38"/>
+    </row>
+    <row r="71" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D71" s="34">
         <v>42616.257019675933</v>
       </c>
@@ -4108,10 +4226,11 @@
       <c r="J71" s="55"/>
       <c r="K71" s="55"/>
       <c r="L71" s="49"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="38"/>
-    </row>
-    <row r="72" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M71" s="49"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="38"/>
+    </row>
+    <row r="72" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D72" s="34">
         <v>42621.241869212958</v>
       </c>
@@ -4125,10 +4244,11 @@
       <c r="J72" s="55"/>
       <c r="K72" s="55"/>
       <c r="L72" s="49"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="38"/>
-    </row>
-    <row r="73" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M72" s="49"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="38"/>
+    </row>
+    <row r="73" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D73" s="34">
         <v>42623.419010416663</v>
       </c>
@@ -4142,10 +4262,11 @@
       <c r="J73" s="55"/>
       <c r="K73" s="55"/>
       <c r="L73" s="49"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="38"/>
-    </row>
-    <row r="74" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M73" s="49"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="38"/>
+    </row>
+    <row r="74" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D74" s="34">
         <v>42624.161082175917</v>
       </c>
@@ -4159,10 +4280,11 @@
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="49"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="38"/>
-    </row>
-    <row r="75" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M74" s="49"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="38"/>
+    </row>
+    <row r="75" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D75" s="34">
         <v>42626.26449652778</v>
       </c>
@@ -4176,10 +4298,11 @@
       <c r="J75" s="55"/>
       <c r="K75" s="55"/>
       <c r="L75" s="49"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="38"/>
-    </row>
-    <row r="76" spans="1:68" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M75" s="49"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="38"/>
+    </row>
+    <row r="76" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D76" s="34">
         <v>42626.344184027781</v>
       </c>
@@ -4193,10 +4316,11 @@
       <c r="J76" s="55"/>
       <c r="K76" s="55"/>
       <c r="L76" s="49"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="38"/>
-    </row>
-    <row r="77" spans="1:68" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M76" s="49"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="38"/>
+    </row>
+    <row r="77" spans="1:69" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D77" s="40">
         <v>42627.304484953696</v>
       </c>
@@ -4210,9 +4334,9 @@
       <c r="J77" s="57"/>
       <c r="K77" s="57"/>
       <c r="L77" s="50"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="33"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="38"/>
       <c r="P77" s="33"/>
       <c r="Q77" s="33"/>
       <c r="R77" s="33"/>
@@ -4266,8 +4390,9 @@
       <c r="BN77" s="33"/>
       <c r="BO77" s="33"/>
       <c r="BP77" s="33"/>
-    </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BQ77" s="33"/>
+    </row>
+    <row r="78" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -4302,8 +4427,9 @@
       <c r="L78" s="46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="79" spans="1:68" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M78" s="46"/>
+    </row>
+    <row r="79" spans="1:69" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D79" s="14">
         <v>42627.17509837963</v>
       </c>
@@ -4317,9 +4443,9 @@
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="52"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="20"/>
-      <c r="O79"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="20"/>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
@@ -4373,8 +4499,9 @@
       <c r="BN79"/>
       <c r="BO79"/>
       <c r="BP79"/>
-    </row>
-    <row r="80" spans="1:68" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="BQ79"/>
+    </row>
+    <row r="80" spans="1:69" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -4406,8 +4533,9 @@
       <c r="L80" s="46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M80" s="46"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D81" s="2">
         <v>43358.450086805547</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
       <c r="L81" s="46"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M81" s="46"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D82" s="2">
         <v>43358.464033564807</v>
       </c>
@@ -4430,8 +4559,9 @@
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
       <c r="L82" s="46"/>
-    </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M82" s="46"/>
+    </row>
+    <row r="83" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D83" s="5">
         <v>43358.477864583328</v>
       </c>
@@ -4442,10 +4572,11 @@
       <c r="J83" s="26"/>
       <c r="K83" s="26"/>
       <c r="L83" s="48"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="22"/>
-    </row>
-    <row r="84" spans="1:14" s="61" customFormat="1" ht="57.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M83" s="48"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="22"/>
+    </row>
+    <row r="84" spans="1:15" s="61" customFormat="1" ht="57.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="61" t="s">
         <v>43</v>
       </c>
@@ -4475,10 +4606,13 @@
       <c r="L84" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="M84" s="46"/>
-      <c r="N84" s="60"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M84" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="N84" s="46"/>
+      <c r="O84" s="60"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D85" s="2">
         <v>43338.207309027777</v>
       </c>
@@ -4489,8 +4623,9 @@
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
       <c r="L85" s="46"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M85" s="46"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D86" s="2">
         <v>43339.263501157402</v>
       </c>
@@ -4501,8 +4636,9 @@
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
       <c r="L86" s="46"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M86" s="46"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D87" s="2">
         <v>43339.277042824076</v>
       </c>
@@ -4513,8 +4649,9 @@
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
       <c r="L87" s="46"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M87" s="46"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D88" s="2">
         <v>43339.290700231482</v>
       </c>
@@ -4525,8 +4662,9 @@
       <c r="J88" s="25"/>
       <c r="K88" s="25"/>
       <c r="L88" s="46"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M88" s="46"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D89" s="2">
         <v>43339.304589120373</v>
       </c>
@@ -4537,8 +4675,9 @@
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
       <c r="L89" s="46"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M89" s="46"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D90" s="2">
         <v>43339.734913194443</v>
       </c>
@@ -4549,8 +4688,9 @@
       <c r="J90" s="25"/>
       <c r="K90" s="25"/>
       <c r="L90" s="46"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M90" s="46"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D91" s="2">
         <v>43339.749149305557</v>
       </c>
@@ -4561,8 +4701,9 @@
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
       <c r="L91" s="46"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M91" s="46"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D92" s="2">
         <v>43344.179531250003</v>
       </c>
@@ -4573,8 +4714,9 @@
       <c r="J92" s="25"/>
       <c r="K92" s="25"/>
       <c r="L92" s="46"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M92" s="46"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D93" s="2">
         <v>43344.193420138887</v>
       </c>
@@ -4585,8 +4727,9 @@
       <c r="J93" s="25"/>
       <c r="K93" s="25"/>
       <c r="L93" s="46"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M93" s="46"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D94" s="2">
         <v>43345.248917824079</v>
       </c>
@@ -4597,8 +4740,9 @@
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
       <c r="L94" s="46"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M94" s="46"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D95" s="2">
         <v>43345.262748842593</v>
       </c>
@@ -4609,8 +4753,9 @@
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
       <c r="L95" s="46"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M95" s="46"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D96" s="2">
         <v>43345.2769849537</v>
       </c>
@@ -4621,8 +4766,9 @@
       <c r="J96" s="25"/>
       <c r="K96" s="25"/>
       <c r="L96" s="46"/>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M96" s="46"/>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D97" s="2">
         <v>43345.457366898147</v>
       </c>
@@ -4633,8 +4779,9 @@
       <c r="J97" s="25"/>
       <c r="K97" s="25"/>
       <c r="L97" s="46"/>
-    </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M97" s="46"/>
+    </row>
+    <row r="98" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D98" s="2">
         <v>43346.276753472222</v>
       </c>
@@ -4645,8 +4792,9 @@
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
       <c r="L98" s="46"/>
-    </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M98" s="46"/>
+    </row>
+    <row r="99" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D99" s="2">
         <v>43347.457482638893</v>
       </c>
@@ -4657,8 +4805,9 @@
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
       <c r="L99" s="46"/>
-    </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M99" s="46"/>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D100" s="2">
         <v>43348.318304398148</v>
       </c>
@@ -4669,8 +4818,9 @@
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
       <c r="L100" s="46"/>
-    </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M100" s="46"/>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D101" s="2">
         <v>43348.332193287039</v>
       </c>
@@ -4681,8 +4831,9 @@
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
       <c r="L101" s="46"/>
-    </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M101" s="46"/>
+    </row>
+    <row r="102" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D102" s="2">
         <v>43349.151695601853</v>
       </c>
@@ -4693,8 +4844,9 @@
       <c r="J102" s="25"/>
       <c r="K102" s="25"/>
       <c r="L102" s="46"/>
-    </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M102" s="46"/>
+    </row>
+    <row r="103" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D103" s="2">
         <v>43349.458234953709</v>
       </c>
@@ -4705,8 +4857,9 @@
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
       <c r="L103" s="46"/>
-    </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M103" s="46"/>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D104" s="2">
         <v>43349.471487268507</v>
       </c>
@@ -4717,8 +4870,9 @@
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
       <c r="L104" s="46"/>
-    </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M104" s="46"/>
+    </row>
+    <row r="105" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D105" s="2">
         <v>43351.24909143518</v>
       </c>
@@ -4729,8 +4883,9 @@
       <c r="J105" s="25"/>
       <c r="K105" s="25"/>
       <c r="L105" s="46"/>
-    </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M105" s="46"/>
+    </row>
+    <row r="106" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D106" s="2">
         <v>43353.151637731477</v>
       </c>
@@ -4741,8 +4896,9 @@
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
       <c r="L106" s="46"/>
-    </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M106" s="46"/>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D107" s="2">
         <v>43357.471313657406</v>
       </c>
@@ -4753,8 +4909,9 @@
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
       <c r="L107" s="46"/>
-    </row>
-    <row r="108" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M107" s="46"/>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D108" s="2">
         <v>43358.318188657402</v>
       </c>
@@ -4765,8 +4922,9 @@
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
       <c r="L108" s="46"/>
-    </row>
-    <row r="109" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M108" s="46"/>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D109" s="2">
         <v>43359.318651620371</v>
       </c>
@@ -4777,8 +4935,9 @@
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
       <c r="L109" s="46"/>
-    </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M109" s="46"/>
+    </row>
+    <row r="110" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D110" s="2">
         <v>43363.818651620371</v>
       </c>
@@ -4789,8 +4948,9 @@
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
       <c r="L110" s="46"/>
-    </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M110" s="46"/>
+    </row>
+    <row r="111" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D111" s="2">
         <v>43367.123802083333</v>
       </c>
@@ -4801,8 +4961,9 @@
       <c r="J111" s="25"/>
       <c r="K111" s="25"/>
       <c r="L111" s="46"/>
-    </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="M111" s="46"/>
+    </row>
+    <row r="112" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D112" s="2">
         <v>43367.138211805563</v>
       </c>
@@ -4813,8 +4974,9 @@
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
       <c r="L112" s="46"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M112" s="46"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D113" s="2">
         <v>43367.151695601853</v>
       </c>
@@ -4825,8 +4987,9 @@
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
       <c r="L113" s="46"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M113" s="46"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D114" s="2">
         <v>43368.346197916668</v>
       </c>
@@ -4837,8 +5000,9 @@
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
       <c r="L114" s="46"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M114" s="46"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D115" s="2">
         <v>43368.359971064812</v>
       </c>
@@ -4849,8 +5013,9 @@
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
       <c r="L115" s="46"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M115" s="46"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D116" s="2">
         <v>43370.290642361113</v>
       </c>
@@ -4861,8 +5026,9 @@
       <c r="J116" s="25"/>
       <c r="K116" s="25"/>
       <c r="L116" s="46"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M116" s="46"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D117" s="2">
         <v>43370.304704861112</v>
       </c>
@@ -4873,8 +5039,9 @@
       <c r="J117" s="25"/>
       <c r="K117" s="25"/>
       <c r="L117" s="46"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M117" s="46"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D118" s="2">
         <v>43370.373859953703</v>
       </c>
@@ -4885,8 +5052,9 @@
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
       <c r="L118" s="46"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M118" s="46"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D119" s="2">
         <v>43370.401753472222</v>
       </c>
@@ -4897,8 +5065,9 @@
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
       <c r="L119" s="46"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M119" s="46"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D120" s="2">
         <v>43370.41587384259</v>
       </c>
@@ -4909,8 +5078,9 @@
       <c r="J120" s="25"/>
       <c r="K120" s="25"/>
       <c r="L120" s="46"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M120" s="46"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D121" s="2">
         <v>43372.929473379627</v>
       </c>
@@ -4921,8 +5091,9 @@
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
       <c r="L121" s="46"/>
-    </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M121" s="46"/>
+    </row>
+    <row r="122" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D122" s="5">
         <v>43372.943709490741</v>
       </c>
@@ -4933,10 +5104,11 @@
       <c r="J122" s="26"/>
       <c r="K122" s="26"/>
       <c r="L122" s="48"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="22"/>
-    </row>
-    <row r="123" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M122" s="48"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="22"/>
+    </row>
+    <row r="123" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>44</v>
       </c>
@@ -4966,10 +5138,11 @@
       <c r="L123" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="M123" s="17"/>
-      <c r="N123" s="23"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M123" s="45"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="23"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -4999,8 +5172,9 @@
       <c r="L124" s="46" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M124" s="46"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D125" s="2">
         <v>43369.192193287032</v>
       </c>
@@ -5011,8 +5185,9 @@
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
       <c r="L125" s="46"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M125" s="46"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D126" s="2">
         <v>43369.219971064813</v>
       </c>
@@ -5023,8 +5198,9 @@
       <c r="J126" s="25"/>
       <c r="K126" s="25"/>
       <c r="L126" s="46"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M126" s="46"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D127" s="2">
         <v>43369.733802083327</v>
       </c>
@@ -5035,8 +5211,9 @@
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
       <c r="L127" s="46"/>
-    </row>
-    <row r="128" spans="1:14" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M127" s="46"/>
+    </row>
+    <row r="128" spans="1:15" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D128" s="14">
         <v>43370.192251157408</v>
       </c>
@@ -5047,8 +5224,9 @@
       <c r="J128" s="29"/>
       <c r="K128" s="29"/>
       <c r="L128" s="52"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="21"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="21"/>
     </row>
     <row r="129" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="769" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B57E13-375B-4C2E-B3AD-E526B4386654}"/>
+  <xr:revisionPtr revIDLastSave="772" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC24861-6228-4708-96EF-13DCAC91692A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="8220" yWindow="338" windowWidth="10057" windowHeight="8677" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,13 +294,13 @@
     <t>***</t>
   </si>
   <si>
-    <t>*** Either vessel or dolphin noise - Risso's present when detections not listed?</t>
-  </si>
-  <si>
-    <t>***Very faint banding with background noise</t>
-  </si>
-  <si>
     <t>Not uing this drift</t>
+  </si>
+  <si>
+    <t>*** Detection 1 - a couple dark lines to remove, 2 - low clicks, 3 - mixed species encounter with Lags (do not use), 4 - ok but occurs right after Lag enocunter, 5 - mixed species encounter (do not use)</t>
+  </si>
+  <si>
+    <t>***Very faint banding meaning distant detection</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BQ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="48" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="M33" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2213,7 +2213,7 @@
         <v>69</v>
       </c>
       <c r="M20" s="64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>16</v>
@@ -3054,7 +3054,7 @@
         <v>57</v>
       </c>
       <c r="M43" s="65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N43" s="17" t="s">
         <v>50</v>
@@ -3864,7 +3864,7 @@
         <v>73</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O59" s="38"/>
     </row>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="821" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D46E5FA9-C69C-4646-B5D3-8C6675B33C44}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815A3A6B-6D85-4D86-AA7F-09AA90FF5936}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="80">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -285,15 +285,6 @@
     <t>***</t>
   </si>
   <si>
-    <t>*** Detection 1 - a couple dark lines to remove, 2 - low clicks, 3 - mixed species encounter with Lags (do not use), 4 - ok but occurs right after Lag enocunter, 5 - mixed species encounter (do not use)</t>
-  </si>
-  <si>
-    <t>***Very faint banding meaning distant detection</t>
-  </si>
-  <si>
-    <t>Something wrong with this drift?</t>
-  </si>
-  <si>
     <t>Not using this drift - SMM Recorder</t>
   </si>
   <si>
@@ -301,6 +292,24 @@
   </si>
   <si>
     <t>Not using this drift - Recorder died resulting in gaps in the data</t>
+  </si>
+  <si>
+    <t>Downloaded</t>
+  </si>
+  <si>
+    <t>Downloaded: Detection 1 - a couple dark lines to remove, 2 - low clicks, 3 - mixed species encounter with Lags (do not use), 4 - ok but occurs right after Lag enocunter, 5 - mixed species encounter (do not use)</t>
+  </si>
+  <si>
+    <t>Dowloaded</t>
+  </si>
+  <si>
+    <t>Downloaded: Very faint banding meaning distant detection</t>
+  </si>
+  <si>
+    <t>Not using this event - Multi-species detection</t>
+  </si>
+  <si>
+    <t>Something wrong with this drift? Not using this event - Multi-species detection</t>
   </si>
 </sst>
 </file>
@@ -362,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -463,11 +472,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -515,15 +544,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -574,12 +594,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -597,6 +611,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BQ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="43" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -958,52 +1014,52 @@
     <col min="16" max="16384" width="9.06640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="27" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:69" s="24" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:69" s="14" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:69" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1037,16 +1093,12 @@
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="29">
+    </row>
+    <row r="3" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="26">
         <v>44407.519768518519</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>44407.534814814819</v>
       </c>
       <c r="F3" s="4"/>
@@ -1302,20 +1354,20 @@
       <c r="BP5" s="14"/>
       <c r="BQ5" s="14"/>
     </row>
-    <row r="6" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <v>44580.109351851846</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <v>44580.123611111107</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1337,15 +1389,15 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="32"/>
-    </row>
-    <row r="7" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D7" s="31">
+        <v>73</v>
+      </c>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="28">
         <v>44580.177847222221</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <v>44580.200335648136</v>
       </c>
       <c r="F7" s="7"/>
@@ -1357,13 +1409,13 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="31">
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="28">
         <v>44580.225891203707</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>44580.245625000003</v>
       </c>
       <c r="F8" s="7"/>
@@ -1375,13 +1427,13 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="31">
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="28">
         <v>44580.253530092603</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <v>44580.272847222222</v>
       </c>
       <c r="F9" s="7"/>
@@ -1393,13 +1445,13 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="34">
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="31">
         <v>44580.292696759258</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>44580.323900462958</v>
       </c>
       <c r="F10" s="9"/>
@@ -1411,63 +1463,63 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30"/>
-      <c r="BE10" s="30"/>
-      <c r="BF10" s="30"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="30"/>
-      <c r="BI10" s="30"/>
-      <c r="BJ10" s="30"/>
-      <c r="BK10" s="30"/>
-      <c r="BL10" s="30"/>
-      <c r="BM10" s="30"/>
-      <c r="BN10" s="30"/>
-      <c r="BO10" s="30"/>
-      <c r="BP10" s="30"/>
-      <c r="BQ10" s="30"/>
-    </row>
-    <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="29"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="27"/>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="27"/>
+      <c r="BC10" s="27"/>
+      <c r="BD10" s="27"/>
+      <c r="BE10" s="27"/>
+      <c r="BF10" s="27"/>
+      <c r="BG10" s="27"/>
+      <c r="BH10" s="27"/>
+      <c r="BI10" s="27"/>
+      <c r="BJ10" s="27"/>
+      <c r="BK10" s="27"/>
+      <c r="BL10" s="27"/>
+      <c r="BM10" s="27"/>
+      <c r="BN10" s="27"/>
+      <c r="BO10" s="27"/>
+      <c r="BP10" s="27"/>
+      <c r="BQ10" s="27"/>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1504,83 +1556,83 @@
       <c r="L11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="29">
+      <c r="M11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D12" s="31">
         <v>44737.283750000002</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <v>44737.304293981477</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="14"/>
-      <c r="BL12" s="14"/>
-      <c r="BM12" s="14"/>
-      <c r="BN12" s="14"/>
-      <c r="BO12" s="14"/>
-      <c r="BP12" s="14"/>
-      <c r="BQ12" s="14"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="29"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="27"/>
+      <c r="BE12" s="27"/>
+      <c r="BF12" s="27"/>
+      <c r="BG12" s="27"/>
+      <c r="BH12" s="27"/>
+      <c r="BI12" s="27"/>
+      <c r="BJ12" s="27"/>
+      <c r="BK12" s="27"/>
+      <c r="BL12" s="27"/>
+      <c r="BM12" s="27"/>
+      <c r="BN12" s="27"/>
+      <c r="BO12" s="27"/>
+      <c r="BP12" s="27"/>
+      <c r="BQ12" s="27"/>
     </row>
     <row r="13" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
@@ -1768,7 +1820,7 @@
       <c r="BP14" s="14"/>
       <c r="BQ14" s="14"/>
     </row>
-    <row r="15" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:69" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1858,9 @@
         <v>57</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -1863,7 +1917,7 @@
       <c r="BP15" s="14"/>
       <c r="BQ15" s="14"/>
     </row>
-    <row r="16" spans="1:69" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -1898,15 +1952,12 @@
       <c r="L16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="29">
+    </row>
+    <row r="17" spans="1:69" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D17" s="26">
         <v>44910.070185185177</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="26">
         <v>44910.078402777777</v>
       </c>
       <c r="F17" s="4"/>
@@ -1917,10 +1968,12 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="N17" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="O17" s="13"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="39"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -1974,7 +2027,7 @@
       <c r="BP17" s="14"/>
       <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:69" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
@@ -2010,7 +2063,9 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="O18" s="13"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -2160,7 +2215,7 @@
       <c r="BP19" s="14"/>
       <c r="BQ19" s="14"/>
     </row>
-    <row r="20" spans="1:69" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:69" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
@@ -2198,14 +2253,13 @@
         <v>66</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D21" s="16">
         <v>45002.272129629629</v>
       </c>
@@ -2218,14 +2272,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D22" s="16">
         <v>45002.29892361111</v>
       </c>
@@ -2238,12 +2289,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N22" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D23" s="16">
         <v>45002.429236111107</v>
       </c>
@@ -2256,16 +2307,12 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="29">
+    </row>
+    <row r="24" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="26">
         <v>45002.964166666672</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="26">
         <v>45003.045578703714</v>
       </c>
       <c r="F24" s="4"/>
@@ -2333,7 +2380,7 @@
       <c r="BP24" s="14"/>
       <c r="BQ24" s="14"/>
     </row>
-    <row r="25" spans="1:69" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
@@ -2370,49 +2417,51 @@
       <c r="L25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="16">
+    </row>
+    <row r="26" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D26" s="28">
         <v>45002.114224537043</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="28">
         <v>45002.139166666668</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="16">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D27" s="28">
         <v>45002.160868055551</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="28">
         <v>45002.248530092591</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D28" s="16">
         <v>45002.342222222222</v>
       </c>
@@ -2425,12 +2474,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D29" s="16">
         <v>45002.523240740753</v>
       </c>
@@ -2443,12 +2488,8 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D30" s="16">
         <v>45003.08756944444</v>
       </c>
@@ -2461,16 +2502,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="29">
+    </row>
+    <row r="31" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="26">
         <v>45003.336469907408</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="26">
         <v>45003.382997685178</v>
       </c>
       <c r="F31" s="4"/>
@@ -2538,7 +2575,7 @@
       <c r="BP31" s="14"/>
       <c r="BQ31" s="14"/>
     </row>
-    <row r="32" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
@@ -2575,15 +2612,14 @@
       <c r="L32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>70</v>
+      <c r="M32" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D33" s="16">
         <v>45003.131979166668</v>
       </c>
@@ -2596,16 +2632,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="29">
+    </row>
+    <row r="34" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="26">
         <v>45003.354826388888</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="26">
         <v>45003.393020833333</v>
       </c>
       <c r="F34" s="4"/>
@@ -2673,100 +2705,102 @@
       <c r="BP34" s="14"/>
       <c r="BQ34" s="14"/>
     </row>
-    <row r="35" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:69" s="42" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="43">
         <v>45044.219282407408</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="43">
         <v>45044.23646990741</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
-      <c r="AT35" s="14"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="14"/>
-      <c r="AW35" s="14"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="14"/>
-      <c r="BC35" s="14"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="14"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="14"/>
-      <c r="BI35" s="14"/>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="14"/>
-      <c r="BL35" s="14"/>
-      <c r="BM35" s="14"/>
-      <c r="BN35" s="14"/>
-      <c r="BO35" s="14"/>
-      <c r="BP35" s="14"/>
-      <c r="BQ35" s="14"/>
-    </row>
-    <row r="36" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35" s="29"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="27"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="27"/>
+      <c r="AY35" s="27"/>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="27"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="27"/>
+      <c r="BG35" s="27"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="27"/>
+      <c r="BJ35" s="27"/>
+      <c r="BK35" s="27"/>
+      <c r="BL35" s="27"/>
+      <c r="BM35" s="27"/>
+      <c r="BN35" s="27"/>
+      <c r="BO35" s="27"/>
+      <c r="BP35" s="27"/>
+      <c r="BQ35" s="27"/>
+    </row>
+    <row r="36" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>14</v>
       </c>
@@ -2788,10 +2822,10 @@
       <c r="G36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="35" t="s">
+      <c r="H36" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="32" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -2800,16 +2834,12 @@
       <c r="K36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="29">
+    </row>
+    <row r="37" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="26">
         <v>45054.415324074071</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="26">
         <v>45054.417407407411</v>
       </c>
       <c r="F37" s="4"/>
@@ -2877,7 +2907,7 @@
       <c r="BP37" s="14"/>
       <c r="BQ37" s="14"/>
     </row>
-    <row r="38" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
@@ -2911,12 +2941,8 @@
       <c r="K38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D39" s="16">
         <v>45054.415335648147</v>
       </c>
@@ -2929,12 +2955,8 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D40" s="16">
         <v>45055.170219907413</v>
       </c>
@@ -2947,12 +2969,8 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D41" s="16">
         <v>45055.351006944453</v>
       </c>
@@ -2965,16 +2983,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D42" s="29">
+    </row>
+    <row r="42" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D42" s="26">
         <v>45055.378020833326</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="26">
         <v>45055.399027777778</v>
       </c>
       <c r="F42" s="4"/>
@@ -3042,106 +3056,106 @@
       <c r="BP42" s="14"/>
       <c r="BQ42" s="14"/>
     </row>
-    <row r="43" spans="1:69" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:69" s="42" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="43">
         <v>45128.184965277767</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="43">
         <v>45128.190115740741</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="F43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="M43" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="14"/>
-      <c r="AW43" s="14"/>
-      <c r="AX43" s="14"/>
-      <c r="AY43" s="14"/>
-      <c r="AZ43" s="14"/>
-      <c r="BA43" s="14"/>
-      <c r="BB43" s="14"/>
-      <c r="BC43" s="14"/>
-      <c r="BD43" s="14"/>
-      <c r="BE43" s="14"/>
-      <c r="BF43" s="14"/>
-      <c r="BG43" s="14"/>
-      <c r="BH43" s="14"/>
-      <c r="BI43" s="14"/>
-      <c r="BJ43" s="14"/>
-      <c r="BK43" s="14"/>
-      <c r="BL43" s="14"/>
-      <c r="BM43" s="14"/>
-      <c r="BN43" s="14"/>
-      <c r="BO43" s="14"/>
-      <c r="BP43" s="14"/>
-      <c r="BQ43" s="14"/>
-    </row>
-    <row r="44" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M43" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="O43" s="29"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="27"/>
+      <c r="AT43" s="27"/>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27"/>
+      <c r="AW43" s="27"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="27"/>
+      <c r="BA43" s="27"/>
+      <c r="BB43" s="27"/>
+      <c r="BC43" s="27"/>
+      <c r="BD43" s="27"/>
+      <c r="BE43" s="27"/>
+      <c r="BF43" s="27"/>
+      <c r="BG43" s="27"/>
+      <c r="BH43" s="27"/>
+      <c r="BI43" s="27"/>
+      <c r="BJ43" s="27"/>
+      <c r="BK43" s="27"/>
+      <c r="BL43" s="27"/>
+      <c r="BM43" s="27"/>
+      <c r="BN43" s="27"/>
+      <c r="BO43" s="27"/>
+      <c r="BP43" s="27"/>
+      <c r="BQ43" s="27"/>
+    </row>
+    <row r="44" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
         <v>32</v>
       </c>
@@ -3175,34 +3189,32 @@
       <c r="K44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D45" s="16">
+    </row>
+    <row r="45" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D45" s="28">
         <v>45119.310439814813</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="28">
         <v>45119.365300925929</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D46" s="29">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" s="29"/>
+    </row>
+    <row r="46" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D46" s="26">
         <v>45119.398460648154</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="26">
         <v>45119.429537037038</v>
       </c>
       <c r="F46" s="4"/>
@@ -3365,7 +3377,7 @@
       <c r="BP47" s="14"/>
       <c r="BQ47" s="14"/>
     </row>
-    <row r="48" spans="1:69" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
         <v>34</v>
       </c>
@@ -3405,80 +3417,80 @@
       <c r="M48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D49" s="29">
+    </row>
+    <row r="49" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D49" s="31">
         <v>45123.17931712963</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="31">
         <v>45123.182326388887</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="14"/>
-      <c r="AV49" s="14"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="14"/>
-      <c r="BC49" s="14"/>
-      <c r="BD49" s="14"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="14"/>
-      <c r="BG49" s="14"/>
-      <c r="BH49" s="14"/>
-      <c r="BI49" s="14"/>
-      <c r="BJ49" s="14"/>
-      <c r="BK49" s="14"/>
-      <c r="BL49" s="14"/>
-      <c r="BM49" s="14"/>
-      <c r="BN49" s="14"/>
-      <c r="BO49" s="14"/>
-      <c r="BP49" s="14"/>
-      <c r="BQ49" s="14"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" s="29"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AL49" s="27"/>
+      <c r="AM49" s="27"/>
+      <c r="AN49" s="27"/>
+      <c r="AO49" s="27"/>
+      <c r="AP49" s="27"/>
+      <c r="AQ49" s="27"/>
+      <c r="AR49" s="27"/>
+      <c r="AS49" s="27"/>
+      <c r="AT49" s="27"/>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27"/>
+      <c r="AW49" s="27"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="AZ49" s="27"/>
+      <c r="BA49" s="27"/>
+      <c r="BB49" s="27"/>
+      <c r="BC49" s="27"/>
+      <c r="BD49" s="27"/>
+      <c r="BE49" s="27"/>
+      <c r="BF49" s="27"/>
+      <c r="BG49" s="27"/>
+      <c r="BH49" s="27"/>
+      <c r="BI49" s="27"/>
+      <c r="BJ49" s="27"/>
+      <c r="BK49" s="27"/>
+      <c r="BL49" s="27"/>
+      <c r="BM49" s="27"/>
+      <c r="BN49" s="27"/>
+      <c r="BO49" s="27"/>
+      <c r="BP49" s="27"/>
+      <c r="BQ49" s="27"/>
     </row>
     <row r="50" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
@@ -3573,113 +3585,115 @@
       <c r="BP50" s="14"/>
       <c r="BQ50" s="14"/>
     </row>
-    <row r="51" spans="1:69" s="36" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="36" t="s">
+    <row r="51" spans="1:69" s="49" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="50">
         <v>45166.222685185188</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="50">
         <v>45166.280787037038</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="14"/>
-      <c r="AN51" s="14"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
-      <c r="AQ51" s="14"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="14"/>
-      <c r="AT51" s="14"/>
-      <c r="AU51" s="14"/>
-      <c r="AV51" s="14"/>
-      <c r="AW51" s="14"/>
-      <c r="AX51" s="14"/>
-      <c r="AY51" s="14"/>
-      <c r="AZ51" s="14"/>
-      <c r="BA51" s="14"/>
-      <c r="BB51" s="14"/>
-      <c r="BC51" s="14"/>
-      <c r="BD51" s="14"/>
-      <c r="BE51" s="14"/>
-      <c r="BF51" s="14"/>
-      <c r="BG51" s="14"/>
-      <c r="BH51" s="14"/>
-      <c r="BI51" s="14"/>
-      <c r="BJ51" s="14"/>
-      <c r="BK51" s="14"/>
-      <c r="BL51" s="14"/>
-      <c r="BM51" s="14"/>
-      <c r="BN51" s="14"/>
-      <c r="BO51" s="14"/>
-      <c r="BP51" s="14"/>
-      <c r="BQ51" s="14"/>
-    </row>
-    <row r="52" spans="1:69" s="30" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="30" t="s">
+      <c r="F51" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="29"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="27"/>
+      <c r="AM51" s="27"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="27"/>
+      <c r="AQ51" s="27"/>
+      <c r="AR51" s="27"/>
+      <c r="AS51" s="27"/>
+      <c r="AT51" s="27"/>
+      <c r="AU51" s="27"/>
+      <c r="AV51" s="27"/>
+      <c r="AW51" s="27"/>
+      <c r="AX51" s="27"/>
+      <c r="AY51" s="27"/>
+      <c r="AZ51" s="27"/>
+      <c r="BA51" s="27"/>
+      <c r="BB51" s="27"/>
+      <c r="BC51" s="27"/>
+      <c r="BD51" s="27"/>
+      <c r="BE51" s="27"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="27"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="27"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="27"/>
+      <c r="BL51" s="27"/>
+      <c r="BM51" s="27"/>
+      <c r="BN51" s="27"/>
+      <c r="BO51" s="27"/>
+      <c r="BP51" s="27"/>
+      <c r="BQ51" s="27"/>
+    </row>
+    <row r="52" spans="1:69" s="27" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="28">
         <v>42612.580873842591</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <v>42612.603443287036</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -3703,15 +3717,15 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O52" s="32"/>
-    </row>
-    <row r="53" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D53" s="31">
+        <v>71</v>
+      </c>
+      <c r="O52" s="29"/>
+    </row>
+    <row r="53" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D53" s="28">
         <v>42614.355943287039</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="28">
         <v>42614.377528935191</v>
       </c>
       <c r="F53" s="7"/>
@@ -3723,13 +3737,13 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="32"/>
-    </row>
-    <row r="54" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D54" s="31">
+      <c r="O53" s="29"/>
+    </row>
+    <row r="54" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D54" s="28">
         <v>42615.103859953699</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="28">
         <v>42615.120468749999</v>
       </c>
       <c r="F54" s="7"/>
@@ -3741,13 +3755,13 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="32"/>
-    </row>
-    <row r="55" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D55" s="31">
+      <c r="O54" s="29"/>
+    </row>
+    <row r="55" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D55" s="28">
         <v>42616.176603009248</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="28">
         <v>42616.210109953703</v>
       </c>
       <c r="F55" s="7"/>
@@ -3759,13 +3773,13 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="32"/>
-    </row>
-    <row r="56" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D56" s="31">
+      <c r="O55" s="29"/>
+    </row>
+    <row r="56" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D56" s="28">
         <v>42616.414797453697</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="28">
         <v>42616.434068287039</v>
       </c>
       <c r="F56" s="7"/>
@@ -3777,13 +3791,13 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="32"/>
-    </row>
-    <row r="57" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D57" s="31">
+      <c r="O56" s="29"/>
+    </row>
+    <row r="57" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D57" s="28">
         <v>42618.576927083333</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="28">
         <v>42618.598454861123</v>
       </c>
       <c r="F57" s="7"/>
@@ -3795,13 +3809,13 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="32"/>
-    </row>
-    <row r="58" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D58" s="34">
+      <c r="O57" s="29"/>
+    </row>
+    <row r="58" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D58" s="31">
         <v>42623.506336805563</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="31">
         <v>42623.522656250003</v>
       </c>
       <c r="F58" s="9"/>
@@ -3813,76 +3827,76 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="30"/>
-      <c r="AI58" s="30"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="30"/>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="30"/>
-      <c r="AT58" s="30"/>
-      <c r="AU58" s="30"/>
-      <c r="AV58" s="30"/>
-      <c r="AW58" s="30"/>
-      <c r="AX58" s="30"/>
-      <c r="AY58" s="30"/>
-      <c r="AZ58" s="30"/>
-      <c r="BA58" s="30"/>
-      <c r="BB58" s="30"/>
-      <c r="BC58" s="30"/>
-      <c r="BD58" s="30"/>
-      <c r="BE58" s="30"/>
-      <c r="BF58" s="30"/>
-      <c r="BG58" s="30"/>
-      <c r="BH58" s="30"/>
-      <c r="BI58" s="30"/>
-      <c r="BJ58" s="30"/>
-      <c r="BK58" s="30"/>
-      <c r="BL58" s="30"/>
-      <c r="BM58" s="30"/>
-      <c r="BN58" s="30"/>
-      <c r="BO58" s="30"/>
-      <c r="BP58" s="30"/>
-      <c r="BQ58" s="30"/>
-    </row>
-    <row r="59" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="30" t="s">
+      <c r="O58" s="29"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="27"/>
+      <c r="AI58" s="27"/>
+      <c r="AJ58" s="27"/>
+      <c r="AK58" s="27"/>
+      <c r="AL58" s="27"/>
+      <c r="AM58" s="27"/>
+      <c r="AN58" s="27"/>
+      <c r="AO58" s="27"/>
+      <c r="AP58" s="27"/>
+      <c r="AQ58" s="27"/>
+      <c r="AR58" s="27"/>
+      <c r="AS58" s="27"/>
+      <c r="AT58" s="27"/>
+      <c r="AU58" s="27"/>
+      <c r="AV58" s="27"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="27"/>
+      <c r="AY58" s="27"/>
+      <c r="AZ58" s="27"/>
+      <c r="BA58" s="27"/>
+      <c r="BB58" s="27"/>
+      <c r="BC58" s="27"/>
+      <c r="BD58" s="27"/>
+      <c r="BE58" s="27"/>
+      <c r="BF58" s="27"/>
+      <c r="BG58" s="27"/>
+      <c r="BH58" s="27"/>
+      <c r="BI58" s="27"/>
+      <c r="BJ58" s="27"/>
+      <c r="BK58" s="27"/>
+      <c r="BL58" s="27"/>
+      <c r="BM58" s="27"/>
+      <c r="BN58" s="27"/>
+      <c r="BO58" s="27"/>
+      <c r="BP58" s="27"/>
+      <c r="BQ58" s="27"/>
+    </row>
+    <row r="59" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="28">
         <v>42612.561255787034</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="28">
         <v>42612.620804398153</v>
       </c>
       <c r="F59" s="7" t="s">
@@ -3908,15 +3922,15 @@
         <v>70</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O59" s="32"/>
-    </row>
-    <row r="60" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D60" s="31">
+        <v>72</v>
+      </c>
+      <c r="O59" s="29"/>
+    </row>
+    <row r="60" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D60" s="28">
         <v>42616.558420138877</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="28">
         <v>42616.592332175933</v>
       </c>
       <c r="F60" s="7"/>
@@ -3928,13 +3942,13 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="32"/>
-    </row>
-    <row r="61" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D61" s="31">
+      <c r="O60" s="29"/>
+    </row>
+    <row r="61" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D61" s="28">
         <v>42617.194646990742</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="28">
         <v>42617.223524305547</v>
       </c>
       <c r="F61" s="7"/>
@@ -3946,13 +3960,13 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="32"/>
-    </row>
-    <row r="62" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D62" s="31">
+      <c r="O61" s="29"/>
+    </row>
+    <row r="62" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="28">
         <v>42618.178038194441</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="28">
         <v>42618.190017361107</v>
       </c>
       <c r="F62" s="7"/>
@@ -3964,13 +3978,13 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="32"/>
-    </row>
-    <row r="63" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D63" s="34">
+      <c r="O62" s="29"/>
+    </row>
+    <row r="63" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D63" s="31">
         <v>42618.300086805553</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="31">
         <v>42618.317447916663</v>
       </c>
       <c r="F63" s="9"/>
@@ -3982,63 +3996,63 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="30"/>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="30"/>
-      <c r="AM63" s="30"/>
-      <c r="AN63" s="30"/>
-      <c r="AO63" s="30"/>
-      <c r="AP63" s="30"/>
-      <c r="AQ63" s="30"/>
-      <c r="AR63" s="30"/>
-      <c r="AS63" s="30"/>
-      <c r="AT63" s="30"/>
-      <c r="AU63" s="30"/>
-      <c r="AV63" s="30"/>
-      <c r="AW63" s="30"/>
-      <c r="AX63" s="30"/>
-      <c r="AY63" s="30"/>
-      <c r="AZ63" s="30"/>
-      <c r="BA63" s="30"/>
-      <c r="BB63" s="30"/>
-      <c r="BC63" s="30"/>
-      <c r="BD63" s="30"/>
-      <c r="BE63" s="30"/>
-      <c r="BF63" s="30"/>
-      <c r="BG63" s="30"/>
-      <c r="BH63" s="30"/>
-      <c r="BI63" s="30"/>
-      <c r="BJ63" s="30"/>
-      <c r="BK63" s="30"/>
-      <c r="BL63" s="30"/>
-      <c r="BM63" s="30"/>
-      <c r="BN63" s="30"/>
-      <c r="BO63" s="30"/>
-      <c r="BP63" s="30"/>
-      <c r="BQ63" s="30"/>
-    </row>
-    <row r="64" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O63" s="29"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="27"/>
+      <c r="AH63" s="27"/>
+      <c r="AI63" s="27"/>
+      <c r="AJ63" s="27"/>
+      <c r="AK63" s="27"/>
+      <c r="AL63" s="27"/>
+      <c r="AM63" s="27"/>
+      <c r="AN63" s="27"/>
+      <c r="AO63" s="27"/>
+      <c r="AP63" s="27"/>
+      <c r="AQ63" s="27"/>
+      <c r="AR63" s="27"/>
+      <c r="AS63" s="27"/>
+      <c r="AT63" s="27"/>
+      <c r="AU63" s="27"/>
+      <c r="AV63" s="27"/>
+      <c r="AW63" s="27"/>
+      <c r="AX63" s="27"/>
+      <c r="AY63" s="27"/>
+      <c r="AZ63" s="27"/>
+      <c r="BA63" s="27"/>
+      <c r="BB63" s="27"/>
+      <c r="BC63" s="27"/>
+      <c r="BD63" s="27"/>
+      <c r="BE63" s="27"/>
+      <c r="BF63" s="27"/>
+      <c r="BG63" s="27"/>
+      <c r="BH63" s="27"/>
+      <c r="BI63" s="27"/>
+      <c r="BJ63" s="27"/>
+      <c r="BK63" s="27"/>
+      <c r="BL63" s="27"/>
+      <c r="BM63" s="27"/>
+      <c r="BN63" s="27"/>
+      <c r="BO63" s="27"/>
+      <c r="BP63" s="27"/>
+      <c r="BQ63" s="27"/>
+    </row>
+    <row r="64" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>40</v>
       </c>
@@ -4075,31 +4089,31 @@
       <c r="L64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="13"/>
-    </row>
-    <row r="65" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D65" s="16">
+      <c r="M64" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D65" s="28">
         <v>42612.474091435193</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="28">
         <v>42612.502795138891</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="13"/>
-    </row>
-    <row r="66" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O65" s="29"/>
+    </row>
+    <row r="66" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D66" s="16">
         <v>42617.710376157411</v>
       </c>
@@ -4112,16 +4126,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="13"/>
-    </row>
-    <row r="67" spans="1:69" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D67" s="29">
+    </row>
+    <row r="67" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D67" s="26">
         <v>42618.696718749998</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="26">
         <v>42618.704241898136</v>
       </c>
       <c r="F67" s="4"/>
@@ -4189,20 +4199,20 @@
       <c r="BP67" s="14"/>
       <c r="BQ67" s="14"/>
     </row>
-    <row r="68" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="28">
         <v>42610.535399305547</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="28">
         <v>42610.555225694443</v>
       </c>
       <c r="F68" s="7" t="s">
@@ -4220,233 +4230,233 @@
       <c r="J68" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="17" t="s">
         <v>47</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O68" s="32"/>
-    </row>
-    <row r="69" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D69" s="31">
+        <v>71</v>
+      </c>
+      <c r="O68" s="29"/>
+    </row>
+    <row r="69" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D69" s="28">
         <v>42612.31131365741</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="28">
         <v>42612.336788194443</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="32"/>
-    </row>
-    <row r="70" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D70" s="31">
+      <c r="O69" s="29"/>
+    </row>
+    <row r="70" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D70" s="28">
         <v>42612.969021990742</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="28">
         <v>42612.983778935188</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="32"/>
-    </row>
-    <row r="71" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D71" s="31">
+      <c r="O70" s="29"/>
+    </row>
+    <row r="71" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D71" s="28">
         <v>42616.257019675933</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="28">
         <v>42616.291394675922</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="32"/>
-    </row>
-    <row r="72" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D72" s="31">
+      <c r="O71" s="29"/>
+    </row>
+    <row r="72" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D72" s="28">
         <v>42621.241869212958</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="28">
         <v>42621.275318287036</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="32"/>
-    </row>
-    <row r="73" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D73" s="31">
+      <c r="O72" s="29"/>
+    </row>
+    <row r="73" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D73" s="28">
         <v>42623.419010416663</v>
       </c>
-      <c r="E73" s="31">
+      <c r="E73" s="28">
         <v>42623.431278935182</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
-      <c r="O73" s="32"/>
-    </row>
-    <row r="74" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D74" s="31">
+      <c r="O73" s="29"/>
+    </row>
+    <row r="74" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D74" s="28">
         <v>42624.161082175917</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="28">
         <v>42624.177401620371</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="32"/>
-    </row>
-    <row r="75" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D75" s="31">
+      <c r="O74" s="29"/>
+    </row>
+    <row r="75" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D75" s="28">
         <v>42626.26449652778</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="28">
         <v>42626.29942708333</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="32"/>
-    </row>
-    <row r="76" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D76" s="31">
+      <c r="O75" s="29"/>
+    </row>
+    <row r="76" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D76" s="28">
         <v>42626.344184027781</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="28">
         <v>42626.386487268523</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
-      <c r="O76" s="32"/>
-    </row>
-    <row r="77" spans="1:69" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D77" s="34">
+      <c r="O76" s="29"/>
+    </row>
+    <row r="77" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D77" s="31">
         <v>42627.304484953696</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="31">
         <v>42627.315017361107</v>
       </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-      <c r="V77" s="30"/>
-      <c r="W77" s="30"/>
-      <c r="X77" s="30"/>
-      <c r="Y77" s="30"/>
-      <c r="Z77" s="30"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-      <c r="AC77" s="30"/>
-      <c r="AD77" s="30"/>
-      <c r="AE77" s="30"/>
-      <c r="AF77" s="30"/>
-      <c r="AG77" s="30"/>
-      <c r="AH77" s="30"/>
-      <c r="AI77" s="30"/>
-      <c r="AJ77" s="30"/>
-      <c r="AK77" s="30"/>
-      <c r="AL77" s="30"/>
-      <c r="AM77" s="30"/>
-      <c r="AN77" s="30"/>
-      <c r="AO77" s="30"/>
-      <c r="AP77" s="30"/>
-      <c r="AQ77" s="30"/>
-      <c r="AR77" s="30"/>
-      <c r="AS77" s="30"/>
-      <c r="AT77" s="30"/>
-      <c r="AU77" s="30"/>
-      <c r="AV77" s="30"/>
-      <c r="AW77" s="30"/>
-      <c r="AX77" s="30"/>
-      <c r="AY77" s="30"/>
-      <c r="AZ77" s="30"/>
-      <c r="BA77" s="30"/>
-      <c r="BB77" s="30"/>
-      <c r="BC77" s="30"/>
-      <c r="BD77" s="30"/>
-      <c r="BE77" s="30"/>
-      <c r="BF77" s="30"/>
-      <c r="BG77" s="30"/>
-      <c r="BH77" s="30"/>
-      <c r="BI77" s="30"/>
-      <c r="BJ77" s="30"/>
-      <c r="BK77" s="30"/>
-      <c r="BL77" s="30"/>
-      <c r="BM77" s="30"/>
-      <c r="BN77" s="30"/>
-      <c r="BO77" s="30"/>
-      <c r="BP77" s="30"/>
-      <c r="BQ77" s="30"/>
-    </row>
-    <row r="78" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O77" s="29"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
+      <c r="AF77" s="27"/>
+      <c r="AG77" s="27"/>
+      <c r="AH77" s="27"/>
+      <c r="AI77" s="27"/>
+      <c r="AJ77" s="27"/>
+      <c r="AK77" s="27"/>
+      <c r="AL77" s="27"/>
+      <c r="AM77" s="27"/>
+      <c r="AN77" s="27"/>
+      <c r="AO77" s="27"/>
+      <c r="AP77" s="27"/>
+      <c r="AQ77" s="27"/>
+      <c r="AR77" s="27"/>
+      <c r="AS77" s="27"/>
+      <c r="AT77" s="27"/>
+      <c r="AU77" s="27"/>
+      <c r="AV77" s="27"/>
+      <c r="AW77" s="27"/>
+      <c r="AX77" s="27"/>
+      <c r="AY77" s="27"/>
+      <c r="AZ77" s="27"/>
+      <c r="BA77" s="27"/>
+      <c r="BB77" s="27"/>
+      <c r="BC77" s="27"/>
+      <c r="BD77" s="27"/>
+      <c r="BE77" s="27"/>
+      <c r="BF77" s="27"/>
+      <c r="BG77" s="27"/>
+      <c r="BH77" s="27"/>
+      <c r="BI77" s="27"/>
+      <c r="BJ77" s="27"/>
+      <c r="BK77" s="27"/>
+      <c r="BL77" s="27"/>
+      <c r="BM77" s="27"/>
+      <c r="BN77" s="27"/>
+      <c r="BO77" s="27"/>
+      <c r="BP77" s="27"/>
+      <c r="BQ77" s="27"/>
+    </row>
+    <row r="78" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
         <v>37</v>
       </c>
@@ -4483,26 +4493,23 @@
       <c r="L78" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="13"/>
-    </row>
-    <row r="79" spans="1:69" s="39" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D79" s="40">
+    </row>
+    <row r="79" spans="1:69" s="34" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D79" s="35">
         <v>42627.17509837963</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="35">
         <v>42627.183026620369</v>
       </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
       <c r="O79" s="13"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
@@ -4559,7 +4566,7 @@
       <c r="BP79" s="14"/>
       <c r="BQ79" s="14"/>
     </row>
-    <row r="80" spans="1:69" s="14" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:69" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
         <v>42</v>
       </c>
@@ -4593,11 +4600,8 @@
       <c r="L80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="13"/>
-    </row>
-    <row r="81" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D81" s="16">
         <v>43358.450086805547</v>
       </c>
@@ -4607,12 +4611,8 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="13"/>
-    </row>
-    <row r="82" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D82" s="16">
         <v>43358.464033564807</v>
       </c>
@@ -4622,13 +4622,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="13"/>
-    </row>
-    <row r="83" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D83" s="29">
+    </row>
+    <row r="83" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D83" s="26">
         <v>43358.477864583328</v>
       </c>
       <c r="F83" s="4"/>
@@ -4640,9 +4636,9 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="41"/>
-    </row>
-    <row r="84" spans="1:15" s="14" customFormat="1" ht="57.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O83" s="36"/>
+    </row>
+    <row r="84" spans="1:15" ht="57.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
         <v>43</v>
       </c>
@@ -4674,13 +4670,11 @@
       <c r="L84" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="13"/>
-    </row>
-    <row r="85" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M84" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D85" s="16">
         <v>43338.207309027777</v>
       </c>
@@ -4690,12 +4684,8 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="13"/>
-    </row>
-    <row r="86" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D86" s="16">
         <v>43339.263501157402</v>
       </c>
@@ -4705,12 +4695,8 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D87" s="16">
         <v>43339.277042824076</v>
       </c>
@@ -4720,12 +4706,8 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="13"/>
-    </row>
-    <row r="88" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D88" s="16">
         <v>43339.290700231482</v>
       </c>
@@ -4735,12 +4717,8 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="13"/>
-    </row>
-    <row r="89" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D89" s="16">
         <v>43339.304589120373</v>
       </c>
@@ -4750,12 +4728,8 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="13"/>
-    </row>
-    <row r="90" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D90" s="16">
         <v>43339.734913194443</v>
       </c>
@@ -4765,12 +4739,8 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="13"/>
-    </row>
-    <row r="91" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D91" s="16">
         <v>43339.749149305557</v>
       </c>
@@ -4780,12 +4750,8 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="13"/>
-    </row>
-    <row r="92" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D92" s="16">
         <v>43344.179531250003</v>
       </c>
@@ -4795,12 +4761,8 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="13"/>
-    </row>
-    <row r="93" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D93" s="16">
         <v>43344.193420138887</v>
       </c>
@@ -4810,12 +4772,8 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="13"/>
-    </row>
-    <row r="94" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D94" s="16">
         <v>43345.248917824079</v>
       </c>
@@ -4825,12 +4783,8 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="13"/>
-    </row>
-    <row r="95" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D95" s="16">
         <v>43345.262748842593</v>
       </c>
@@ -4840,12 +4794,8 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="13"/>
-    </row>
-    <row r="96" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D96" s="16">
         <v>43345.2769849537</v>
       </c>
@@ -4855,12 +4805,8 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="13"/>
-    </row>
-    <row r="97" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D97" s="16">
         <v>43345.457366898147</v>
       </c>
@@ -4870,12 +4816,8 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="13"/>
-    </row>
-    <row r="98" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D98" s="16">
         <v>43346.276753472222</v>
       </c>
@@ -4885,12 +4827,8 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="13"/>
-    </row>
-    <row r="99" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D99" s="16">
         <v>43347.457482638893</v>
       </c>
@@ -4900,12 +4838,8 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="13"/>
-    </row>
-    <row r="100" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D100" s="16">
         <v>43348.318304398148</v>
       </c>
@@ -4915,12 +4849,8 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="13"/>
-    </row>
-    <row r="101" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D101" s="16">
         <v>43348.332193287039</v>
       </c>
@@ -4930,12 +4860,8 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="13"/>
-    </row>
-    <row r="102" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D102" s="16">
         <v>43349.151695601853</v>
       </c>
@@ -4945,12 +4871,8 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="13"/>
-    </row>
-    <row r="103" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D103" s="16">
         <v>43349.458234953709</v>
       </c>
@@ -4960,12 +4882,8 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="13"/>
-    </row>
-    <row r="104" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D104" s="16">
         <v>43349.471487268507</v>
       </c>
@@ -4975,12 +4893,8 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="13"/>
-    </row>
-    <row r="105" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D105" s="16">
         <v>43351.24909143518</v>
       </c>
@@ -4990,12 +4904,8 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="13"/>
-    </row>
-    <row r="106" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D106" s="16">
         <v>43353.151637731477</v>
       </c>
@@ -5005,12 +4915,8 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="13"/>
-    </row>
-    <row r="107" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D107" s="16">
         <v>43357.471313657406</v>
       </c>
@@ -5020,12 +4926,8 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="13"/>
-    </row>
-    <row r="108" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D108" s="16">
         <v>43358.318188657402</v>
       </c>
@@ -5035,12 +4937,8 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="13"/>
-    </row>
-    <row r="109" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D109" s="16">
         <v>43359.318651620371</v>
       </c>
@@ -5050,12 +4948,8 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="13"/>
-    </row>
-    <row r="110" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D110" s="16">
         <v>43363.818651620371</v>
       </c>
@@ -5065,12 +4959,8 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="13"/>
-    </row>
-    <row r="111" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D111" s="16">
         <v>43367.123802083333</v>
       </c>
@@ -5080,12 +4970,8 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="13"/>
-    </row>
-    <row r="112" spans="4:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D112" s="16">
         <v>43367.138211805563</v>
       </c>
@@ -5095,12 +4981,8 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="13"/>
-    </row>
-    <row r="113" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D113" s="16">
         <v>43367.151695601853</v>
       </c>
@@ -5110,12 +4992,8 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="13"/>
-    </row>
-    <row r="114" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D114" s="16">
         <v>43368.346197916668</v>
       </c>
@@ -5125,12 +5003,8 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="13"/>
-    </row>
-    <row r="115" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D115" s="16">
         <v>43368.359971064812</v>
       </c>
@@ -5140,12 +5014,8 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="13"/>
-    </row>
-    <row r="116" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D116" s="16">
         <v>43370.290642361113</v>
       </c>
@@ -5155,12 +5025,8 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="13"/>
-    </row>
-    <row r="117" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D117" s="16">
         <v>43370.304704861112</v>
       </c>
@@ -5170,12 +5036,8 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="13"/>
-    </row>
-    <row r="118" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D118" s="16">
         <v>43370.373859953703</v>
       </c>
@@ -5185,12 +5047,8 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="13"/>
-    </row>
-    <row r="119" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D119" s="16">
         <v>43370.401753472222</v>
       </c>
@@ -5200,12 +5058,8 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="13"/>
-    </row>
-    <row r="120" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D120" s="16">
         <v>43370.41587384259</v>
       </c>
@@ -5215,12 +5069,8 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="13"/>
-    </row>
-    <row r="121" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D121" s="16">
         <v>43372.929473379627</v>
       </c>
@@ -5230,13 +5080,9 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="13"/>
-    </row>
-    <row r="122" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D122" s="29">
+    </row>
+    <row r="122" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D122" s="26">
         <v>43372.943709490741</v>
       </c>
       <c r="F122" s="4"/>
@@ -5248,7 +5094,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
-      <c r="O122" s="41"/>
+      <c r="O122" s="36"/>
     </row>
     <row r="123" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="11" t="s">
@@ -5263,7 +5109,7 @@
       <c r="D123" s="12">
         <v>43353.138153935193</v>
       </c>
-      <c r="F123" s="35" t="s">
+      <c r="F123" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G123" s="6" t="s">
@@ -5284,9 +5130,9 @@
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="42"/>
-    </row>
-    <row r="124" spans="1:15" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="O123" s="37"/>
+    </row>
+    <row r="124" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
         <v>45</v>
       </c>
@@ -5299,7 +5145,7 @@
       <c r="D124" s="16">
         <v>43369.178304398149</v>
       </c>
-      <c r="F124" s="35" t="s">
+      <c r="F124" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
@@ -5318,11 +5164,8 @@
       <c r="L124" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="13"/>
-    </row>
-    <row r="125" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D125" s="16">
         <v>43369.192193287032</v>
       </c>
@@ -5332,12 +5175,8 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="13"/>
-    </row>
-    <row r="126" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D126" s="16">
         <v>43369.219971064813</v>
       </c>
@@ -5347,12 +5186,8 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="13"/>
-    </row>
-    <row r="127" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D127" s="16">
         <v>43369.733802083327</v>
       </c>
@@ -5362,32 +5197,23 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="13"/>
-    </row>
-    <row r="128" spans="1:15" s="39" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D128" s="40">
+    </row>
+    <row r="128" spans="1:15" s="34" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D128" s="35">
         <v>43370.192251157408</v>
       </c>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="23"/>
-      <c r="O128" s="43"/>
-    </row>
-    <row r="129" spans="12:15" s="14" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="13"/>
-    </row>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="20"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="38"/>
+    </row>
+    <row r="129" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815A3A6B-6D85-4D86-AA7F-09AA90FF5936}"/>
+  <xr:revisionPtr revIDLastSave="910" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144913AF-EBEE-4211-9DCC-92ECFBEEAF4B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="83">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Notes on LTSA Files for Low Click Counts</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>Not using this drift - SMM Recorder</t>
   </si>
   <si>
@@ -294,15 +291,6 @@
     <t>Not using this drift - Recorder died resulting in gaps in the data</t>
   </si>
   <si>
-    <t>Downloaded</t>
-  </si>
-  <si>
-    <t>Downloaded: Detection 1 - a couple dark lines to remove, 2 - low clicks, 3 - mixed species encounter with Lags (do not use), 4 - ok but occurs right after Lag enocunter, 5 - mixed species encounter (do not use)</t>
-  </si>
-  <si>
-    <t>Dowloaded</t>
-  </si>
-  <si>
     <t>Downloaded: Very faint banding meaning distant detection</t>
   </si>
   <si>
@@ -310,6 +298,27 @@
   </si>
   <si>
     <t>Something wrong with this drift? Not using this event - Multi-species detection</t>
+  </si>
+  <si>
+    <t>Downloaded: Event 1 - a couple dark lines to remove, 2 - low clicks, 3 - mixed species encounter with Lags (do not use), 4 - ok but occurs right after Lag enocunter, 5 - mixed species encounter (do not use)</t>
+  </si>
+  <si>
+    <t>Downloaded: Extremely short encounter with a couple dark lines to remove</t>
+  </si>
+  <si>
+    <t>Downloaded: Event 3 - low clicks but consistent</t>
+  </si>
+  <si>
+    <t>***********************************</t>
+  </si>
+  <si>
+    <t>Dowloaded: Event 4 - Extremely short detection, portions with no banding that need to be removed</t>
+  </si>
+  <si>
+    <t>Downloaded: Event 1 - short encounter, Event 3 - short encounter, Event 7 - short encounter, Event 8 - very faint banding (occurs immediately after Event 7),  Event 13 - I see no spectral banding on the LTSA?, Event 14 - short encounter, Event 16 - I see no spectral banding on the LTSA?, Event 17 - I see no spectral banding on the LTSA?, Event 18 - I see no spectral banding on the LTSA?, Event 19 - short enocunter with some gaps, Event 20 - very faint banding, Event 21 - very faint banding, Event 23 - very faint banding with gaps, Event 27 - really weird banding, Event 30 - I see no spectral banding on the LTSA?,  Event 37 - very faint banding with some low frequency noise?, Event 38 - very faint spectral banding, Event 39 - I see no spectral banding on the LTSA</t>
+  </si>
+  <si>
+    <t>RMD 1 taking a long time (multiple hours), Not using this event - Multi-species detection</t>
   </si>
 </sst>
 </file>
@@ -496,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -612,12 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -652,6 +655,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BQ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="43" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="C63" zoomScale="107" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1354,7 +1360,7 @@
       <c r="BP5" s="14"/>
       <c r="BQ5" s="14"/>
     </row>
-    <row r="6" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="29"/>
     </row>
@@ -1519,7 +1525,7 @@
       <c r="BP10" s="27"/>
       <c r="BQ10" s="27"/>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>55</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -1576,7 +1582,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="27"/>
@@ -1820,102 +1826,102 @@
       <c r="BP14" s="14"/>
       <c r="BQ14" s="14"/>
     </row>
-    <row r="15" spans="1:69" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="41">
         <v>44882.326249999998</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="41">
         <v>44882.345405092587</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="F15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="27"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+      <c r="BJ15" s="27"/>
+      <c r="BK15" s="27"/>
+      <c r="BL15" s="27"/>
+      <c r="BM15" s="27"/>
+      <c r="BN15" s="27"/>
+      <c r="BO15" s="27"/>
+      <c r="BP15" s="27"/>
+      <c r="BQ15" s="27"/>
     </row>
     <row r="16" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
@@ -1948,179 +1954,181 @@
       <c r="J16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:69" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D17" s="26">
+    <row r="17" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D17" s="31">
         <v>44910.070185185177</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="31">
         <v>44910.078402777777</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
-      <c r="BM17" s="14"/>
-      <c r="BN17" s="14"/>
-      <c r="BO17" s="14"/>
-      <c r="BP17" s="14"/>
-      <c r="BQ17" s="14"/>
-    </row>
-    <row r="18" spans="1:69" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="27"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="27"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="27"/>
+      <c r="BD17" s="27"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="27"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="27"/>
+      <c r="BJ17" s="27"/>
+      <c r="BK17" s="27"/>
+      <c r="BL17" s="27"/>
+      <c r="BM17" s="27"/>
+      <c r="BN17" s="27"/>
+      <c r="BO17" s="27"/>
+      <c r="BP17" s="27"/>
+      <c r="BQ17" s="27"/>
+    </row>
+    <row r="18" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="41">
         <v>45005.351689814823</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="41">
         <v>45005.373553240737</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="F18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="14"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
-      <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
-      <c r="BM18" s="14"/>
-      <c r="BN18" s="14"/>
-      <c r="BO18" s="14"/>
-      <c r="BP18" s="14"/>
-      <c r="BQ18" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="O18" s="29"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="27"/>
+      <c r="BE18" s="27"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="27"/>
+      <c r="BL18" s="27"/>
+      <c r="BM18" s="27"/>
+      <c r="BN18" s="27"/>
+      <c r="BO18" s="27"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
     </row>
     <row r="19" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
@@ -2253,7 +2261,7 @@
         <v>66</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>16</v>
@@ -2276,23 +2284,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D22" s="16">
+    <row r="22" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D22" s="28">
         <v>45002.29892361111</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="28">
         <v>45002.372870370367</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="N22" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="39"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="39" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D23" s="16">
@@ -2436,10 +2445,9 @@
       <c r="K26" s="7"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="40"/>
+      <c r="N26" s="39" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D27" s="28">
@@ -2456,10 +2464,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" s="40"/>
+      <c r="N27" s="39" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D28" s="16">
@@ -2575,49 +2582,50 @@
       <c r="BP31" s="14"/>
       <c r="BQ31" s="14"/>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:69" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="28">
         <v>45002.345046296286</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="28">
         <v>45002.569745370369</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="2" t="s">
+      <c r="F32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="M32" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="29"/>
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.45">
       <c r="D33" s="16">
@@ -2705,44 +2713,44 @@
       <c r="BP34" s="14"/>
       <c r="BQ34" s="14"/>
     </row>
-    <row r="35" spans="1:69" s="42" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="41">
         <v>45044.219282407408</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="41">
         <v>45044.23646990741</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47" t="s">
-        <v>78</v>
+      <c r="F35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="27"/>
@@ -3056,48 +3064,48 @@
       <c r="BP42" s="14"/>
       <c r="BQ42" s="14"/>
     </row>
-    <row r="43" spans="1:69" s="42" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="42" t="s">
+    <row r="43" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="41">
         <v>45128.184965277767</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="41">
         <v>45128.190115740741</v>
       </c>
-      <c r="F43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="46" t="s">
+      <c r="F43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="M43" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>79</v>
+      <c r="M43" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" s="44" t="s">
+        <v>75</v>
       </c>
       <c r="O43" s="29"/>
       <c r="P43" s="27"/>
@@ -3190,7 +3198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D45" s="28">
         <v>45119.310439814813</v>
       </c>
@@ -3206,7 +3214,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O45" s="29"/>
     </row>
@@ -3414,11 +3422,11 @@
       <c r="L48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M48" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D49" s="31">
         <v>45123.17931712963</v>
       </c>
@@ -3434,7 +3442,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O49" s="29"/>
       <c r="P49" s="27"/>
@@ -3585,44 +3593,44 @@
       <c r="BP50" s="14"/>
       <c r="BQ50" s="14"/>
     </row>
-    <row r="51" spans="1:69" s="49" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:69" s="47" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="48">
         <v>45166.222685185188</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="48">
         <v>45166.280787037038</v>
       </c>
-      <c r="F51" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52" t="s">
-        <v>78</v>
+      <c r="F51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="O51" s="29"/>
       <c r="P51" s="27"/>
@@ -3717,7 +3725,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O52" s="29"/>
     </row>
@@ -3918,11 +3926,11 @@
         <v>47</v>
       </c>
       <c r="L59" s="8"/>
-      <c r="M59" s="8" t="s">
-        <v>70</v>
+      <c r="M59" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O59" s="29"/>
     </row>
@@ -4052,7 +4060,7 @@
       <c r="BP63" s="27"/>
       <c r="BQ63" s="27"/>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:69" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>40</v>
       </c>
@@ -4090,10 +4098,10 @@
         <v>64</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D65" s="28">
         <v>42612.474091435193</v>
       </c>
@@ -4109,7 +4117,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O65" s="29"/>
     </row>
@@ -4236,7 +4244,7 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O68" s="29"/>
     </row>
@@ -4638,7 +4646,7 @@
       <c r="N83" s="5"/>
       <c r="O83" s="36"/>
     </row>
-    <row r="84" spans="1:15" ht="57.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="351.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
         <v>43</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>68</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.45">

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="910" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144913AF-EBEE-4211-9DCC-92ECFBEEAF4B}"/>
+  <xr:revisionPtr revIDLastSave="1306" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FF27F9-C8D5-4E80-8BC2-41D63CA89DC5}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="261">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -203,82 +203,9 @@
     <t>Look into Event_001 further</t>
   </si>
   <si>
-    <t>Low number of clicks in Event_001</t>
-  </si>
-  <si>
-    <t>Look into Event_001 further - big chunks of dark</t>
-  </si>
-  <si>
     <t>Look into Event_001 further - first third of Event_001 messy</t>
   </si>
   <si>
-    <t>Look into Event_001 and event_002 further - messy banding / missing banding</t>
-  </si>
-  <si>
-    <t>Look into Event_001 - messy</t>
-  </si>
-  <si>
-    <t>Look into Event_001 and Event_004 further</t>
-  </si>
-  <si>
-    <t>Look into Event_001 and Event_002 further</t>
-  </si>
-  <si>
-    <t>Look into Event_003, Event_004 (no spectral banding at all) and  Event_005 further</t>
-  </si>
-  <si>
-    <t>Look into Event_001 and Event_002 further - low number of clicks in Event_002</t>
-  </si>
-  <si>
-    <t>All Events need review</t>
-  </si>
-  <si>
-    <t>Look into Event_001 (messy) and Event_002 (no banding) further</t>
-  </si>
-  <si>
-    <t>Look into Event_001 (messy), Event_002 (low click count), Event_003, Event_004 (low click count), and Event_005 further</t>
-  </si>
-  <si>
-    <t>Low number of clicks in Event_003</t>
-  </si>
-  <si>
-    <t>Look into following Events further (almost all of them): 
-Event_001 - low click count
-Event_002 - patchy banding
-Event_003 - low click count
-Event_004 - patchy banding
-Event_005 - patchy banding
-Event_006 - patchy banding
-Event_007 - low click count
-Event_008 - low click count
-Event_009 - patchy banding
-Event_011 - patchy banding
-Event_012 - patchy banding
-Event_013 - low click count
-Event_014 - low click count
-Event_015 - patchy banding
-Event_016 - low click count
-Event_017 - low click count
-Event_018 -low click count
-Event_019 - low click count
-Event_020 - low click count
-Event_021 - low click count
-Event_022 - patchy banding
-Event_023 - low click count
-Event_027 - low click count
-Event_028 - low click count
-Event_030 - low click count
-Event_031 - patchy banding
-Event_032 - patchy banding
-Event_033 - patchy banding
-Event_034 - patchy banding
-Event_035 - low click count
-Event_036 - patchy banding
-Event_037 - low click count
-Event_038 - low click count
-Event_039 - low click count</t>
-  </si>
-  <si>
     <t>Notes on LTSA Files for Low Click Counts</t>
   </si>
   <si>
@@ -300,25 +227,598 @@
     <t>Something wrong with this drift? Not using this event - Multi-species detection</t>
   </si>
   <si>
-    <t>Downloaded: Event 1 - a couple dark lines to remove, 2 - low clicks, 3 - mixed species encounter with Lags (do not use), 4 - ok but occurs right after Lag enocunter, 5 - mixed species encounter (do not use)</t>
-  </si>
-  <si>
     <t>Downloaded: Extremely short encounter with a couple dark lines to remove</t>
   </si>
   <si>
-    <t>Downloaded: Event 3 - low clicks but consistent</t>
-  </si>
-  <si>
     <t>***********************************</t>
   </si>
   <si>
-    <t>Dowloaded: Event 4 - Extremely short detection, portions with no banding that need to be removed</t>
-  </si>
-  <si>
-    <t>Downloaded: Event 1 - short encounter, Event 3 - short encounter, Event 7 - short encounter, Event 8 - very faint banding (occurs immediately after Event 7),  Event 13 - I see no spectral banding on the LTSA?, Event 14 - short encounter, Event 16 - I see no spectral banding on the LTSA?, Event 17 - I see no spectral banding on the LTSA?, Event 18 - I see no spectral banding on the LTSA?, Event 19 - short enocunter with some gaps, Event 20 - very faint banding, Event 21 - very faint banding, Event 23 - very faint banding with gaps, Event 27 - really weird banding, Event 30 - I see no spectral banding on the LTSA?,  Event 37 - very faint banding with some low frequency noise?, Event 38 - very faint spectral banding, Event 39 - I see no spectral banding on the LTSA</t>
-  </si>
-  <si>
     <t>RMD 1 taking a long time (multiple hours), Not using this event - Multi-species detection</t>
+  </si>
+  <si>
+    <t>Uncertain Risso's ID</t>
+  </si>
+  <si>
+    <t>ADRIFT_003_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_003_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_006_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_007_001</t>
+  </si>
+  <si>
+    <t>PASCAL_007_006</t>
+  </si>
+  <si>
+    <t>CCES_008_008</t>
+  </si>
+  <si>
+    <t>ADRIFT_012_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_012_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_012_003</t>
+  </si>
+  <si>
+    <t>ADRIFT_012_004</t>
+  </si>
+  <si>
+    <t>ADRIFT_012_005</t>
+  </si>
+  <si>
+    <t>ADRIFT_021_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_021_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_032_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_033_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_037_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_039_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_039_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_042_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_043_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_054_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_054_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_054_003</t>
+  </si>
+  <si>
+    <t>ADRIFT_054_004</t>
+  </si>
+  <si>
+    <t>ADRIFT_054_005</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_003</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_004</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_005</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_006</t>
+  </si>
+  <si>
+    <t>ADRIFT_056_007</t>
+  </si>
+  <si>
+    <t>ADRIFT_057_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_057_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_057_003</t>
+  </si>
+  <si>
+    <t>ADRIFT_065_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_067_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_067_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_068_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_068_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_068_003</t>
+  </si>
+  <si>
+    <t>ADRIFT_068_004</t>
+  </si>
+  <si>
+    <t>ADRIFT_069_005</t>
+  </si>
+  <si>
+    <t>Drift Event ID</t>
+  </si>
+  <si>
+    <t>ADRIFT_077_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_079_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_079_002</t>
+  </si>
+  <si>
+    <t>ADRIFT_081_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_083_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_087_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_088_001</t>
+  </si>
+  <si>
+    <t>PASCAL_007_001</t>
+  </si>
+  <si>
+    <t>ADRIFT_079_003</t>
+  </si>
+  <si>
+    <t>PASCAL_007_002</t>
+  </si>
+  <si>
+    <t>PASCAL_007_003</t>
+  </si>
+  <si>
+    <t>PASCAL_007_004</t>
+  </si>
+  <si>
+    <t>PASCAL_007_005</t>
+  </si>
+  <si>
+    <t>PASCAL_007_007</t>
+  </si>
+  <si>
+    <t>PASCAL_008_001</t>
+  </si>
+  <si>
+    <t>PASCAL_008_002</t>
+  </si>
+  <si>
+    <t>PASCAL_008_003</t>
+  </si>
+  <si>
+    <t>PASCAL_008_004</t>
+  </si>
+  <si>
+    <t>PASCAL_008_005</t>
+  </si>
+  <si>
+    <t>PASCAL_009_001</t>
+  </si>
+  <si>
+    <t>PASCAL_009_002</t>
+  </si>
+  <si>
+    <t>PASCAL_009_003</t>
+  </si>
+  <si>
+    <t>PASCAL_009_004</t>
+  </si>
+  <si>
+    <t>PASCAL_010_001</t>
+  </si>
+  <si>
+    <t>PASCAL_010_002</t>
+  </si>
+  <si>
+    <t>PASCAL_010_003</t>
+  </si>
+  <si>
+    <t>PASCAL_010_004</t>
+  </si>
+  <si>
+    <t>PASCAL_010_005</t>
+  </si>
+  <si>
+    <t>PASCAL_010_006</t>
+  </si>
+  <si>
+    <t>PASCAL_010_007</t>
+  </si>
+  <si>
+    <t>PASCAL_010_008</t>
+  </si>
+  <si>
+    <t>PASCAL_010_009</t>
+  </si>
+  <si>
+    <t>PASCAL_010_010</t>
+  </si>
+  <si>
+    <t>PASCAL_012_001</t>
+  </si>
+  <si>
+    <t>PASCAL_012_002</t>
+  </si>
+  <si>
+    <t>CCES_007_001</t>
+  </si>
+  <si>
+    <t>CCES_007_002</t>
+  </si>
+  <si>
+    <t>CCES_007_003</t>
+  </si>
+  <si>
+    <t>CCES_007_004</t>
+  </si>
+  <si>
+    <t>CCES_008_001</t>
+  </si>
+  <si>
+    <t>CCES_008_002</t>
+  </si>
+  <si>
+    <t>CCES_008_003</t>
+  </si>
+  <si>
+    <t>CCES_008_004</t>
+  </si>
+  <si>
+    <t>CCES_008_005</t>
+  </si>
+  <si>
+    <t>CCES_008_006</t>
+  </si>
+  <si>
+    <t>CCES_008_007</t>
+  </si>
+  <si>
+    <t>CCES_008_009</t>
+  </si>
+  <si>
+    <t>CCES_008_010</t>
+  </si>
+  <si>
+    <t>CCES_008_011</t>
+  </si>
+  <si>
+    <t>CCES_008_012</t>
+  </si>
+  <si>
+    <t>CCES_008_013</t>
+  </si>
+  <si>
+    <t>CCES_008_014</t>
+  </si>
+  <si>
+    <t>CCES_008_015</t>
+  </si>
+  <si>
+    <t>CCES_008_016</t>
+  </si>
+  <si>
+    <t>CCES_008_017</t>
+  </si>
+  <si>
+    <t>CCES_008_018</t>
+  </si>
+  <si>
+    <t>CCES_008_019</t>
+  </si>
+  <si>
+    <t>CCES_008_020</t>
+  </si>
+  <si>
+    <t>CCES_008_021</t>
+  </si>
+  <si>
+    <t>CCES_008_022</t>
+  </si>
+  <si>
+    <t>CCES_008_023</t>
+  </si>
+  <si>
+    <t>CCES_008_024</t>
+  </si>
+  <si>
+    <t>CCES_008_025</t>
+  </si>
+  <si>
+    <t>CCES_008_026</t>
+  </si>
+  <si>
+    <t>CCES_008_027</t>
+  </si>
+  <si>
+    <t>CCES_008_028</t>
+  </si>
+  <si>
+    <t>CCES_008_029</t>
+  </si>
+  <si>
+    <t>CCES_008_030</t>
+  </si>
+  <si>
+    <t>CCES_008_031</t>
+  </si>
+  <si>
+    <t>CCES_008_032</t>
+  </si>
+  <si>
+    <t>CCES_008_033</t>
+  </si>
+  <si>
+    <t>CCES_008_034</t>
+  </si>
+  <si>
+    <t>CCES_008_035</t>
+  </si>
+  <si>
+    <t>CCES_008_036</t>
+  </si>
+  <si>
+    <t>CCES_008_037</t>
+  </si>
+  <si>
+    <t>CCES_008_038</t>
+  </si>
+  <si>
+    <t>CCES_008_039</t>
+  </si>
+  <si>
+    <t>CCES_012_001</t>
+  </si>
+  <si>
+    <t>CCES_013_001</t>
+  </si>
+  <si>
+    <t>CCES_013_002</t>
+  </si>
+  <si>
+    <t>CCES_013_003</t>
+  </si>
+  <si>
+    <t>CCES_013_004</t>
+  </si>
+  <si>
+    <t>CCES_013_005</t>
+  </si>
+  <si>
+    <t>Mixed species encounter (do not use)</t>
+  </si>
+  <si>
+    <t>Ok but occurs right after Lag enocunter</t>
+  </si>
+  <si>
+    <t>Mixed species encounter with Lags (do not use)</t>
+  </si>
+  <si>
+    <t>Low clicks</t>
+  </si>
+  <si>
+    <t>Downloaded: A couple dark lines to remove</t>
+  </si>
+  <si>
+    <t>Downloaded: Low clicks but consistent</t>
+  </si>
+  <si>
+    <t>Downloaded: Extremely short detection, portions with no banding that need to be removed</t>
+  </si>
+  <si>
+    <t>I see no spectral banding on the LTSA</t>
+  </si>
+  <si>
+    <t>Very faint spectral banding</t>
+  </si>
+  <si>
+    <t>Very faint banding with some low frequency noise?</t>
+  </si>
+  <si>
+    <t>I see no spectral banding on the LTSA?</t>
+  </si>
+  <si>
+    <t>Really weird banding</t>
+  </si>
+  <si>
+    <t>Very faint banding with gaps</t>
+  </si>
+  <si>
+    <t>Very faint banding</t>
+  </si>
+  <si>
+    <t>Short enocunter with some gaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I see no spectral banding on the LTSA?</t>
+  </si>
+  <si>
+    <t>Short encounter</t>
+  </si>
+  <si>
+    <t>Faint banding</t>
+  </si>
+  <si>
+    <t>Very faint banding (occurs immediately after Event 7)</t>
+  </si>
+  <si>
+    <t>Downloaded: Short encounter</t>
+  </si>
+  <si>
+    <t>Look into Event_001 further - messy banding / missing banding</t>
+  </si>
+  <si>
+    <t>Look into Event_002 further - messy banding / missing banding</t>
+  </si>
+  <si>
+    <t>Event_002 - low click count</t>
+  </si>
+  <si>
+    <t>Event_004  - low click count</t>
+  </si>
+  <si>
+    <t>Event_001 - messy</t>
+  </si>
+  <si>
+    <t>Event_001 - low click count</t>
+  </si>
+  <si>
+    <t>Event_001 - big chunks of dark</t>
+  </si>
+  <si>
+    <t>Event_003 - low click count</t>
+  </si>
+  <si>
+    <t>Event needs review</t>
+  </si>
+  <si>
+    <t>Event_001 - needs further review</t>
+  </si>
+  <si>
+    <t>Event_002 - needs further review</t>
+  </si>
+  <si>
+    <t>Event_003 - needs further review</t>
+  </si>
+  <si>
+    <t>Event_004 - needs further review</t>
+  </si>
+  <si>
+    <t>Event_005 - needs further review</t>
+  </si>
+  <si>
+    <t>Event_004 - no spectral banding?</t>
+  </si>
+  <si>
+    <t>Event_002 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_004 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_005 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_006 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_007 - low click count</t>
+  </si>
+  <si>
+    <t>Event_008 - low click count</t>
+  </si>
+  <si>
+    <t>Event_009 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_011 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_012 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_013 - low click count</t>
+  </si>
+  <si>
+    <t>Event_014 - low click count</t>
+  </si>
+  <si>
+    <t>Event_015 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_016 - low click count</t>
+  </si>
+  <si>
+    <t>Event_017 - low click count</t>
+  </si>
+  <si>
+    <t>Event_018 -low click count</t>
+  </si>
+  <si>
+    <t>Event_019 - low click count</t>
+  </si>
+  <si>
+    <t>Event_020 - low click count</t>
+  </si>
+  <si>
+    <t>Event_021 - low click count</t>
+  </si>
+  <si>
+    <t>Event_022 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_023 - low click count</t>
+  </si>
+  <si>
+    <t>Event_027 - low click count</t>
+  </si>
+  <si>
+    <t>Event_028 - low click count</t>
+  </si>
+  <si>
+    <t>Event_030 - low click count</t>
+  </si>
+  <si>
+    <t>Event_031 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_032 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_033 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_034 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_035 - low click count</t>
+  </si>
+  <si>
+    <t>Event_036 - patchy banding</t>
+  </si>
+  <si>
+    <t>Event_037 - low click count</t>
+  </si>
+  <si>
+    <t>Event_038 - low click count</t>
+  </si>
+  <si>
+    <t>Event_039 - low click count</t>
   </si>
 </sst>
 </file>
@@ -380,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -495,10 +995,23 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -556,9 +1069,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,12 +1149,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -658,6 +1162,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,92 +1511,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
-  <dimension ref="A1:BQ129"/>
+  <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C63" zoomScale="107" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.46484375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="29.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23" style="14" customWidth="1"/>
-    <col min="5" max="9" width="24.1328125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="47.53125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="35.53125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="50.73046875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.86328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34.53125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="13"/>
-    <col min="16" max="16384" width="9.06640625" style="14"/>
+    <col min="1" max="2" width="18.46484375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.06640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23" style="14" customWidth="1"/>
+    <col min="6" max="10" width="24.1328125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="47.53125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="35.53125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="50.73046875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.86328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="53" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.06640625" style="13"/>
+    <col min="17" max="16384" width="9.06640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="24" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:70" s="23" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="N1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:69" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:70" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16">
+      <c r="E2" s="16">
         <v>44403.170833333337</v>
       </c>
-      <c r="E2" s="16">
+      <c r="F2" s="16">
         <v>44403.179166666669</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1099,25 +1615,42 @@
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="26">
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="25">
         <v>44407.519768518519</v>
       </c>
-      <c r="E3" s="26">
+      <c r="F3" s="25">
         <v>44407.534814814819</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
@@ -1171,26 +1704,27 @@
       <c r="BO3" s="14"/>
       <c r="BP3" s="14"/>
       <c r="BQ3" s="14"/>
-    </row>
-    <row r="4" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BR3" s="14"/>
+    </row>
+    <row r="4" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>44404.561458333337</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="12">
         <v>44404.602083333331</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1206,13 +1740,15 @@
       <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -1266,26 +1802,27 @@
       <c r="BO4" s="14"/>
       <c r="BP4" s="14"/>
       <c r="BQ4" s="14"/>
-    </row>
-    <row r="5" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BR4" s="14"/>
+    </row>
+    <row r="5" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>44360.256701388891</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="12">
         <v>44360.28528935185</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1301,11 +1838,13 @@
       <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -1359,26 +1898,27 @@
       <c r="BO5" s="14"/>
       <c r="BP5" s="14"/>
       <c r="BQ5" s="14"/>
-    </row>
-    <row r="6" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="BR5" s="14"/>
+    </row>
+    <row r="6" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28">
+      <c r="E6" s="27">
         <v>44580.109351851846</v>
       </c>
-      <c r="E6" s="28">
+      <c r="F6" s="27">
         <v>44580.123611111107</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1386,164 +1926,229 @@
         <v>7</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D7" s="28">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="27">
         <v>44580.177847222221</v>
       </c>
-      <c r="E7" s="28">
+      <c r="F7" s="27">
         <v>44580.200335648136</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="28">
+      <c r="O7" s="8"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="27">
         <v>44580.225891203707</v>
       </c>
-      <c r="E8" s="28">
+      <c r="F8" s="27">
         <v>44580.245625000003</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="28">
+      <c r="O8" s="8"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="27">
         <v>44580.253530092603</v>
       </c>
-      <c r="E9" s="28">
+      <c r="F9" s="27">
         <v>44580.272847222222</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="31">
+      <c r="O9" s="8"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="30">
         <v>44580.292696759258</v>
       </c>
-      <c r="E10" s="31">
+      <c r="F10" s="30">
         <v>44580.323900462958</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="G10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="27"/>
-      <c r="BE10" s="27"/>
-      <c r="BF10" s="27"/>
-      <c r="BG10" s="27"/>
-      <c r="BH10" s="27"/>
-      <c r="BI10" s="27"/>
-      <c r="BJ10" s="27"/>
-      <c r="BK10" s="27"/>
-      <c r="BL10" s="27"/>
-      <c r="BM10" s="27"/>
-      <c r="BN10" s="27"/>
-      <c r="BO10" s="27"/>
-      <c r="BP10" s="27"/>
-      <c r="BQ10" s="27"/>
-    </row>
-    <row r="11" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="O10" s="10"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="26"/>
+      <c r="BM10" s="26"/>
+      <c r="BN10" s="26"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="26"/>
+      <c r="BQ10" s="26"/>
+      <c r="BR10" s="26"/>
+    </row>
+    <row r="11" spans="1:70" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="16">
         <v>44735.246354166673</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="16">
         <v>44735.249305555553</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1559,106 +2164,124 @@
       <c r="K11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D12" s="31">
+      <c r="L11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="30">
         <v>44737.283750000002</v>
       </c>
-      <c r="E12" s="31">
+      <c r="F12" s="30">
         <v>44737.304293981477</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="G12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="27"/>
-      <c r="BE12" s="27"/>
-      <c r="BF12" s="27"/>
-      <c r="BG12" s="27"/>
-      <c r="BH12" s="27"/>
-      <c r="BI12" s="27"/>
-      <c r="BJ12" s="27"/>
-      <c r="BK12" s="27"/>
-      <c r="BL12" s="27"/>
-      <c r="BM12" s="27"/>
-      <c r="BN12" s="27"/>
-      <c r="BO12" s="27"/>
-      <c r="BP12" s="27"/>
-      <c r="BQ12" s="27"/>
-    </row>
-    <row r="13" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="26"/>
+      <c r="BN12" s="26"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="26"/>
+      <c r="BQ12" s="26"/>
+      <c r="BR12" s="26"/>
+    </row>
+    <row r="13" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12">
         <v>44818.156134259261</v>
       </c>
-      <c r="E13" s="12">
+      <c r="F13" s="12">
         <v>44818.174768518518</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1674,11 +2297,13 @@
       <c r="K13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -1732,26 +2357,27 @@
       <c r="BO13" s="14"/>
       <c r="BP13" s="14"/>
       <c r="BQ13" s="14"/>
-    </row>
-    <row r="14" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BR13" s="14"/>
+    </row>
+    <row r="14" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12">
         <v>44818.185706018507</v>
       </c>
-      <c r="E14" s="12">
+      <c r="F14" s="12">
         <v>44818.250856481478</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1767,11 +2393,13 @@
       <c r="K14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
@@ -1825,123 +2453,127 @@
       <c r="BO14" s="14"/>
       <c r="BP14" s="14"/>
       <c r="BQ14" s="14"/>
-    </row>
-    <row r="15" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="40" t="s">
+      <c r="BR14" s="14"/>
+    </row>
+    <row r="15" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="41">
+      <c r="E15" s="40">
         <v>44882.326249999998</v>
       </c>
-      <c r="E15" s="41">
+      <c r="F15" s="40">
         <v>44882.345405092587</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="27"/>
-      <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="27"/>
-      <c r="BM15" s="27"/>
-      <c r="BN15" s="27"/>
-      <c r="BO15" s="27"/>
-      <c r="BP15" s="27"/>
-      <c r="BQ15" s="27"/>
-    </row>
-    <row r="16" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="43"/>
+      <c r="O15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="26"/>
+      <c r="BL15" s="26"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="26"/>
+      <c r="BO15" s="26"/>
+      <c r="BP15" s="26"/>
+      <c r="BQ15" s="26"/>
+      <c r="BR15" s="26"/>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="16">
+      <c r="E16" s="16">
         <v>44909.985347222217</v>
       </c>
-      <c r="E16" s="16">
+      <c r="F16" s="16">
         <v>44910.02342592593</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1957,198 +2589,221 @@
       <c r="K16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D17" s="31">
+      <c r="L16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="30">
         <v>44910.070185185177</v>
       </c>
-      <c r="E17" s="31">
+      <c r="F17" s="30">
         <v>44910.078402777777</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="27"/>
-      <c r="BE17" s="27"/>
-      <c r="BF17" s="27"/>
-      <c r="BG17" s="27"/>
-      <c r="BH17" s="27"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
-      <c r="BK17" s="27"/>
-      <c r="BL17" s="27"/>
-      <c r="BM17" s="27"/>
-      <c r="BN17" s="27"/>
-      <c r="BO17" s="27"/>
-      <c r="BP17" s="27"/>
-      <c r="BQ17" s="27"/>
-    </row>
-    <row r="18" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="40" t="s">
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="26"/>
+      <c r="BO17" s="26"/>
+      <c r="BP17" s="26"/>
+      <c r="BQ17" s="26"/>
+      <c r="BR17" s="26"/>
+    </row>
+    <row r="18" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="40">
         <v>45005.351689814823</v>
       </c>
-      <c r="E18" s="41">
+      <c r="F18" s="40">
         <v>45005.373553240737</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="27"/>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="27"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="27"/>
-      <c r="BE18" s="27"/>
-      <c r="BF18" s="27"/>
-      <c r="BG18" s="27"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
-      <c r="BK18" s="27"/>
-      <c r="BL18" s="27"/>
-      <c r="BM18" s="27"/>
-      <c r="BN18" s="27"/>
-      <c r="BO18" s="27"/>
-      <c r="BP18" s="27"/>
-      <c r="BQ18" s="27"/>
-    </row>
-    <row r="19" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="26"/>
+      <c r="BN18" s="26"/>
+      <c r="BO18" s="26"/>
+      <c r="BP18" s="26"/>
+      <c r="BQ18" s="26"/>
+      <c r="BR18" s="26"/>
+    </row>
+    <row r="19" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12">
         <v>45005.294664351852</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="12">
         <v>45005.301898148136</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
@@ -2164,11 +2819,13 @@
       <c r="K19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -2222,26 +2879,27 @@
       <c r="BO19" s="14"/>
       <c r="BP19" s="14"/>
       <c r="BQ19" s="14"/>
-    </row>
-    <row r="20" spans="1:69" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="BR19" s="14"/>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="16">
         <v>45002.156157407408</v>
       </c>
-      <c r="E20" s="16">
+      <c r="F20" s="16">
         <v>45002.260150462957</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2257,157 +2915,238 @@
       <c r="K20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="L20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D21" s="16">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="16">
         <v>45002.272129629629</v>
       </c>
-      <c r="E21" s="16">
+      <c r="F21" s="16">
         <v>45002.283009259263</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="N21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D22" s="28">
+    <row r="22" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="27">
         <v>45002.29892361111</v>
       </c>
-      <c r="E22" s="28">
+      <c r="F22" s="27">
         <v>45002.372870370367</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+      <c r="G22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D23" s="16">
+      <c r="N22" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="16">
         <v>45002.429236111107</v>
       </c>
-      <c r="E23" s="16">
+      <c r="F23" s="16">
         <v>45002.440057870372</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="26">
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="30">
         <v>45002.964166666672</v>
       </c>
-      <c r="E24" s="26">
+      <c r="F24" s="30">
         <v>45003.045578703714</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="14"/>
-      <c r="BQ24" s="14"/>
-    </row>
-    <row r="25" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="26"/>
+      <c r="BP24" s="26"/>
+      <c r="BQ24" s="26"/>
+      <c r="BR24" s="26"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="16">
         <v>45002.077708333338</v>
       </c>
-      <c r="E25" s="16">
+      <c r="F25" s="16">
         <v>45002.100451388891</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2423,111 +3162,203 @@
       <c r="K25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="L25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D26" s="28">
+    <row r="26" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="27">
         <v>45002.114224537043</v>
       </c>
-      <c r="E26" s="28">
+      <c r="F26" s="27">
         <v>45002.139166666668</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D27" s="28">
+      <c r="N26" s="8"/>
+      <c r="O26" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="27">
         <v>45002.160868055551</v>
       </c>
-      <c r="E27" s="28">
+      <c r="F27" s="27">
         <v>45002.248530092591</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D28" s="16">
+      <c r="N27" s="8"/>
+      <c r="O27" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="16">
         <v>45002.342222222222</v>
       </c>
-      <c r="E28" s="16">
+      <c r="F28" s="16">
         <v>45002.472083333327</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D29" s="16">
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="16">
         <v>45002.523240740753</v>
       </c>
-      <c r="E29" s="16">
+      <c r="F29" s="16">
         <v>45002.559004629627</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D30" s="16">
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B30" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="16">
         <v>45003.08756944444</v>
       </c>
-      <c r="E30" s="16">
+      <c r="F30" s="16">
         <v>45003.199548611112</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="26">
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="25">
         <v>45003.336469907408</v>
       </c>
-      <c r="E31" s="26">
+      <c r="F31" s="25">
         <v>45003.382997685178</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
@@ -2581,26 +3412,27 @@
       <c r="BO31" s="14"/>
       <c r="BP31" s="14"/>
       <c r="BQ31" s="14"/>
-    </row>
-    <row r="32" spans="1:69" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A32" s="27" t="s">
+      <c r="BR31" s="14"/>
+    </row>
+    <row r="32" spans="1:70" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="27">
         <v>45002.345046296286</v>
       </c>
-      <c r="E32" s="28">
+      <c r="F32" s="27">
         <v>45002.569745370369</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="G32" s="7" t="s">
         <v>7</v>
       </c>
@@ -2616,49 +3448,81 @@
       <c r="K32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="29"/>
-    </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D33" s="16">
+      <c r="L32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N32" s="48"/>
+      <c r="O32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="28"/>
+    </row>
+    <row r="33" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="16">
         <v>45003.131979166668</v>
       </c>
-      <c r="E33" s="16">
+      <c r="F33" s="16">
         <v>45003.165717592587</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="26">
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="25">
         <v>45003.354826388888</v>
       </c>
-      <c r="E34" s="26">
+      <c r="F34" s="25">
         <v>45003.393020833333</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
+      <c r="N34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -2712,155 +3576,176 @@
       <c r="BO34" s="14"/>
       <c r="BP34" s="14"/>
       <c r="BQ34" s="14"/>
-    </row>
-    <row r="35" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="40" t="s">
+      <c r="BR34" s="14"/>
+    </row>
+    <row r="35" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="41">
+      <c r="D35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="40">
         <v>45044.219282407408</v>
       </c>
-      <c r="E35" s="41">
+      <c r="F35" s="40">
         <v>45044.23646990741</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="43" t="s">
+      <c r="G35" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="42" t="s">
         <v>7</v>
       </c>
       <c r="J35" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="27"/>
-      <c r="AJ35" s="27"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="27"/>
-      <c r="AP35" s="27"/>
-      <c r="AQ35" s="27"/>
-      <c r="AR35" s="27"/>
-      <c r="AS35" s="27"/>
-      <c r="AT35" s="27"/>
-      <c r="AU35" s="27"/>
-      <c r="AV35" s="27"/>
-      <c r="AW35" s="27"/>
-      <c r="AX35" s="27"/>
-      <c r="AY35" s="27"/>
-      <c r="AZ35" s="27"/>
-      <c r="BA35" s="27"/>
-      <c r="BB35" s="27"/>
-      <c r="BC35" s="27"/>
-      <c r="BD35" s="27"/>
-      <c r="BE35" s="27"/>
-      <c r="BF35" s="27"/>
-      <c r="BG35" s="27"/>
-      <c r="BH35" s="27"/>
-      <c r="BI35" s="27"/>
-      <c r="BJ35" s="27"/>
-      <c r="BK35" s="27"/>
-      <c r="BL35" s="27"/>
-      <c r="BM35" s="27"/>
-      <c r="BN35" s="27"/>
-      <c r="BO35" s="27"/>
-      <c r="BP35" s="27"/>
-      <c r="BQ35" s="27"/>
-    </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="K35" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="26"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="26"/>
+      <c r="BM35" s="26"/>
+      <c r="BN35" s="26"/>
+      <c r="BO35" s="26"/>
+      <c r="BP35" s="26"/>
+      <c r="BQ35" s="26"/>
+      <c r="BR35" s="26"/>
+    </row>
+    <row r="36" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="16">
         <v>45054.301666666674</v>
       </c>
-      <c r="E36" s="16">
+      <c r="F36" s="16">
         <v>45054.370532407411</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="31" t="s">
         <v>7</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="26">
+      <c r="L36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="25">
         <v>45054.415324074071</v>
       </c>
-      <c r="E37" s="26">
+      <c r="F37" s="25">
         <v>45054.417407407411</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="13"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
@@ -2914,26 +3799,27 @@
       <c r="BO37" s="14"/>
       <c r="BP37" s="14"/>
       <c r="BQ37" s="14"/>
-    </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="BR37" s="14"/>
+    </row>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="16">
         <v>45054.290162037039</v>
       </c>
-      <c r="E38" s="16">
+      <c r="F38" s="16">
         <v>45054.302893518507</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G38" s="3" t="s">
         <v>7</v>
       </c>
@@ -2949,67 +3835,129 @@
       <c r="K38" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D39" s="16">
+      <c r="L38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B39" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="16">
         <v>45054.415335648147</v>
       </c>
-      <c r="E39" s="16">
+      <c r="F39" s="16">
         <v>45054.421180555553</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D40" s="16">
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="16">
         <v>45055.170219907413</v>
       </c>
-      <c r="E40" s="16">
+      <c r="F40" s="16">
         <v>45055.199849537043</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D41" s="16">
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="16">
         <v>45055.351006944453</v>
       </c>
-      <c r="E41" s="16">
+      <c r="F41" s="16">
         <v>45055.355405092589</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D42" s="26">
+      <c r="G41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="25">
         <v>45055.378020833326</v>
       </c>
-      <c r="E42" s="26">
+      <c r="F42" s="25">
         <v>45055.399027777778</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="5"/>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="14"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="13"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
@@ -3063,125 +4011,129 @@
       <c r="BO42" s="14"/>
       <c r="BP42" s="14"/>
       <c r="BQ42" s="14"/>
-    </row>
-    <row r="43" spans="1:69" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="40" t="s">
+      <c r="BR42" s="14"/>
+    </row>
+    <row r="43" spans="1:70" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="D43" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="40">
         <v>45128.184965277767</v>
       </c>
-      <c r="E43" s="41">
+      <c r="F43" s="40">
         <v>45128.190115740741</v>
       </c>
-      <c r="F43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="N43" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
-      <c r="AR43" s="27"/>
-      <c r="AS43" s="27"/>
-      <c r="AT43" s="27"/>
-      <c r="AU43" s="27"/>
-      <c r="AV43" s="27"/>
-      <c r="AW43" s="27"/>
-      <c r="AX43" s="27"/>
-      <c r="AY43" s="27"/>
-      <c r="AZ43" s="27"/>
-      <c r="BA43" s="27"/>
-      <c r="BB43" s="27"/>
-      <c r="BC43" s="27"/>
-      <c r="BD43" s="27"/>
-      <c r="BE43" s="27"/>
-      <c r="BF43" s="27"/>
-      <c r="BG43" s="27"/>
-      <c r="BH43" s="27"/>
-      <c r="BI43" s="27"/>
-      <c r="BJ43" s="27"/>
-      <c r="BK43" s="27"/>
-      <c r="BL43" s="27"/>
-      <c r="BM43" s="27"/>
-      <c r="BN43" s="27"/>
-      <c r="BO43" s="27"/>
-      <c r="BP43" s="27"/>
-      <c r="BQ43" s="27"/>
-    </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="G43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="26"/>
+      <c r="AS43" s="26"/>
+      <c r="AT43" s="26"/>
+      <c r="AU43" s="26"/>
+      <c r="AV43" s="26"/>
+      <c r="AW43" s="26"/>
+      <c r="AX43" s="26"/>
+      <c r="AY43" s="26"/>
+      <c r="AZ43" s="26"/>
+      <c r="BA43" s="26"/>
+      <c r="BB43" s="26"/>
+      <c r="BC43" s="26"/>
+      <c r="BD43" s="26"/>
+      <c r="BE43" s="26"/>
+      <c r="BF43" s="26"/>
+      <c r="BG43" s="26"/>
+      <c r="BH43" s="26"/>
+      <c r="BI43" s="26"/>
+      <c r="BJ43" s="26"/>
+      <c r="BK43" s="26"/>
+      <c r="BL43" s="26"/>
+      <c r="BM43" s="26"/>
+      <c r="BN43" s="26"/>
+      <c r="BO43" s="26"/>
+      <c r="BP43" s="26"/>
+      <c r="BQ43" s="26"/>
+      <c r="BR43" s="26"/>
+    </row>
+    <row r="44" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="16">
+      <c r="E44" s="16">
         <v>45119.225254629629</v>
       </c>
-      <c r="E44" s="16">
+      <c r="F44" s="16">
         <v>45119.260034722218</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>7</v>
       </c>
@@ -3197,45 +4149,77 @@
       <c r="K44" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D45" s="28">
+      <c r="L44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="27">
         <v>45119.310439814813</v>
       </c>
-      <c r="E45" s="28">
+      <c r="F45" s="27">
         <v>45119.365300925929</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
+      <c r="G45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M45" s="8"/>
-      <c r="N45" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O45" s="29"/>
-    </row>
-    <row r="46" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D46" s="26">
+      <c r="N45" s="8"/>
+      <c r="O45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" s="28"/>
+    </row>
+    <row r="46" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="25">
         <v>45119.398460648154</v>
       </c>
-      <c r="E46" s="26">
+      <c r="F46" s="25">
         <v>45119.429537037038</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="5"/>
+      <c r="G46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="14"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="13"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
@@ -3289,26 +4273,27 @@
       <c r="BO46" s="14"/>
       <c r="BP46" s="14"/>
       <c r="BQ46" s="14"/>
-    </row>
-    <row r="47" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="BR46" s="14"/>
+    </row>
+    <row r="47" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="12">
+      <c r="E47" s="12">
         <v>45122.301076388889</v>
       </c>
-      <c r="E47" s="12">
+      <c r="F47" s="12">
         <v>45122.310162037043</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
@@ -3324,13 +4309,15 @@
       <c r="K47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="1"/>
+      <c r="L47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="N47" s="1"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="14"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="13"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
@@ -3384,26 +4371,27 @@
       <c r="BO47" s="14"/>
       <c r="BP47" s="14"/>
       <c r="BQ47" s="14"/>
-    </row>
-    <row r="48" spans="1:69" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="BR47" s="14"/>
+    </row>
+    <row r="48" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="16">
+      <c r="E48" s="16">
         <v>45119.29614583333</v>
       </c>
-      <c r="E48" s="16">
+      <c r="F48" s="16">
         <v>45119.330231481479</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>7</v>
       </c>
@@ -3419,106 +4407,124 @@
       <c r="K48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:69" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D49" s="31">
+      <c r="L48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="30">
         <v>45123.17931712963</v>
       </c>
-      <c r="E49" s="31">
+      <c r="F49" s="30">
         <v>45123.182326388887</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
+      <c r="G49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="M49" s="10"/>
-      <c r="N49" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O49" s="29"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="27"/>
-      <c r="AJ49" s="27"/>
-      <c r="AK49" s="27"/>
-      <c r="AL49" s="27"/>
-      <c r="AM49" s="27"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="27"/>
-      <c r="AQ49" s="27"/>
-      <c r="AR49" s="27"/>
-      <c r="AS49" s="27"/>
-      <c r="AT49" s="27"/>
-      <c r="AU49" s="27"/>
-      <c r="AV49" s="27"/>
-      <c r="AW49" s="27"/>
-      <c r="AX49" s="27"/>
-      <c r="AY49" s="27"/>
-      <c r="AZ49" s="27"/>
-      <c r="BA49" s="27"/>
-      <c r="BB49" s="27"/>
-      <c r="BC49" s="27"/>
-      <c r="BD49" s="27"/>
-      <c r="BE49" s="27"/>
-      <c r="BF49" s="27"/>
-      <c r="BG49" s="27"/>
-      <c r="BH49" s="27"/>
-      <c r="BI49" s="27"/>
-      <c r="BJ49" s="27"/>
-      <c r="BK49" s="27"/>
-      <c r="BL49" s="27"/>
-      <c r="BM49" s="27"/>
-      <c r="BN49" s="27"/>
-      <c r="BO49" s="27"/>
-      <c r="BP49" s="27"/>
-      <c r="BQ49" s="27"/>
-    </row>
-    <row r="50" spans="1:69" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N49" s="10"/>
+      <c r="O49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="26"/>
+      <c r="AN49" s="26"/>
+      <c r="AO49" s="26"/>
+      <c r="AP49" s="26"/>
+      <c r="AQ49" s="26"/>
+      <c r="AR49" s="26"/>
+      <c r="AS49" s="26"/>
+      <c r="AT49" s="26"/>
+      <c r="AU49" s="26"/>
+      <c r="AV49" s="26"/>
+      <c r="AW49" s="26"/>
+      <c r="AX49" s="26"/>
+      <c r="AY49" s="26"/>
+      <c r="AZ49" s="26"/>
+      <c r="BA49" s="26"/>
+      <c r="BB49" s="26"/>
+      <c r="BC49" s="26"/>
+      <c r="BD49" s="26"/>
+      <c r="BE49" s="26"/>
+      <c r="BF49" s="26"/>
+      <c r="BG49" s="26"/>
+      <c r="BH49" s="26"/>
+      <c r="BI49" s="26"/>
+      <c r="BJ49" s="26"/>
+      <c r="BK49" s="26"/>
+      <c r="BL49" s="26"/>
+      <c r="BM49" s="26"/>
+      <c r="BN49" s="26"/>
+      <c r="BO49" s="26"/>
+      <c r="BP49" s="26"/>
+      <c r="BQ49" s="26"/>
+      <c r="BR49" s="26"/>
+    </row>
+    <row r="50" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="12">
         <v>45143.215335648143</v>
       </c>
-      <c r="E50" s="12">
+      <c r="F50" s="12">
         <v>45143.242708333331</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
@@ -3534,11 +4540,13 @@
       <c r="K50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="1"/>
+      <c r="L50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="14"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="13"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
@@ -3592,121 +4600,125 @@
       <c r="BO50" s="14"/>
       <c r="BP50" s="14"/>
       <c r="BQ50" s="14"/>
-    </row>
-    <row r="51" spans="1:69" s="47" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="47" t="s">
+      <c r="BR50" s="14"/>
+    </row>
+    <row r="51" spans="1:70" s="44" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="D51" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="48">
+      <c r="E51" s="45">
         <v>45166.222685185188</v>
       </c>
-      <c r="E51" s="48">
+      <c r="F51" s="45">
         <v>45166.280787037038</v>
       </c>
-      <c r="F51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="O51" s="29"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="27"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="27"/>
-      <c r="AL51" s="27"/>
-      <c r="AM51" s="27"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="27"/>
-      <c r="AR51" s="27"/>
-      <c r="AS51" s="27"/>
-      <c r="AT51" s="27"/>
-      <c r="AU51" s="27"/>
-      <c r="AV51" s="27"/>
-      <c r="AW51" s="27"/>
-      <c r="AX51" s="27"/>
-      <c r="AY51" s="27"/>
-      <c r="AZ51" s="27"/>
-      <c r="BA51" s="27"/>
-      <c r="BB51" s="27"/>
-      <c r="BC51" s="27"/>
-      <c r="BD51" s="27"/>
-      <c r="BE51" s="27"/>
-      <c r="BF51" s="27"/>
-      <c r="BG51" s="27"/>
-      <c r="BH51" s="27"/>
-      <c r="BI51" s="27"/>
-      <c r="BJ51" s="27"/>
-      <c r="BK51" s="27"/>
-      <c r="BL51" s="27"/>
-      <c r="BM51" s="27"/>
-      <c r="BN51" s="27"/>
-      <c r="BO51" s="27"/>
-      <c r="BP51" s="27"/>
-      <c r="BQ51" s="27"/>
-    </row>
-    <row r="52" spans="1:69" s="27" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="27" t="s">
+      <c r="G51" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26"/>
+      <c r="AQ51" s="26"/>
+      <c r="AR51" s="26"/>
+      <c r="AS51" s="26"/>
+      <c r="AT51" s="26"/>
+      <c r="AU51" s="26"/>
+      <c r="AV51" s="26"/>
+      <c r="AW51" s="26"/>
+      <c r="AX51" s="26"/>
+      <c r="AY51" s="26"/>
+      <c r="AZ51" s="26"/>
+      <c r="BA51" s="26"/>
+      <c r="BB51" s="26"/>
+      <c r="BC51" s="26"/>
+      <c r="BD51" s="26"/>
+      <c r="BE51" s="26"/>
+      <c r="BF51" s="26"/>
+      <c r="BG51" s="26"/>
+      <c r="BH51" s="26"/>
+      <c r="BI51" s="26"/>
+      <c r="BJ51" s="26"/>
+      <c r="BK51" s="26"/>
+      <c r="BL51" s="26"/>
+      <c r="BM51" s="26"/>
+      <c r="BN51" s="26"/>
+      <c r="BO51" s="26"/>
+      <c r="BP51" s="26"/>
+      <c r="BQ51" s="26"/>
+      <c r="BR51" s="26"/>
+    </row>
+    <row r="52" spans="1:70" s="26" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="28">
+      <c r="D52" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="27">
         <v>42612.580873842591</v>
       </c>
-      <c r="E52" s="28">
+      <c r="F52" s="27">
         <v>42612.603443287036</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G52" s="7" t="s">
         <v>47</v>
       </c>
@@ -3722,194 +4734,287 @@
       <c r="K52" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L52" s="8"/>
+      <c r="L52" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M52" s="8"/>
-      <c r="N52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O52" s="29"/>
-    </row>
-    <row r="53" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D53" s="28">
+      <c r="N52" s="8"/>
+      <c r="O52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="28"/>
+    </row>
+    <row r="53" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="27">
         <v>42614.355943287039</v>
       </c>
-      <c r="E53" s="28">
+      <c r="F53" s="27">
         <v>42614.377528935191</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
+      <c r="G53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="29"/>
-    </row>
-    <row r="54" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D54" s="28">
+      <c r="O53" s="8"/>
+      <c r="P53" s="28"/>
+    </row>
+    <row r="54" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="27">
         <v>42615.103859953699</v>
       </c>
-      <c r="E54" s="28">
+      <c r="F54" s="27">
         <v>42615.120468749999</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="G54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="29"/>
-    </row>
-    <row r="55" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D55" s="28">
+      <c r="O54" s="8"/>
+      <c r="P54" s="28"/>
+    </row>
+    <row r="55" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="27">
         <v>42616.176603009248</v>
       </c>
-      <c r="E55" s="28">
+      <c r="F55" s="27">
         <v>42616.210109953703</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="G55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="29"/>
-    </row>
-    <row r="56" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D56" s="28">
+      <c r="O55" s="8"/>
+      <c r="P55" s="28"/>
+    </row>
+    <row r="56" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="27">
         <v>42616.414797453697</v>
       </c>
-      <c r="E56" s="28">
+      <c r="F56" s="27">
         <v>42616.434068287039</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="G56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="29"/>
-    </row>
-    <row r="57" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D57" s="28">
+      <c r="O56" s="8"/>
+      <c r="P56" s="28"/>
+    </row>
+    <row r="57" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="27">
         <v>42618.576927083333</v>
       </c>
-      <c r="E57" s="28">
+      <c r="F57" s="27">
         <v>42618.598454861123</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="G57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="29"/>
-    </row>
-    <row r="58" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D58" s="31">
+      <c r="O57" s="8"/>
+      <c r="P57" s="28"/>
+    </row>
+    <row r="58" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="30">
         <v>42623.506336805563</v>
       </c>
-      <c r="E58" s="31">
+      <c r="F58" s="30">
         <v>42623.522656250003</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
+      <c r="G58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-      <c r="AF58" s="27"/>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="27"/>
-      <c r="AI58" s="27"/>
-      <c r="AJ58" s="27"/>
-      <c r="AK58" s="27"/>
-      <c r="AL58" s="27"/>
-      <c r="AM58" s="27"/>
-      <c r="AN58" s="27"/>
-      <c r="AO58" s="27"/>
-      <c r="AP58" s="27"/>
-      <c r="AQ58" s="27"/>
-      <c r="AR58" s="27"/>
-      <c r="AS58" s="27"/>
-      <c r="AT58" s="27"/>
-      <c r="AU58" s="27"/>
-      <c r="AV58" s="27"/>
-      <c r="AW58" s="27"/>
-      <c r="AX58" s="27"/>
-      <c r="AY58" s="27"/>
-      <c r="AZ58" s="27"/>
-      <c r="BA58" s="27"/>
-      <c r="BB58" s="27"/>
-      <c r="BC58" s="27"/>
-      <c r="BD58" s="27"/>
-      <c r="BE58" s="27"/>
-      <c r="BF58" s="27"/>
-      <c r="BG58" s="27"/>
-      <c r="BH58" s="27"/>
-      <c r="BI58" s="27"/>
-      <c r="BJ58" s="27"/>
-      <c r="BK58" s="27"/>
-      <c r="BL58" s="27"/>
-      <c r="BM58" s="27"/>
-      <c r="BN58" s="27"/>
-      <c r="BO58" s="27"/>
-      <c r="BP58" s="27"/>
-      <c r="BQ58" s="27"/>
-    </row>
-    <row r="59" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="27" t="s">
+      <c r="O58" s="10"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="26"/>
+      <c r="AI58" s="26"/>
+      <c r="AJ58" s="26"/>
+      <c r="AK58" s="26"/>
+      <c r="AL58" s="26"/>
+      <c r="AM58" s="26"/>
+      <c r="AN58" s="26"/>
+      <c r="AO58" s="26"/>
+      <c r="AP58" s="26"/>
+      <c r="AQ58" s="26"/>
+      <c r="AR58" s="26"/>
+      <c r="AS58" s="26"/>
+      <c r="AT58" s="26"/>
+      <c r="AU58" s="26"/>
+      <c r="AV58" s="26"/>
+      <c r="AW58" s="26"/>
+      <c r="AX58" s="26"/>
+      <c r="AY58" s="26"/>
+      <c r="AZ58" s="26"/>
+      <c r="BA58" s="26"/>
+      <c r="BB58" s="26"/>
+      <c r="BC58" s="26"/>
+      <c r="BD58" s="26"/>
+      <c r="BE58" s="26"/>
+      <c r="BF58" s="26"/>
+      <c r="BG58" s="26"/>
+      <c r="BH58" s="26"/>
+      <c r="BI58" s="26"/>
+      <c r="BJ58" s="26"/>
+      <c r="BK58" s="26"/>
+      <c r="BL58" s="26"/>
+      <c r="BM58" s="26"/>
+      <c r="BN58" s="26"/>
+      <c r="BO58" s="26"/>
+      <c r="BP58" s="26"/>
+      <c r="BQ58" s="26"/>
+      <c r="BR58" s="26"/>
+    </row>
+    <row r="59" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="28">
+      <c r="E59" s="27">
         <v>42612.561255787034</v>
       </c>
-      <c r="E59" s="28">
+      <c r="F59" s="27">
         <v>42612.620804398153</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="G59" s="7" t="s">
         <v>7</v>
       </c>
@@ -3923,162 +5028,225 @@
         <v>7</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="51" t="s">
-        <v>47</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" s="8"/>
       <c r="N59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O59" s="29"/>
-    </row>
-    <row r="60" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D60" s="28">
+        <v>47</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" s="28"/>
+    </row>
+    <row r="60" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="27">
         <v>42616.558420138877</v>
       </c>
-      <c r="E60" s="28">
+      <c r="F60" s="27">
         <v>42616.592332175933</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+      <c r="G60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="29"/>
-    </row>
-    <row r="61" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D61" s="28">
+      <c r="O60" s="8"/>
+      <c r="P60" s="28"/>
+    </row>
+    <row r="61" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="27">
         <v>42617.194646990742</v>
       </c>
-      <c r="E61" s="28">
+      <c r="F61" s="27">
         <v>42617.223524305547</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
+      <c r="G61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="29"/>
-    </row>
-    <row r="62" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D62" s="28">
+      <c r="O61" s="8"/>
+      <c r="P61" s="28"/>
+    </row>
+    <row r="62" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="27">
         <v>42618.178038194441</v>
       </c>
-      <c r="E62" s="28">
+      <c r="F62" s="27">
         <v>42618.190017361107</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
+      <c r="G62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="29"/>
-    </row>
-    <row r="63" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D63" s="31">
+      <c r="O62" s="8"/>
+      <c r="P62" s="28"/>
+    </row>
+    <row r="63" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="30">
         <v>42618.300086805553</v>
       </c>
-      <c r="E63" s="31">
+      <c r="F63" s="30">
         <v>42618.317447916663</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
+      <c r="G63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="27"/>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="27"/>
-      <c r="AH63" s="27"/>
-      <c r="AI63" s="27"/>
-      <c r="AJ63" s="27"/>
-      <c r="AK63" s="27"/>
-      <c r="AL63" s="27"/>
-      <c r="AM63" s="27"/>
-      <c r="AN63" s="27"/>
-      <c r="AO63" s="27"/>
-      <c r="AP63" s="27"/>
-      <c r="AQ63" s="27"/>
-      <c r="AR63" s="27"/>
-      <c r="AS63" s="27"/>
-      <c r="AT63" s="27"/>
-      <c r="AU63" s="27"/>
-      <c r="AV63" s="27"/>
-      <c r="AW63" s="27"/>
-      <c r="AX63" s="27"/>
-      <c r="AY63" s="27"/>
-      <c r="AZ63" s="27"/>
-      <c r="BA63" s="27"/>
-      <c r="BB63" s="27"/>
-      <c r="BC63" s="27"/>
-      <c r="BD63" s="27"/>
-      <c r="BE63" s="27"/>
-      <c r="BF63" s="27"/>
-      <c r="BG63" s="27"/>
-      <c r="BH63" s="27"/>
-      <c r="BI63" s="27"/>
-      <c r="BJ63" s="27"/>
-      <c r="BK63" s="27"/>
-      <c r="BL63" s="27"/>
-      <c r="BM63" s="27"/>
-      <c r="BN63" s="27"/>
-      <c r="BO63" s="27"/>
-      <c r="BP63" s="27"/>
-      <c r="BQ63" s="27"/>
-    </row>
-    <row r="64" spans="1:69" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="O63" s="10"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="26"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="26"/>
+      <c r="AI63" s="26"/>
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="26"/>
+      <c r="AN63" s="26"/>
+      <c r="AO63" s="26"/>
+      <c r="AP63" s="26"/>
+      <c r="AQ63" s="26"/>
+      <c r="AR63" s="26"/>
+      <c r="AS63" s="26"/>
+      <c r="AT63" s="26"/>
+      <c r="AU63" s="26"/>
+      <c r="AV63" s="26"/>
+      <c r="AW63" s="26"/>
+      <c r="AX63" s="26"/>
+      <c r="AY63" s="26"/>
+      <c r="AZ63" s="26"/>
+      <c r="BA63" s="26"/>
+      <c r="BB63" s="26"/>
+      <c r="BC63" s="26"/>
+      <c r="BD63" s="26"/>
+      <c r="BE63" s="26"/>
+      <c r="BF63" s="26"/>
+      <c r="BG63" s="26"/>
+      <c r="BH63" s="26"/>
+      <c r="BI63" s="26"/>
+      <c r="BJ63" s="26"/>
+      <c r="BK63" s="26"/>
+      <c r="BL63" s="26"/>
+      <c r="BM63" s="26"/>
+      <c r="BN63" s="26"/>
+      <c r="BO63" s="26"/>
+      <c r="BP63" s="26"/>
+      <c r="BQ63" s="26"/>
+      <c r="BR63" s="26"/>
+    </row>
+    <row r="64" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="16">
+      <c r="E64" s="16">
         <v>42612.348975694447</v>
       </c>
-      <c r="E64" s="16">
+      <c r="F64" s="16">
         <v>42612.370908564822</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G64" s="3" t="s">
         <v>7</v>
       </c>
@@ -4094,65 +5262,119 @@
       <c r="K64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M64" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:69" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D65" s="28">
+      <c r="L64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N64" s="15"/>
+    </row>
+    <row r="65" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="27">
         <v>42612.474091435193</v>
       </c>
-      <c r="E65" s="28">
+      <c r="F65" s="27">
         <v>42612.502795138891</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O65" s="29"/>
-    </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="D66" s="16">
+      <c r="G65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" s="28"/>
+    </row>
+    <row r="66" spans="1:70" x14ac:dyDescent="0.45">
+      <c r="B66" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="16">
         <v>42617.710376157411</v>
       </c>
-      <c r="E66" s="16">
+      <c r="F66" s="16">
         <v>42617.759739583329</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:69" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D67" s="26">
+      <c r="G66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:70" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B67" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="25">
         <v>42618.696718749998</v>
       </c>
-      <c r="E67" s="26">
+      <c r="F67" s="25">
         <v>42618.704241898136</v>
       </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="14"/>
+      <c r="G67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="13"/>
       <c r="Q67" s="14"/>
       <c r="R67" s="14"/>
       <c r="S67" s="14"/>
@@ -4206,26 +5428,27 @@
       <c r="BO67" s="14"/>
       <c r="BP67" s="14"/>
       <c r="BQ67" s="14"/>
-    </row>
-    <row r="68" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="27" t="s">
+      <c r="BR67" s="14"/>
+    </row>
+    <row r="68" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="28">
+      <c r="D68" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="27">
         <v>42610.535399305547</v>
       </c>
-      <c r="E68" s="28">
+      <c r="F68" s="27">
         <v>42610.555225694443</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G68" s="7" t="s">
         <v>47</v>
       </c>
@@ -4238,251 +5461,389 @@
       <c r="J68" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K68" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L68" s="8"/>
+      <c r="K68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="M68" s="8"/>
-      <c r="N68" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O68" s="29"/>
-    </row>
-    <row r="69" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D69" s="28">
+      <c r="N68" s="8"/>
+      <c r="O68" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P68" s="28"/>
+    </row>
+    <row r="69" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="27">
         <v>42612.31131365741</v>
       </c>
-      <c r="E69" s="28">
+      <c r="F69" s="27">
         <v>42612.336788194443</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="8"/>
+      <c r="G69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="29"/>
-    </row>
-    <row r="70" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D70" s="28">
+      <c r="O69" s="8"/>
+      <c r="P69" s="28"/>
+    </row>
+    <row r="70" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="27">
         <v>42612.969021990742</v>
       </c>
-      <c r="E70" s="28">
+      <c r="F70" s="27">
         <v>42612.983778935188</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="8"/>
+      <c r="G70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="29"/>
-    </row>
-    <row r="71" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D71" s="28">
+      <c r="O70" s="8"/>
+      <c r="P70" s="28"/>
+    </row>
+    <row r="71" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="27">
         <v>42616.257019675933</v>
       </c>
-      <c r="E71" s="28">
+      <c r="F71" s="27">
         <v>42616.291394675922</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="8"/>
+      <c r="G71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="29"/>
-    </row>
-    <row r="72" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D72" s="28">
+      <c r="O71" s="8"/>
+      <c r="P71" s="28"/>
+    </row>
+    <row r="72" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="27">
         <v>42621.241869212958</v>
       </c>
-      <c r="E72" s="28">
+      <c r="F72" s="27">
         <v>42621.275318287036</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="8"/>
+      <c r="G72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="29"/>
-    </row>
-    <row r="73" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D73" s="28">
+      <c r="O72" s="8"/>
+      <c r="P72" s="28"/>
+    </row>
+    <row r="73" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="27">
         <v>42623.419010416663</v>
       </c>
-      <c r="E73" s="28">
+      <c r="F73" s="27">
         <v>42623.431278935182</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="8"/>
+      <c r="G73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
-      <c r="O73" s="29"/>
-    </row>
-    <row r="74" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D74" s="28">
+      <c r="O73" s="8"/>
+      <c r="P73" s="28"/>
+    </row>
+    <row r="74" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="27">
         <v>42624.161082175917</v>
       </c>
-      <c r="E74" s="28">
+      <c r="F74" s="27">
         <v>42624.177401620371</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="8"/>
+      <c r="G74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="29"/>
-    </row>
-    <row r="75" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D75" s="28">
+      <c r="O74" s="8"/>
+      <c r="P74" s="28"/>
+    </row>
+    <row r="75" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="27">
         <v>42626.26449652778</v>
       </c>
-      <c r="E75" s="28">
+      <c r="F75" s="27">
         <v>42626.29942708333</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="8"/>
+      <c r="G75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="29"/>
-    </row>
-    <row r="76" spans="1:69" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D76" s="28">
+      <c r="O75" s="8"/>
+      <c r="P75" s="28"/>
+    </row>
+    <row r="76" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="27">
         <v>42626.344184027781</v>
       </c>
-      <c r="E76" s="28">
+      <c r="F76" s="27">
         <v>42626.386487268523</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="8"/>
+      <c r="G76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
-      <c r="O76" s="29"/>
-    </row>
-    <row r="77" spans="1:69" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D77" s="31">
+      <c r="O76" s="8"/>
+      <c r="P76" s="28"/>
+    </row>
+    <row r="77" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="30">
         <v>42627.304484953696</v>
       </c>
-      <c r="E77" s="31">
+      <c r="F77" s="30">
         <v>42627.315017361107</v>
       </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="10"/>
+      <c r="G77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="27"/>
-      <c r="AF77" s="27"/>
-      <c r="AG77" s="27"/>
-      <c r="AH77" s="27"/>
-      <c r="AI77" s="27"/>
-      <c r="AJ77" s="27"/>
-      <c r="AK77" s="27"/>
-      <c r="AL77" s="27"/>
-      <c r="AM77" s="27"/>
-      <c r="AN77" s="27"/>
-      <c r="AO77" s="27"/>
-      <c r="AP77" s="27"/>
-      <c r="AQ77" s="27"/>
-      <c r="AR77" s="27"/>
-      <c r="AS77" s="27"/>
-      <c r="AT77" s="27"/>
-      <c r="AU77" s="27"/>
-      <c r="AV77" s="27"/>
-      <c r="AW77" s="27"/>
-      <c r="AX77" s="27"/>
-      <c r="AY77" s="27"/>
-      <c r="AZ77" s="27"/>
-      <c r="BA77" s="27"/>
-      <c r="BB77" s="27"/>
-      <c r="BC77" s="27"/>
-      <c r="BD77" s="27"/>
-      <c r="BE77" s="27"/>
-      <c r="BF77" s="27"/>
-      <c r="BG77" s="27"/>
-      <c r="BH77" s="27"/>
-      <c r="BI77" s="27"/>
-      <c r="BJ77" s="27"/>
-      <c r="BK77" s="27"/>
-      <c r="BL77" s="27"/>
-      <c r="BM77" s="27"/>
-      <c r="BN77" s="27"/>
-      <c r="BO77" s="27"/>
-      <c r="BP77" s="27"/>
-      <c r="BQ77" s="27"/>
-    </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="O77" s="10"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="26"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="26"/>
+      <c r="AC77" s="26"/>
+      <c r="AD77" s="26"/>
+      <c r="AE77" s="26"/>
+      <c r="AF77" s="26"/>
+      <c r="AG77" s="26"/>
+      <c r="AH77" s="26"/>
+      <c r="AI77" s="26"/>
+      <c r="AJ77" s="26"/>
+      <c r="AK77" s="26"/>
+      <c r="AL77" s="26"/>
+      <c r="AM77" s="26"/>
+      <c r="AN77" s="26"/>
+      <c r="AO77" s="26"/>
+      <c r="AP77" s="26"/>
+      <c r="AQ77" s="26"/>
+      <c r="AR77" s="26"/>
+      <c r="AS77" s="26"/>
+      <c r="AT77" s="26"/>
+      <c r="AU77" s="26"/>
+      <c r="AV77" s="26"/>
+      <c r="AW77" s="26"/>
+      <c r="AX77" s="26"/>
+      <c r="AY77" s="26"/>
+      <c r="AZ77" s="26"/>
+      <c r="BA77" s="26"/>
+      <c r="BB77" s="26"/>
+      <c r="BC77" s="26"/>
+      <c r="BD77" s="26"/>
+      <c r="BE77" s="26"/>
+      <c r="BF77" s="26"/>
+      <c r="BG77" s="26"/>
+      <c r="BH77" s="26"/>
+      <c r="BI77" s="26"/>
+      <c r="BJ77" s="26"/>
+      <c r="BK77" s="26"/>
+      <c r="BL77" s="26"/>
+      <c r="BM77" s="26"/>
+      <c r="BN77" s="26"/>
+      <c r="BO77" s="26"/>
+      <c r="BP77" s="26"/>
+      <c r="BQ77" s="26"/>
+      <c r="BR77" s="26"/>
+    </row>
+    <row r="78" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="D78" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="16">
+      <c r="E78" s="16">
         <v>42612.397146990741</v>
       </c>
-      <c r="E78" s="16">
+      <c r="F78" s="16">
         <v>42612.39830439815</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G78" s="3" t="s">
         <v>7</v>
       </c>
@@ -4498,28 +5859,47 @@
       <c r="K78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L78" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:69" s="34" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D79" s="35">
+      <c r="L78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:70" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" s="34">
         <v>42627.17509837963</v>
       </c>
-      <c r="E79" s="35">
+      <c r="F79" s="34">
         <v>42627.183026620369</v>
       </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="14"/>
+      <c r="G79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="13"/>
       <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
@@ -4573,23 +5953,24 @@
       <c r="BO79" s="14"/>
       <c r="BP79" s="14"/>
       <c r="BQ79" s="14"/>
-    </row>
-    <row r="80" spans="1:69" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="BR79" s="14"/>
+    </row>
+    <row r="80" spans="1:70" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B80" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="D80" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="16">
+      <c r="E80" s="16">
         <v>43358.436255787034</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G80" s="3" t="s">
         <v>7</v>
       </c>
@@ -4605,62 +5986,112 @@
       <c r="K80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D81" s="16">
+      <c r="L80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B81" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="16">
         <v>43358.450086805547</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D82" s="16">
+      <c r="G81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B82" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="16">
         <v>43358.464033564807</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D83" s="26">
+      <c r="G82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="25">
         <v>43358.477864583328</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="N83" s="5"/>
-      <c r="O83" s="36"/>
-    </row>
-    <row r="84" spans="1:15" ht="351.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O83" s="5"/>
+      <c r="P83" s="35"/>
+    </row>
+    <row r="84" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="D84" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="16">
-        <v>43338.193535879633</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>7</v>
+      <c r="E84" s="16">
+        <v>43338.193541666667</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>7</v>
@@ -4668,459 +6099,1192 @@
       <c r="H84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J84" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M84" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D85" s="16">
+      <c r="L84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N84" s="50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B85" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="16">
         <v>43338.207309027777</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D86" s="16">
+      <c r="G85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B86" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="16">
         <v>43339.263501157402</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D87" s="16">
+      <c r="G86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B87" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="16">
         <v>43339.277042824076</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D88" s="16">
+      <c r="G87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B88" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="16">
         <v>43339.290700231482</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D89" s="16">
+      <c r="G88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B89" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="16">
         <v>43339.304589120373</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D90" s="16">
+      <c r="G89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B90" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="16">
         <v>43339.734913194443</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D91" s="16">
+      <c r="G90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B91" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="16">
         <v>43339.749149305557</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D92" s="16">
+      <c r="G91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B92" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="16">
         <v>43344.179531250003</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D93" s="16">
+      <c r="G92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B93" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="16">
         <v>43344.193420138887</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D94" s="16">
+      <c r="G93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B94" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="16">
         <v>43345.248917824079</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D95" s="16">
+      <c r="G94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B95" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E95" s="16">
         <v>43345.262748842593</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D96" s="16">
+      <c r="G95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B96" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" s="16">
         <v>43345.2769849537</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D97" s="16">
+      <c r="G96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B97" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="16">
         <v>43345.457366898147</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D98" s="16">
+      <c r="G97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B98" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="16">
         <v>43346.276753472222</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D99" s="16">
+      <c r="G98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B99" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" s="16">
         <v>43347.457482638893</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D100" s="16">
+      <c r="G99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B100" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="16">
         <v>43348.318304398148</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D101" s="16">
+      <c r="G100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B101" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="16">
         <v>43348.332193287039</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D102" s="16">
+      <c r="G101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B102" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E102" s="16">
         <v>43349.151695601853</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D103" s="16">
+      <c r="G102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B103" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" s="16">
         <v>43349.458234953709</v>
       </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D104" s="16">
+      <c r="G103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B104" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" s="16">
         <v>43349.471487268507</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D105" s="16">
+      <c r="G104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B105" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="16">
         <v>43351.24909143518</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D106" s="16">
+      <c r="G105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B106" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="16">
         <v>43353.151637731477</v>
       </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D107" s="16">
+      <c r="G106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B107" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" s="16">
         <v>43357.471313657406</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D108" s="16">
+      <c r="G107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B108" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="16">
         <v>43358.318188657402</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D109" s="16">
+      <c r="G108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B109" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" s="16">
         <v>43359.318651620371</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D110" s="16">
+      <c r="G109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B110" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" s="16">
         <v>43363.818651620371</v>
       </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D111" s="16">
+      <c r="G110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B111" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" s="16">
         <v>43367.123802083333</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D112" s="16">
+      <c r="G111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B112" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="16">
         <v>43367.138211805563</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D113" s="16">
+      <c r="G112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B113" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="16">
         <v>43367.151695601853</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D114" s="16">
+      <c r="G113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B114" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" s="16">
         <v>43368.346197916668</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D115" s="16">
+      <c r="G114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B115" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E115" s="16">
         <v>43368.359971064812</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D116" s="16">
+      <c r="G115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B116" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E116" s="16">
         <v>43370.290642361113</v>
       </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D117" s="16">
+      <c r="G116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B117" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E117" s="16">
         <v>43370.304704861112</v>
       </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D118" s="16">
+      <c r="G117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B118" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" s="27">
         <v>43370.373859953703</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D119" s="16">
+      <c r="G118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="N118" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c r="P118" s="28"/>
+    </row>
+    <row r="119" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B119" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E119" s="27">
         <v>43370.401753472222</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D120" s="16">
+      <c r="G119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="28"/>
+    </row>
+    <row r="120" spans="1:16" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B120" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E120" s="27">
         <v>43370.41587384259</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D121" s="16">
+      <c r="G120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="N120" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c r="P120" s="28"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B121" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E121" s="16">
         <v>43372.929473379627</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D122" s="26">
+      <c r="G121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122" s="25">
         <v>43372.943709490741</v>
       </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="36"/>
-    </row>
-    <row r="123" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O122" s="5"/>
+      <c r="P122" s="35"/>
+    </row>
+    <row r="123" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="12">
+      <c r="E123" s="12">
         <v>43353.138153935193</v>
       </c>
-      <c r="F123" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="6" t="s">
+      <c r="G123" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H123" s="6" t="s">
@@ -5129,34 +7293,39 @@
       <c r="I123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J123" s="6"/>
+      <c r="J123" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="K123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="L123" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="37"/>
-    </row>
-    <row r="124" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="O123" s="1"/>
+      <c r="P123" s="36"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="D124" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="16">
+      <c r="E124" s="16">
         <v>43369.178304398149</v>
       </c>
-      <c r="F124" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H124" s="3" t="s">
@@ -5165,61 +7334,131 @@
       <c r="I124" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J124" s="3"/>
+      <c r="J124" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="K124" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L124" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D125" s="16">
+      <c r="L124" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B125" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" s="16">
         <v>43369.192193287032</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D126" s="16">
+      <c r="G125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B126" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E126" s="16">
         <v>43369.219971064813</v>
       </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D127" s="16">
+      <c r="G126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B127" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="16">
         <v>43369.733802083327</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:15" s="34" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D128" s="35">
+      <c r="G127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B128" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="34">
         <v>43370.192251157408</v>
       </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="20"/>
-      <c r="O128" s="38"/>
+      <c r="G128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M128" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="37"/>
     </row>
     <row r="129" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1306" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FF27F9-C8D5-4E80-8BC2-41D63CA89DC5}"/>
+  <xr:revisionPtr revIDLastSave="1359" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7E2F08-4750-48E7-94B8-98D9AB685A00}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="10830" yWindow="1650" windowWidth="10057" windowHeight="9967" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="256">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -104,12 +104,6 @@
     <t>No - on Box</t>
   </si>
   <si>
-    <t>Chunk 4 of RMD 2 took a LONG time</t>
-  </si>
-  <si>
-    <t>RMD 1 taking a long time (multiple hours)</t>
-  </si>
-  <si>
     <t>ADRIFT_007</t>
   </si>
   <si>
@@ -218,24 +212,15 @@
     <t>Not using this drift - Recorder died resulting in gaps in the data</t>
   </si>
   <si>
-    <t>Downloaded: Very faint banding meaning distant detection</t>
-  </si>
-  <si>
     <t>Not using this event - Multi-species detection</t>
   </si>
   <si>
     <t>Something wrong with this drift? Not using this event - Multi-species detection</t>
   </si>
   <si>
-    <t>Downloaded: Extremely short encounter with a couple dark lines to remove</t>
-  </si>
-  <si>
     <t>***********************************</t>
   </si>
   <si>
-    <t>RMD 1 taking a long time (multiple hours), Not using this event - Multi-species detection</t>
-  </si>
-  <si>
     <t>Uncertain Risso's ID</t>
   </si>
   <si>
@@ -332,9 +317,6 @@
     <t>ADRIFT_055_006</t>
   </si>
   <si>
-    <t>ADRIFT_056_007</t>
-  </si>
-  <si>
     <t>ADRIFT_057_001</t>
   </si>
   <si>
@@ -632,54 +614,24 @@
     <t>Low clicks</t>
   </si>
   <si>
-    <t>Downloaded: A couple dark lines to remove</t>
-  </si>
-  <si>
-    <t>Downloaded: Low clicks but consistent</t>
-  </si>
-  <si>
-    <t>Downloaded: Extremely short detection, portions with no banding that need to be removed</t>
-  </si>
-  <si>
     <t>I see no spectral banding on the LTSA</t>
   </si>
   <si>
-    <t>Very faint spectral banding</t>
-  </si>
-  <si>
     <t>Very faint banding with some low frequency noise?</t>
   </si>
   <si>
     <t>I see no spectral banding on the LTSA?</t>
   </si>
   <si>
-    <t>Really weird banding</t>
-  </si>
-  <si>
-    <t>Very faint banding with gaps</t>
-  </si>
-  <si>
-    <t>Very faint banding</t>
-  </si>
-  <si>
     <t>Short enocunter with some gaps</t>
   </si>
   <si>
-    <t xml:space="preserve"> I see no spectral banding on the LTSA?</t>
-  </si>
-  <si>
     <t>Short encounter</t>
   </si>
   <si>
     <t>Faint banding</t>
   </si>
   <si>
-    <t>Very faint banding (occurs immediately after Event 7)</t>
-  </si>
-  <si>
-    <t>Downloaded: Short encounter</t>
-  </si>
-  <si>
     <t>Look into Event_001 further - messy banding / missing banding</t>
   </si>
   <si>
@@ -819,6 +771,39 @@
   </si>
   <si>
     <t>Event_039 - low click count</t>
+  </si>
+  <si>
+    <t>Extremely short encounter with a couple dark lines to remove</t>
+  </si>
+  <si>
+    <t>A couple dark lines to remove</t>
+  </si>
+  <si>
+    <t>Low clicks but consistent</t>
+  </si>
+  <si>
+    <t>Extremely short detection, portions with no banding that need to be removed</t>
+  </si>
+  <si>
+    <t>Faint banding with gaps</t>
+  </si>
+  <si>
+    <t>Faint banding (occurs immediately after Event 7)</t>
+  </si>
+  <si>
+    <t>Mixed-species encounter???</t>
+  </si>
+  <si>
+    <t>Faint spectral banding</t>
+  </si>
+  <si>
+    <t>ADRIFT_055_007</t>
+  </si>
+  <si>
+    <t>Not using this event - Not enough clicks</t>
+  </si>
+  <si>
+    <t>ADRIFT_083_002</t>
   </si>
 </sst>
 </file>
@@ -828,7 +813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,6 +846,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1018,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1167,11 +1165,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="65" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1538,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>4</v>
@@ -1562,22 +1572,22 @@
         <v>2</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="P1" s="22"/>
     </row>
@@ -1586,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>21</v>
@@ -1621,7 +1631,7 @@
     </row>
     <row r="3" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" s="25">
         <v>44407.519768518519</v>
@@ -1711,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
@@ -1744,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1806,10 +1816,10 @@
     </row>
     <row r="5" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>21</v>
@@ -1902,10 +1912,10 @@
     </row>
     <row r="6" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>21</v>
@@ -1929,24 +1939,24 @@
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E7" s="27">
         <v>44580.177847222221</v>
@@ -1964,13 +1974,13 @@
         <v>7</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1979,7 +1989,7 @@
     </row>
     <row r="8" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E8" s="27">
         <v>44580.225891203707</v>
@@ -1997,13 +2007,13 @@
         <v>7</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -2012,7 +2022,7 @@
     </row>
     <row r="9" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" s="27">
         <v>44580.253530092603</v>
@@ -2030,13 +2040,13 @@
         <v>7</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -2045,7 +2055,7 @@
     </row>
     <row r="10" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="30">
         <v>44580.292696759258</v>
@@ -2063,13 +2073,13 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -2135,13 +2145,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="16">
         <v>44735.246354166673</v>
@@ -2168,15 +2178,15 @@
         <v>7</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>63</v>
+        <v>203</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E12" s="30">
         <v>44737.283750000002</v>
@@ -2188,24 +2198,24 @@
         <v>7</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="26"/>
@@ -2268,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="12">
         <v>44818.156134259261</v>
@@ -2364,13 +2374,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="12">
         <v>44818.185706018507</v>
@@ -2457,10 +2467,10 @@
     </row>
     <row r="15" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>21</v>
@@ -2493,11 +2503,11 @@
         <v>7</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N15" s="43"/>
       <c r="O15" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="26"/>
@@ -2557,10 +2567,10 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>21</v>
@@ -2593,12 +2603,12 @@
         <v>7</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E17" s="30">
         <v>44910.070185185177</v>
@@ -2625,11 +2635,11 @@
         <v>7</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="26"/>
@@ -2689,16 +2699,16 @@
     </row>
     <row r="18" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="40">
         <v>45005.351689814823</v>
@@ -2727,7 +2737,7 @@
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
       <c r="O18" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="26"/>
@@ -2787,16 +2797,16 @@
     </row>
     <row r="19" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="12">
         <v>45005.294664351852</v>
@@ -2886,13 +2896,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="16">
         <v>45002.156157407408</v>
@@ -2919,56 +2929,57 @@
         <v>7</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="B21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="16">
+    <row r="21" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="27">
         <v>45002.272129629629</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="27">
         <v>45002.283009259263</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E22" s="27">
         <v>45002.29892361111</v>
@@ -2996,15 +3007,15 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E23" s="16">
         <v>45002.429236111107</v>
@@ -3031,15 +3042,15 @@
         <v>7</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E24" s="30">
         <v>45002.964166666672</v>
@@ -3067,10 +3078,10 @@
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O24" s="49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="26"/>
@@ -3128,53 +3139,55 @@
       <c r="BQ24" s="26"/>
       <c r="BR24" s="26"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="27">
         <v>45002.077708333338</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="27">
         <v>45002.100451388891</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="G25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="28"/>
     </row>
     <row r="26" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E26" s="27">
         <v>45002.114224537043</v>
@@ -3203,12 +3216,12 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E27" s="27">
         <v>45002.160868055551</v>
@@ -3237,12 +3250,12 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E28" s="16">
         <v>45002.342222222222</v>
@@ -3271,7 +3284,7 @@
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B29" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E29" s="16">
         <v>45002.523240740753</v>
@@ -3300,7 +3313,7 @@
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B30" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E30" s="16">
         <v>45003.08756944444</v>
@@ -3329,7 +3342,7 @@
     </row>
     <row r="31" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" s="24" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="E31" s="25">
         <v>45003.336469907408</v>
@@ -3414,18 +3427,18 @@
       <c r="BQ31" s="14"/>
       <c r="BR31" s="14"/>
     </row>
-    <row r="32" spans="1:70" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="27">
         <v>45002.345046296286</v>
@@ -3452,144 +3465,149 @@
         <v>7</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="N32" s="48"/>
       <c r="O32" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P32" s="28"/>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="B33" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="16">
+    <row r="33" spans="1:70" s="51" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="52">
         <v>45003.131979166668</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="52">
         <v>45003.165717592587</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="25">
+      <c r="G33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="P33" s="55"/>
+    </row>
+    <row r="34" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="30">
         <v>45003.354826388888</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="30">
         <v>45003.393020833333</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14"/>
-      <c r="BP34" s="14"/>
-      <c r="BQ34" s="14"/>
-      <c r="BR34" s="14"/>
+      <c r="G34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26"/>
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
+      <c r="BQ34" s="26"/>
+      <c r="BR34" s="26"/>
     </row>
     <row r="35" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="40">
         <v>45044.219282407408</v>
@@ -3617,8 +3635,8 @@
       </c>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
-      <c r="O35" s="51" t="s">
-        <v>61</v>
+      <c r="O35" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="26"/>
@@ -3681,13 +3699,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="16">
         <v>45054.301666666674</v>
@@ -3714,105 +3732,107 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="25">
+    <row r="37" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="30">
         <v>45054.415324074071</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="30">
         <v>45054.417407407411</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="14"/>
-      <c r="AR37" s="14"/>
-      <c r="AS37" s="14"/>
-      <c r="AT37" s="14"/>
-      <c r="AU37" s="14"/>
-      <c r="AV37" s="14"/>
-      <c r="AW37" s="14"/>
-      <c r="AX37" s="14"/>
-      <c r="AY37" s="14"/>
-      <c r="AZ37" s="14"/>
-      <c r="BA37" s="14"/>
-      <c r="BB37" s="14"/>
-      <c r="BC37" s="14"/>
-      <c r="BD37" s="14"/>
-      <c r="BE37" s="14"/>
-      <c r="BF37" s="14"/>
-      <c r="BG37" s="14"/>
-      <c r="BH37" s="14"/>
-      <c r="BI37" s="14"/>
-      <c r="BJ37" s="14"/>
-      <c r="BK37" s="14"/>
-      <c r="BL37" s="14"/>
-      <c r="BM37" s="14"/>
-      <c r="BN37" s="14"/>
-      <c r="BO37" s="14"/>
-      <c r="BP37" s="14"/>
-      <c r="BQ37" s="14"/>
-      <c r="BR37" s="14"/>
+      <c r="G37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="26"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="26"/>
+      <c r="BA37" s="26"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="26"/>
+      <c r="BE37" s="26"/>
+      <c r="BF37" s="26"/>
+      <c r="BG37" s="26"/>
+      <c r="BH37" s="26"/>
+      <c r="BI37" s="26"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="26"/>
+      <c r="BL37" s="26"/>
+      <c r="BM37" s="26"/>
+      <c r="BN37" s="26"/>
+      <c r="BO37" s="26"/>
+      <c r="BP37" s="26"/>
+      <c r="BQ37" s="26"/>
+      <c r="BR37" s="26"/>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38" s="16">
         <v>45054.290162037039</v>
@@ -3841,7 +3861,7 @@
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E39" s="16">
         <v>45054.415335648147</v>
@@ -3870,7 +3890,7 @@
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E40" s="16">
         <v>45055.170219907413</v>
@@ -3899,7 +3919,7 @@
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B41" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E41" s="16">
         <v>45055.351006944453</v>
@@ -3928,7 +3948,7 @@
     </row>
     <row r="42" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B42" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E42" s="25">
         <v>45055.378020833326</v>
@@ -4015,16 +4035,16 @@
     </row>
     <row r="43" spans="1:70" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E43" s="40">
         <v>45128.184965277767</v>
@@ -4051,13 +4071,13 @@
         <v>7</v>
       </c>
       <c r="M43" s="43" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="N43" s="43" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P43" s="28"/>
       <c r="Q43" s="26"/>
@@ -4117,10 +4137,10 @@
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>21</v>
@@ -4155,7 +4175,7 @@
     </row>
     <row r="45" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B45" s="26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E45" s="27">
         <v>45119.310439814813</v>
@@ -4184,13 +4204,13 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P45" s="28"/>
     </row>
     <row r="46" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B46" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E46" s="25">
         <v>45119.398460648154</v>
@@ -4277,10 +4297,10 @@
     </row>
     <row r="47" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>21</v>
@@ -4313,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -4375,10 +4395,10 @@
     </row>
     <row r="48" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>21</v>
@@ -4411,15 +4431,15 @@
         <v>7</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="29" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="E49" s="30">
         <v>45123.17931712963</v>
@@ -4448,7 +4468,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P49" s="28"/>
       <c r="Q49" s="26"/>
@@ -4508,16 +4528,16 @@
     </row>
     <row r="50" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E50" s="12">
         <v>45143.215335648143</v>
@@ -4604,10 +4624,10 @@
     </row>
     <row r="51" spans="1:70" s="44" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>21</v>
@@ -4642,7 +4662,7 @@
       <c r="M51" s="47"/>
       <c r="N51" s="47"/>
       <c r="O51" s="47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P51" s="28"/>
       <c r="Q51" s="26"/>
@@ -4702,16 +4722,16 @@
     </row>
     <row r="52" spans="1:70" s="26" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A52" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E52" s="27">
         <v>42612.580873842591</v>
@@ -4720,33 +4740,33 @@
         <v>42612.603443287036</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P52" s="28"/>
     </row>
     <row r="53" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B53" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E53" s="27">
         <v>42614.355943287039</v>
@@ -4755,22 +4775,22 @@
         <v>42614.377528935191</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
@@ -4779,7 +4799,7 @@
     </row>
     <row r="54" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B54" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E54" s="27">
         <v>42615.103859953699</v>
@@ -4788,22 +4808,22 @@
         <v>42615.120468749999</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
@@ -4812,7 +4832,7 @@
     </row>
     <row r="55" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B55" s="26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E55" s="27">
         <v>42616.176603009248</v>
@@ -4821,22 +4841,22 @@
         <v>42616.210109953703</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -4845,7 +4865,7 @@
     </row>
     <row r="56" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B56" s="26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E56" s="27">
         <v>42616.414797453697</v>
@@ -4854,22 +4874,22 @@
         <v>42616.434068287039</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
@@ -4878,7 +4898,7 @@
     </row>
     <row r="57" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B57" s="26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E57" s="27">
         <v>42618.576927083333</v>
@@ -4887,22 +4907,22 @@
         <v>42618.598454861123</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -4911,7 +4931,7 @@
     </row>
     <row r="58" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B58" s="29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E58" s="30">
         <v>42623.506336805563</v>
@@ -4920,22 +4940,22 @@
         <v>42623.522656250003</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -4998,10 +5018,10 @@
     </row>
     <row r="59" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>21</v>
@@ -5031,20 +5051,18 @@
         <v>7</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="N59" s="8"/>
       <c r="O59" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P59" s="28"/>
     </row>
     <row r="60" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B60" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E60" s="27">
         <v>42616.558420138877</v>
@@ -5068,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -5077,7 +5095,7 @@
     </row>
     <row r="61" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B61" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E61" s="27">
         <v>42617.194646990742</v>
@@ -5101,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -5110,7 +5128,7 @@
     </row>
     <row r="62" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B62" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E62" s="27">
         <v>42618.178038194441</v>
@@ -5134,7 +5152,7 @@
         <v>7</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -5143,7 +5161,7 @@
     </row>
     <row r="63" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B63" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E63" s="30">
         <v>42618.300086805553</v>
@@ -5167,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -5230,10 +5248,10 @@
     </row>
     <row r="64" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>21</v>
@@ -5266,13 +5284,13 @@
         <v>7</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B65" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E65" s="27">
         <v>42612.474091435193</v>
@@ -5299,17 +5317,17 @@
         <v>7</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P65" s="28"/>
     </row>
     <row r="66" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B66" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E66" s="16">
         <v>42617.710376157411</v>
@@ -5336,12 +5354,12 @@
         <v>7</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:70" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:70" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B67" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E67" s="25">
         <v>42618.696718749998</v>
@@ -5368,10 +5386,10 @@
         <v>7</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="13"/>
@@ -5432,16 +5450,16 @@
     </row>
     <row r="68" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68" s="27">
         <v>42610.535399305547</v>
@@ -5450,33 +5468,33 @@
         <v>42610.555225694443</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P68" s="28"/>
     </row>
     <row r="69" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="26" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E69" s="27">
         <v>42612.31131365741</v>
@@ -5485,22 +5503,22 @@
         <v>42612.336788194443</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -5509,7 +5527,7 @@
     </row>
     <row r="70" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B70" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E70" s="27">
         <v>42612.969021990742</v>
@@ -5518,22 +5536,22 @@
         <v>42612.983778935188</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
@@ -5542,7 +5560,7 @@
     </row>
     <row r="71" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B71" s="26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E71" s="27">
         <v>42616.257019675933</v>
@@ -5551,22 +5569,22 @@
         <v>42616.291394675922</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -5575,7 +5593,7 @@
     </row>
     <row r="72" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B72" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E72" s="27">
         <v>42621.241869212958</v>
@@ -5584,22 +5602,22 @@
         <v>42621.275318287036</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
@@ -5608,7 +5626,7 @@
     </row>
     <row r="73" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B73" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E73" s="27">
         <v>42623.419010416663</v>
@@ -5617,22 +5635,22 @@
         <v>42623.431278935182</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -5641,7 +5659,7 @@
     </row>
     <row r="74" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B74" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E74" s="27">
         <v>42624.161082175917</v>
@@ -5650,22 +5668,22 @@
         <v>42624.177401620371</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -5674,7 +5692,7 @@
     </row>
     <row r="75" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B75" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E75" s="27">
         <v>42626.26449652778</v>
@@ -5683,22 +5701,22 @@
         <v>42626.29942708333</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -5707,7 +5725,7 @@
     </row>
     <row r="76" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B76" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E76" s="27">
         <v>42626.344184027781</v>
@@ -5716,22 +5734,22 @@
         <v>42626.386487268523</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -5740,7 +5758,7 @@
     </row>
     <row r="77" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B77" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E77" s="30">
         <v>42627.304484953696</v>
@@ -5749,22 +5767,22 @@
         <v>42627.315017361107</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
@@ -5827,10 +5845,10 @@
     </row>
     <row r="78" spans="1:70" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>21</v>
@@ -5863,12 +5881,12 @@
         <v>7</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:70" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E79" s="34">
         <v>42627.17509837963</v>
@@ -5895,7 +5913,7 @@
         <v>7</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="N79" s="19"/>
       <c r="O79" s="19"/>
@@ -5957,10 +5975,10 @@
     </row>
     <row r="80" spans="1:70" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>21</v>
@@ -5990,12 +6008,12 @@
         <v>7</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B81" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E81" s="16">
         <v>43358.450086805547</v>
@@ -6021,7 +6039,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B82" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E82" s="16">
         <v>43358.464033564807</v>
@@ -6047,7 +6065,7 @@
     </row>
     <row r="83" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B83" s="24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E83" s="25">
         <v>43358.477864583328</v>
@@ -6071,7 +6089,7 @@
         <v>7</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -6079,10 +6097,10 @@
     </row>
     <row r="84" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>21</v>
@@ -6112,15 +6130,15 @@
         <v>7</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N84" s="50" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B85" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E85" s="16">
         <v>43338.207309027777</v>
@@ -6144,12 +6162,12 @@
         <v>7</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B86" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E86" s="16">
         <v>43339.263501157402</v>
@@ -6173,15 +6191,15 @@
         <v>7</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B87" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E87" s="16">
         <v>43339.277042824076</v>
@@ -6205,12 +6223,12 @@
         <v>7</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B88" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E88" s="16">
         <v>43339.290700231482</v>
@@ -6234,12 +6252,12 @@
         <v>7</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B89" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E89" s="16">
         <v>43339.304589120373</v>
@@ -6263,12 +6281,15 @@
         <v>7</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B90" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E90" s="16">
         <v>43339.734913194443</v>
@@ -6292,15 +6313,15 @@
         <v>7</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B91" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E91" s="16">
         <v>43339.749149305557</v>
@@ -6324,15 +6345,15 @@
         <v>7</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B92" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E92" s="16">
         <v>43344.179531250003</v>
@@ -6356,12 +6377,12 @@
         <v>7</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B93" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E93" s="16">
         <v>43344.193420138887</v>
@@ -6387,7 +6408,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B94" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E94" s="16">
         <v>43345.248917824079</v>
@@ -6411,12 +6432,12 @@
         <v>7</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B95" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E95" s="16">
         <v>43345.262748842593</v>
@@ -6440,12 +6461,12 @@
         <v>7</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B96" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E96" s="16">
         <v>43345.2769849537</v>
@@ -6469,15 +6490,15 @@
         <v>7</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B97" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E97" s="16">
         <v>43345.457366898147</v>
@@ -6501,15 +6522,15 @@
         <v>7</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B98" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E98" s="16">
         <v>43346.276753472222</v>
@@ -6533,12 +6554,12 @@
         <v>7</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B99" s="14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E99" s="16">
         <v>43347.457482638893</v>
@@ -6562,15 +6583,15 @@
         <v>7</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B100" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E100" s="16">
         <v>43348.318304398148</v>
@@ -6594,15 +6615,15 @@
         <v>7</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B101" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E101" s="16">
         <v>43348.332193287039</v>
@@ -6626,15 +6647,15 @@
         <v>7</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B102" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E102" s="16">
         <v>43349.151695601853</v>
@@ -6658,15 +6679,15 @@
         <v>7</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B103" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E103" s="16">
         <v>43349.458234953709</v>
@@ -6690,15 +6711,15 @@
         <v>7</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B104" s="14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E104" s="16">
         <v>43349.471487268507</v>
@@ -6722,15 +6743,15 @@
         <v>7</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B105" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E105" s="16">
         <v>43351.24909143518</v>
@@ -6754,12 +6775,12 @@
         <v>7</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B106" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E106" s="16">
         <v>43353.151637731477</v>
@@ -6783,15 +6804,15 @@
         <v>7</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B107" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E107" s="16">
         <v>43357.471313657406</v>
@@ -6817,7 +6838,7 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B108" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E108" s="16">
         <v>43358.318188657402</v>
@@ -6843,7 +6864,7 @@
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B109" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E109" s="16">
         <v>43359.318651620371</v>
@@ -6869,7 +6890,7 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B110" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E110" s="16">
         <v>43363.818651620371</v>
@@ -6893,15 +6914,15 @@
         <v>7</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B111" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E111" s="16">
         <v>43367.123802083333</v>
@@ -6925,12 +6946,12 @@
         <v>7</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B112" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E112" s="16">
         <v>43367.138211805563</v>
@@ -6956,7 +6977,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B113" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E113" s="16">
         <v>43367.151695601853</v>
@@ -6980,15 +7001,15 @@
         <v>7</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B114" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E114" s="16">
         <v>43368.346197916668</v>
@@ -7012,12 +7033,12 @@
         <v>7</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B115" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E115" s="16">
         <v>43368.359971064812</v>
@@ -7041,12 +7062,12 @@
         <v>7</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B116" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E116" s="16">
         <v>43370.290642361113</v>
@@ -7070,12 +7091,15 @@
         <v>7</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B117" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E117" s="16">
         <v>43370.304704861112</v>
@@ -7099,112 +7123,112 @@
         <v>7</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="14" t="s">
-        <v>183</v>
+      <c r="B118" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="E118" s="27">
         <v>43370.373859953703</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L118" s="3" t="s">
+      <c r="G118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O118" s="8"/>
       <c r="P118" s="28"/>
     </row>
     <row r="119" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="14" t="s">
-        <v>184</v>
+      <c r="B119" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="E119" s="27">
         <v>43370.401753472222</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L119" s="3" t="s">
+      <c r="G119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="28"/>
     </row>
     <row r="120" spans="1:16" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B120" s="14" t="s">
-        <v>185</v>
+      <c r="B120" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="E120" s="27">
         <v>43370.41587384259</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L120" s="3" t="s">
+      <c r="G120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L120" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="N120" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="O120" s="8"/>
       <c r="P120" s="28"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B121" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E121" s="16">
         <v>43372.929473379627</v>
@@ -7228,15 +7252,15 @@
         <v>7</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B122" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E122" s="25">
         <v>43372.943709490741</v>
@@ -7260,20 +7284,20 @@
         <v>7</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O122" s="5"/>
       <c r="P122" s="35"/>
     </row>
     <row r="123" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>21</v>
@@ -7303,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7311,10 +7335,10 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>21</v>
@@ -7346,7 +7370,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B125" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E125" s="16">
         <v>43369.192193287032</v>
@@ -7372,7 +7396,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B126" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E126" s="16">
         <v>43369.219971064813</v>
@@ -7396,12 +7420,12 @@
         <v>7</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B127" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E127" s="16">
         <v>43369.733802083327</v>
@@ -7425,12 +7449,12 @@
         <v>7</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B128" s="33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E128" s="34">
         <v>43370.192251157408</v>
@@ -7454,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="M128" s="19" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="N128" s="19"/>
       <c r="O128" s="19"/>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1359" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7E2F08-4750-48E7-94B8-98D9AB685A00}"/>
+  <xr:revisionPtr revIDLastSave="1545" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FCC773-4E3E-4777-B95C-CE6F1E784F01}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="1650" windowWidth="10057" windowHeight="9967" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall Progress" sheetId="1" r:id="rId1"/>
+    <sheet name="Click Cleaning Progress" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="263">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -804,6 +805,27 @@
   </si>
   <si>
     <t>ADRIFT_083_002</t>
+  </si>
+  <si>
+    <t>Cleaning Status</t>
+  </si>
+  <si>
+    <t>Needs Cleaning</t>
+  </si>
+  <si>
+    <t>No Cleaning Needed</t>
+  </si>
+  <si>
+    <t>Cleaning: Needed or Not</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Not Clean</t>
+  </si>
+  <si>
+    <t>Possible Mixed-Species encounter - do not clean yet</t>
   </si>
 </sst>
 </file>
@@ -878,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1012,11 +1034,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1183,6 +1229,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="65" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView zoomScale="70" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3140,7 +3209,7 @@
       <c r="BR24" s="26"/>
     </row>
     <row r="25" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -3428,7 +3497,7 @@
       <c r="BR31" s="14"/>
     </row>
     <row r="32" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="26" t="s">
@@ -7490,4 +7559,402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DDFDEA-2838-4C23-95EB-05B925C7BB88}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.06640625" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="48" s="64" customFormat="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1545" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97FCC773-4E3E-4777-B95C-CE6F1E784F01}"/>
+  <xr:revisionPtr revIDLastSave="1683" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BB6CC1-ADE9-4A6B-ADCC-368DD2242D38}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Click Cleaning Progress" sheetId="2" r:id="rId2"/>
+    <sheet name="Usable Events &amp; Click Cleaning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="269">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -826,6 +826,24 @@
   </si>
   <si>
     <t>Possible Mixed-Species encounter - do not clean yet</t>
+  </si>
+  <si>
+    <t>Not using this drift - Not enough clicks</t>
+  </si>
+  <si>
+    <t>Not using this drift - Not worth the time to clean</t>
+  </si>
+  <si>
+    <t>Come back to this later</t>
+  </si>
+  <si>
+    <t>Possible Mixed-Species encounter</t>
+  </si>
+  <si>
+    <t>Possible Mixed-Species encounter - has been cleaned (see spectrogram)</t>
+  </si>
+  <si>
+    <t>Cleaned - waiting on R to confirm</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1239,11 +1257,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1252,6 +1266,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="A67" zoomScale="82" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3832,7 +3850,7 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="50" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="P37" s="28"/>
       <c r="Q37" s="26"/>
@@ -6234,37 +6252,39 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B86" s="14" t="s">
+    <row r="86" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="27">
         <v>43339.263501157402</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M86" s="2" t="s">
+      <c r="G86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="N86" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P86" s="28"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B87" s="14" t="s">
@@ -6324,37 +6344,39 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B89" s="14" t="s">
+    <row r="89" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="27">
         <v>43339.304589120373</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M89" s="2" t="s">
+      <c r="G89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B90" s="14" t="s">
@@ -6388,37 +6410,41 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B91" s="14" t="s">
+    <row r="91" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="27">
         <v>43339.749149305557</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M91" s="2" t="s">
+      <c r="G91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="N91" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="O91" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P91" s="28"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B92" s="14" t="s">
@@ -6533,39 +6559,40 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B96" s="14" t="s">
+    <row r="96" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="27">
         <v>43345.2769849537</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M96" s="2" t="s">
+      <c r="G96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M96" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="N96" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O96" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P96" s="28"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B97" s="14" t="s">
         <v>156</v>
       </c>
@@ -6597,12 +6624,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B98" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E98" s="16">
-        <v>43346.276753472222</v>
+        <v>43346.276759259257</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>7</v>
@@ -6626,199 +6653,219 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B99" s="14" t="s">
+    <row r="99" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="27">
         <v>43347.457482638893</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M99" s="2" t="s">
+      <c r="G99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="N99" s="8"/>
+      <c r="O99" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="P99" s="28"/>
+    </row>
+    <row r="100" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="27">
+        <v>43348.318304398148</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="P100" s="28"/>
+    </row>
+    <row r="101" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E101" s="27">
+        <v>43348.332193287039</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P101" s="28"/>
+    </row>
+    <row r="102" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E102" s="27">
+        <v>43349.151695601853</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N102" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="O102" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P102" s="28"/>
+    </row>
+    <row r="103" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="27">
+        <v>43349.458234953709</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N103" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B100" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E100" s="16">
-        <v>43348.318304398148</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N100" s="2" t="s">
+      <c r="O103" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P103" s="28"/>
+    </row>
+    <row r="104" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="27">
+        <v>43349.471487268507</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N104" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B101" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E101" s="16">
-        <v>43348.332193287039</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B102" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E102" s="16">
-        <v>43349.151695601853</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B103" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E103" s="16">
-        <v>43349.458234953709</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B104" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E104" s="16">
-        <v>43349.471487268507</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O104" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P104" s="28"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B105" s="14" t="s">
         <v>164</v>
       </c>
@@ -6847,39 +6894,43 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B106" s="14" t="s">
+    <row r="106" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="27">
         <v>43353.151637731477</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M106" s="2" t="s">
+      <c r="G106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M106" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="N106" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O106" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P106" s="28"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B107" s="14" t="s">
         <v>166</v>
       </c>
@@ -6905,7 +6956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B108" s="14" t="s">
         <v>167</v>
       </c>
@@ -6931,7 +6982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B109" s="14" t="s">
         <v>168</v>
       </c>
@@ -6957,7 +7008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B110" s="14" t="s">
         <v>169</v>
       </c>
@@ -6989,7 +7040,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B111" s="14" t="s">
         <v>170</v>
       </c>
@@ -7018,7 +7069,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B112" s="14" t="s">
         <v>171</v>
       </c>
@@ -7563,21 +7614,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DDFDEA-2838-4C23-95EB-05B925C7BB88}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.06640625" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -7591,21 +7642,21 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="14" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>63</v>
@@ -7617,7 +7668,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -7631,7 +7682,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -7645,7 +7696,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -7659,132 +7710,147 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="67" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>257</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>257</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>257</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" t="s">
         <v>257</v>
       </c>
       <c r="D11" s="57" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24" t="s">
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="71" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="51" t="s">
+      <c r="E12" s="68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="69" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" t="s">
         <v>258</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" t="s">
         <v>257</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>258</v>
       </c>
       <c r="D16" s="58" t="s">
@@ -7792,17 +7858,20 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>257</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>261</v>
+      </c>
+      <c r="E17" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -7812,7 +7881,7 @@
       <c r="B18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>258</v>
       </c>
       <c r="D18" s="61" t="s">
@@ -7826,7 +7895,7 @@
       <c r="B19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" t="s">
         <v>258</v>
       </c>
       <c r="D19" s="57" t="s">
@@ -7838,7 +7907,7 @@
       <c r="B20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" t="s">
         <v>258</v>
       </c>
       <c r="D20" s="57" t="s">
@@ -7850,7 +7919,7 @@
       <c r="B21" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" t="s">
         <v>258</v>
       </c>
       <c r="D21" s="57" t="s">
@@ -7862,7 +7931,7 @@
       <c r="B22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="57" t="s">
@@ -7874,7 +7943,7 @@
       <c r="B23" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="63" t="s">
         <v>258</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -7888,23 +7957,26 @@
       <c r="B24" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" t="s">
         <v>258</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24" t="s">
+    <row r="25" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="71" t="s">
         <v>260</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -7914,27 +7986,30 @@
       <c r="B26" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="68" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7948,13 +8023,277 @@
       <c r="C28" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="65" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="48" s="64" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="26"/>
+      <c r="B35" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="26"/>
+      <c r="B38" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="26"/>
+      <c r="B40" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="26"/>
+      <c r="B45" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="26"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="26"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="26"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="26"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="14"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="14"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1683" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BB6CC1-ADE9-4A6B-ADCC-368DD2242D38}"/>
+  <xr:revisionPtr revIDLastSave="1882" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763EA40C-9823-473B-BE4A-5D47A8B6D1FA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="269">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -837,13 +837,13 @@
     <t>Come back to this later</t>
   </si>
   <si>
-    <t>Possible Mixed-Species encounter</t>
-  </si>
-  <si>
-    <t>Possible Mixed-Species encounter - has been cleaned (see spectrogram)</t>
-  </si>
-  <si>
-    <t>Cleaned - waiting on R to confirm</t>
+    <t>Not using this drift - Multi-species detection</t>
+  </si>
+  <si>
+    <t>Not using this dift - Multi-species detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1266,10 +1266,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,13 +1628,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="82" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView topLeftCell="A49" zoomScale="57" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.46484375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" style="14" customWidth="1"/>
     <col min="3" max="3" width="19.06640625" style="14" customWidth="1"/>
     <col min="4" max="4" width="29.19921875" style="14" customWidth="1"/>
     <col min="5" max="5" width="23" style="14" customWidth="1"/>
@@ -1631,7 +1650,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="23" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -1679,7 +1698,7 @@
       <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:70" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1717,6 +1736,7 @@
       </c>
     </row>
     <row r="3" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="74"/>
       <c r="B3" s="24" t="s">
         <v>63</v>
       </c>
@@ -1804,7 +1824,7 @@
       <c r="BR3" s="14"/>
     </row>
     <row r="4" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1902,7 +1922,7 @@
       <c r="BR4" s="14"/>
     </row>
     <row r="5" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1998,7 +2018,7 @@
       <c r="BR5" s="14"/>
     </row>
     <row r="6" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -2042,6 +2062,7 @@
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="51"/>
       <c r="B7" s="26" t="s">
         <v>69</v>
       </c>
@@ -2075,6 +2096,7 @@
       <c r="P7" s="28"/>
     </row>
     <row r="8" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="51"/>
       <c r="B8" s="26" t="s">
         <v>70</v>
       </c>
@@ -2108,6 +2130,7 @@
       <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51"/>
       <c r="B9" s="26" t="s">
         <v>71</v>
       </c>
@@ -2141,6 +2164,7 @@
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="74"/>
       <c r="B10" s="29" t="s">
         <v>72</v>
       </c>
@@ -2228,7 +2252,7 @@
       <c r="BR10" s="26"/>
     </row>
     <row r="11" spans="1:70" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2272,6 +2296,7 @@
       </c>
     </row>
     <row r="12" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="74"/>
       <c r="B12" s="29" t="s">
         <v>74</v>
       </c>
@@ -2360,104 +2385,106 @@
       <c r="BQ12" s="26"/>
       <c r="BR12" s="26"/>
     </row>
-    <row r="13" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="40">
         <v>44818.156134259261</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="40">
         <v>44818.174768518518</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14"/>
-      <c r="BK13" s="14"/>
-      <c r="BL13" s="14"/>
-      <c r="BM13" s="14"/>
-      <c r="BN13" s="14"/>
-      <c r="BO13" s="14"/>
-      <c r="BP13" s="14"/>
-      <c r="BQ13" s="14"/>
-      <c r="BR13" s="14"/>
+      <c r="G13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="26"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="26"/>
+      <c r="BQ13" s="26"/>
+      <c r="BR13" s="26"/>
     </row>
     <row r="14" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2553,7 +2580,7 @@
       <c r="BR14" s="14"/>
     </row>
     <row r="15" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="64" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -2653,7 +2680,7 @@
       <c r="BR15" s="26"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -2694,6 +2721,7 @@
       </c>
     </row>
     <row r="17" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="74"/>
       <c r="B17" s="29" t="s">
         <v>79</v>
       </c>
@@ -2785,7 +2813,7 @@
       <c r="BR17" s="26"/>
     </row>
     <row r="18" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="39" t="s">
@@ -2883,7 +2911,7 @@
       <c r="BR18" s="26"/>
     </row>
     <row r="19" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2979,7 +3007,7 @@
       <c r="BR19" s="14"/>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -3026,6 +3054,7 @@
       </c>
     </row>
     <row r="21" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="51"/>
       <c r="B21" s="26" t="s">
         <v>83</v>
       </c>
@@ -3065,6 +3094,7 @@
       <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="51"/>
       <c r="B22" s="26" t="s">
         <v>84</v>
       </c>
@@ -3100,42 +3130,48 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="51"/>
+      <c r="B23" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="27">
         <v>45002.429236111107</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="27">
         <v>45002.440057870372</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="G23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="O23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="74"/>
       <c r="B24" s="29" t="s">
         <v>86</v>
       </c>
@@ -3273,6 +3309,7 @@
       <c r="P25" s="28"/>
     </row>
     <row r="26" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="51"/>
       <c r="B26" s="26" t="s">
         <v>89</v>
       </c>
@@ -3307,6 +3344,7 @@
       </c>
     </row>
     <row r="27" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="51"/>
       <c r="B27" s="26" t="s">
         <v>88</v>
       </c>
@@ -3340,34 +3378,39 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="51"/>
+      <c r="B28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="27">
         <v>45002.342222222222</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="27">
         <v>45002.472083333327</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.45">
       <c r="B29" s="14" t="s">
@@ -3428,6 +3471,7 @@
       </c>
     </row>
     <row r="31" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="74"/>
       <c r="B31" s="24" t="s">
         <v>253</v>
       </c>
@@ -3593,6 +3637,7 @@
       <c r="P33" s="55"/>
     </row>
     <row r="34" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="74"/>
       <c r="B34" s="29" t="s">
         <v>95</v>
       </c>
@@ -3684,7 +3729,7 @@
       <c r="BR34" s="26"/>
     </row>
     <row r="35" spans="1:70" s="39" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="39" t="s">
@@ -3782,7 +3827,7 @@
       <c r="BR35" s="26"/>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -3820,6 +3865,7 @@
       </c>
     </row>
     <row r="37" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="74"/>
       <c r="B37" s="29" t="s">
         <v>98</v>
       </c>
@@ -3909,7 +3955,7 @@
       <c r="BR37" s="26"/>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -4034,6 +4080,7 @@
       </c>
     </row>
     <row r="42" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="74"/>
       <c r="B42" s="24" t="s">
         <v>103</v>
       </c>
@@ -4121,7 +4168,7 @@
       <c r="BR42" s="14"/>
     </row>
     <row r="43" spans="1:70" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="64" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="39" t="s">
@@ -4223,7 +4270,7 @@
       <c r="BR43" s="26"/>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -4261,6 +4308,7 @@
       </c>
     </row>
     <row r="45" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="51"/>
       <c r="B45" s="26" t="s">
         <v>107</v>
       </c>
@@ -4295,95 +4343,96 @@
       </c>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="74"/>
+      <c r="B46" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="30">
         <v>45119.398460648154</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="30">
         <v>45119.429537037038</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="14"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14"/>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="14"/>
-      <c r="BC46" s="14"/>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14"/>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="14"/>
-      <c r="BJ46" s="14"/>
-      <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="14"/>
-      <c r="BN46" s="14"/>
-      <c r="BO46" s="14"/>
-      <c r="BP46" s="14"/>
-      <c r="BQ46" s="14"/>
-      <c r="BR46" s="14"/>
+      <c r="G46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="26"/>
+      <c r="AN46" s="26"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="26"/>
+      <c r="AR46" s="26"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="26"/>
+      <c r="AU46" s="26"/>
+      <c r="AV46" s="26"/>
+      <c r="AW46" s="26"/>
+      <c r="AX46" s="26"/>
+      <c r="AY46" s="26"/>
+      <c r="AZ46" s="26"/>
+      <c r="BA46" s="26"/>
+      <c r="BB46" s="26"/>
+      <c r="BC46" s="26"/>
+      <c r="BD46" s="26"/>
+      <c r="BE46" s="26"/>
+      <c r="BF46" s="26"/>
+      <c r="BG46" s="26"/>
+      <c r="BH46" s="26"/>
+      <c r="BI46" s="26"/>
+      <c r="BJ46" s="26"/>
+      <c r="BK46" s="26"/>
+      <c r="BL46" s="26"/>
+      <c r="BM46" s="26"/>
+      <c r="BN46" s="26"/>
+      <c r="BO46" s="26"/>
+      <c r="BP46" s="26"/>
+      <c r="BQ46" s="26"/>
+      <c r="BR46" s="26"/>
     </row>
     <row r="47" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -4481,7 +4530,7 @@
       <c r="BR47" s="14"/>
     </row>
     <row r="48" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -4525,6 +4574,7 @@
       </c>
     </row>
     <row r="49" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="74"/>
       <c r="B49" s="29" t="s">
         <v>255</v>
       </c>
@@ -4614,7 +4664,7 @@
       <c r="BR49" s="26"/>
     </row>
     <row r="50" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -4710,7 +4760,7 @@
       <c r="BR50" s="14"/>
     </row>
     <row r="51" spans="1:70" s="44" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="44" t="s">
@@ -4808,7 +4858,7 @@
       <c r="BR51" s="26"/>
     </row>
     <row r="52" spans="1:70" s="26" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="51" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="26" t="s">
@@ -4852,6 +4902,7 @@
       <c r="P52" s="28"/>
     </row>
     <row r="53" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="51"/>
       <c r="B53" s="26" t="s">
         <v>114</v>
       </c>
@@ -4885,6 +4936,7 @@
       <c r="P53" s="28"/>
     </row>
     <row r="54" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="51"/>
       <c r="B54" s="26" t="s">
         <v>115</v>
       </c>
@@ -4918,6 +4970,7 @@
       <c r="P54" s="28"/>
     </row>
     <row r="55" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="51"/>
       <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
@@ -4951,6 +5004,7 @@
       <c r="P55" s="28"/>
     </row>
     <row r="56" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="51"/>
       <c r="B56" s="26" t="s">
         <v>117</v>
       </c>
@@ -4984,6 +5038,7 @@
       <c r="P56" s="28"/>
     </row>
     <row r="57" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="51"/>
       <c r="B57" s="26" t="s">
         <v>66</v>
       </c>
@@ -5017,6 +5072,7 @@
       <c r="P57" s="28"/>
     </row>
     <row r="58" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="74"/>
       <c r="B58" s="29" t="s">
         <v>118</v>
       </c>
@@ -5104,7 +5160,7 @@
       <c r="BR58" s="26"/>
     </row>
     <row r="59" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="26" t="s">
@@ -5148,6 +5204,7 @@
       <c r="P59" s="28"/>
     </row>
     <row r="60" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="51"/>
       <c r="B60" s="26" t="s">
         <v>120</v>
       </c>
@@ -5181,6 +5238,7 @@
       <c r="P60" s="28"/>
     </row>
     <row r="61" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="51"/>
       <c r="B61" s="26" t="s">
         <v>121</v>
       </c>
@@ -5214,6 +5272,7 @@
       <c r="P61" s="28"/>
     </row>
     <row r="62" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="51"/>
       <c r="B62" s="26" t="s">
         <v>122</v>
       </c>
@@ -5247,6 +5306,7 @@
       <c r="P62" s="28"/>
     </row>
     <row r="63" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="74"/>
       <c r="B63" s="29" t="s">
         <v>123</v>
       </c>
@@ -5333,49 +5393,54 @@
       <c r="BQ63" s="26"/>
       <c r="BR63" s="26"/>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A64" s="14" t="s">
+    <row r="64" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="27">
         <v>42612.348975694447</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="27">
         <v>42612.370908564822</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M64" s="2" t="s">
+      <c r="G64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="N64" s="15"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" s="28"/>
     </row>
     <row r="65" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="51"/>
       <c r="B65" s="26" t="s">
         <v>125</v>
       </c>
@@ -5445,6 +5510,7 @@
       </c>
     </row>
     <row r="67" spans="1:70" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="74"/>
       <c r="B67" s="24" t="s">
         <v>127</v>
       </c>
@@ -5536,7 +5602,7 @@
       <c r="BR67" s="14"/>
     </row>
     <row r="68" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="51" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="26" t="s">
@@ -5580,6 +5646,7 @@
       <c r="P68" s="28"/>
     </row>
     <row r="69" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="51"/>
       <c r="B69" s="26" t="s">
         <v>129</v>
       </c>
@@ -5613,6 +5680,7 @@
       <c r="P69" s="28"/>
     </row>
     <row r="70" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="51"/>
       <c r="B70" s="26" t="s">
         <v>130</v>
       </c>
@@ -5646,6 +5714,7 @@
       <c r="P70" s="28"/>
     </row>
     <row r="71" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="51"/>
       <c r="B71" s="26" t="s">
         <v>131</v>
       </c>
@@ -5679,6 +5748,7 @@
       <c r="P71" s="28"/>
     </row>
     <row r="72" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="51"/>
       <c r="B72" s="26" t="s">
         <v>132</v>
       </c>
@@ -5712,6 +5782,7 @@
       <c r="P72" s="28"/>
     </row>
     <row r="73" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="51"/>
       <c r="B73" s="26" t="s">
         <v>133</v>
       </c>
@@ -5745,6 +5816,7 @@
       <c r="P73" s="28"/>
     </row>
     <row r="74" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="51"/>
       <c r="B74" s="26" t="s">
         <v>134</v>
       </c>
@@ -5778,6 +5850,7 @@
       <c r="P74" s="28"/>
     </row>
     <row r="75" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="51"/>
       <c r="B75" s="26" t="s">
         <v>135</v>
       </c>
@@ -5811,6 +5884,7 @@
       <c r="P75" s="28"/>
     </row>
     <row r="76" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="51"/>
       <c r="B76" s="26" t="s">
         <v>136</v>
       </c>
@@ -5844,6 +5918,7 @@
       <c r="P76" s="28"/>
     </row>
     <row r="77" spans="1:70" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="74"/>
       <c r="B77" s="29" t="s">
         <v>137</v>
       </c>
@@ -5930,48 +6005,54 @@
       <c r="BQ77" s="26"/>
       <c r="BR77" s="26"/>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:70" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="27">
         <v>42612.397146990741</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="27">
         <v>42612.39830439815</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="G78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="P78" s="28"/>
     </row>
     <row r="79" spans="1:70" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="76"/>
       <c r="B79" s="33" t="s">
         <v>139</v>
       </c>
@@ -6061,7 +6142,7 @@
       <c r="BR79" s="14"/>
     </row>
     <row r="80" spans="1:70" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -6151,6 +6232,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="74"/>
       <c r="B83" s="24" t="s">
         <v>143</v>
       </c>
@@ -6183,7 +6265,7 @@
       <c r="P83" s="35"/>
     </row>
     <row r="84" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="51" t="s">
         <v>41</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -6253,6 +6335,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="51"/>
       <c r="B86" s="26" t="s">
         <v>146</v>
       </c>
@@ -6345,6 +6428,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="51"/>
       <c r="B89" s="26" t="s">
         <v>149</v>
       </c>
@@ -6411,6 +6495,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="51"/>
       <c r="B91" s="26" t="s">
         <v>67</v>
       </c>
@@ -6560,6 +6645,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="51"/>
       <c r="B96" s="26" t="s">
         <v>155</v>
       </c>
@@ -6592,7 +6678,7 @@
       </c>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B97" s="14" t="s">
         <v>156</v>
       </c>
@@ -6624,36 +6710,43 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B98" s="14" t="s">
+    <row r="98" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="51"/>
+      <c r="B98" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="27">
         <v>43346.276759259257</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M98" s="2" t="s">
+      <c r="G98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="99" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N98" s="8"/>
+      <c r="O98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P98" s="28"/>
+    </row>
+    <row r="99" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="51"/>
       <c r="B99" s="26" t="s">
         <v>158</v>
       </c>
@@ -6687,7 +6780,8 @@
       </c>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="51"/>
       <c r="B100" s="26" t="s">
         <v>159</v>
       </c>
@@ -6721,7 +6815,8 @@
       </c>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="51"/>
       <c r="B101" s="26" t="s">
         <v>160</v>
       </c>
@@ -6757,7 +6852,8 @@
       </c>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="51"/>
       <c r="B102" s="26" t="s">
         <v>161</v>
       </c>
@@ -6793,7 +6889,8 @@
       </c>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="51"/>
       <c r="B103" s="26" t="s">
         <v>162</v>
       </c>
@@ -6829,7 +6926,8 @@
       </c>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="51"/>
       <c r="B104" s="26" t="s">
         <v>163</v>
       </c>
@@ -6865,7 +6963,7 @@
       </c>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B105" s="14" t="s">
         <v>164</v>
       </c>
@@ -6894,7 +6992,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="51"/>
       <c r="B106" s="26" t="s">
         <v>165</v>
       </c>
@@ -6930,7 +7029,7 @@
       </c>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B107" s="14" t="s">
         <v>166</v>
       </c>
@@ -6956,7 +7055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B108" s="14" t="s">
         <v>167</v>
       </c>
@@ -6982,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B109" s="14" t="s">
         <v>168</v>
       </c>
@@ -7008,39 +7107,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B110" s="14" t="s">
+    <row r="110" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="51"/>
+      <c r="B110" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="27">
         <v>43363.818651620371</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M110" s="2" t="s">
+      <c r="G110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="N110" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="O110" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P110" s="28"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B111" s="14" t="s">
         <v>170</v>
       </c>
@@ -7069,7 +7173,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B112" s="14" t="s">
         <v>171</v>
       </c>
@@ -7095,37 +7199,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B113" s="14" t="s">
+    <row r="113" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="51"/>
+      <c r="B113" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="27">
         <v>43367.151695601853</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M113" s="2" t="s">
+      <c r="G113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="N113" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="O113" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P113" s="28"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B114" s="14" t="s">
@@ -7247,6 +7356,7 @@
       </c>
     </row>
     <row r="118" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="51"/>
       <c r="B118" s="26" t="s">
         <v>177</v>
       </c>
@@ -7277,10 +7387,13 @@
       <c r="N118" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O118" s="8"/>
+      <c r="O118" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="P118" s="28"/>
     </row>
     <row r="119" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="51"/>
       <c r="B119" s="26" t="s">
         <v>178</v>
       </c>
@@ -7309,10 +7422,13 @@
         <v>241</v>
       </c>
       <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
+      <c r="O119" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="P119" s="28"/>
     </row>
     <row r="120" spans="1:16" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A120" s="51"/>
       <c r="B120" s="26" t="s">
         <v>179</v>
       </c>
@@ -7343,7 +7459,9 @@
       <c r="N120" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="O120" s="8"/>
+      <c r="O120" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="P120" s="28"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.45">
@@ -7379,6 +7497,7 @@
       </c>
     </row>
     <row r="122" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="74"/>
       <c r="B122" s="14" t="s">
         <v>181</v>
       </c>
@@ -7413,7 +7532,7 @@
       <c r="P122" s="35"/>
     </row>
     <row r="123" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -7454,7 +7573,7 @@
       <c r="P123" s="36"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B124" s="14" t="s">
@@ -7573,6 +7692,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A128" s="76"/>
       <c r="B128" s="33" t="s">
         <v>187</v>
       </c>
@@ -7614,10 +7734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DDFDEA-2838-4C23-95EB-05B925C7BB88}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7711,28 +7831,26 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="66" t="s">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="68" t="s">
-        <v>267</v>
-      </c>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>76</v>
+      <c r="A8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>257</v>
@@ -7742,13 +7860,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="62" t="s">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>257</v>
       </c>
       <c r="D9" s="61" t="s">
@@ -7757,143 +7875,130 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>257</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D12" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="E11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="70" t="s">
+      <c r="E12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="68" t="s">
+      <c r="D14" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D15" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D16" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="63" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D17" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" t="s">
-        <v>268</v>
-      </c>
-    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="62" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="57" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>258</v>
@@ -7903,21 +8008,23 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="58" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>258</v>
@@ -7926,128 +8033,125 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="68" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D24" s="65" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="63" t="s">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D27" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="70" t="s">
+    <row r="28" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D28" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="68" t="s">
+      <c r="E28" s="68" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>257</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>258</v>
@@ -8057,9 +8161,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>258</v>
@@ -8069,35 +8173,33 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="A33" s="14"/>
       <c r="B33" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="14"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
         <v>258</v>
@@ -8107,9 +8209,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="26"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
         <v>258</v>
@@ -8119,9 +8221,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="14"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
         <v>258</v>
@@ -8133,19 +8235,19 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="14"/>
       <c r="B37" s="14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37" s="57" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="26"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
         <v>258</v>
@@ -8154,22 +8256,25 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>260</v>
+    <row r="39" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="26"/>
       <c r="B40" s="14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
         <v>258</v>
@@ -8181,61 +8286,55 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="14"/>
       <c r="B41" s="14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="14"/>
       <c r="B42" s="14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="26"/>
-      <c r="B43" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>262</v>
+      <c r="B43" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="14"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="14" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="26"/>
       <c r="B45" s="14" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
         <v>258</v>
@@ -8245,9 +8344,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="14"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="14" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
         <v>258</v>
@@ -8256,42 +8355,201 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="47" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="72" t="s">
         <v>261</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="26"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B48" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="26"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="14"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B49" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="14"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="14"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B54" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="14"/>
-    </row>
+      <c r="B55" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="60"/>
+      <c r="B56" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="63"/>
+      <c r="B58" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1882" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763EA40C-9823-473B-BE4A-5D47A8B6D1FA}"/>
+  <xr:revisionPtr revIDLastSave="1883" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606A2E8C-4569-4976-BFD7-58053B744B7E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="4253" yWindow="788" windowWidth="10492" windowHeight="11850" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Progress" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="269">
   <si>
     <t>PG_Click_Detections</t>
   </si>
@@ -1628,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="57" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="57" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3409,7 +3409,9 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="P28" s="28"/>
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.45">
@@ -7736,7 +7738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DDFDEA-2838-4C23-95EB-05B925C7BB88}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>

--- a/Analysis_Progress.xlsx
+++ b/Analysis_Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4c4f1623d30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9D4C4F1623D30376/Documents/GitHub/Rissos_Geographic_Variation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1883" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606A2E8C-4569-4976-BFD7-58053B744B7E}"/>
+  <xr:revisionPtr revIDLastSave="1884" documentId="8_{C4C2D1DD-6DD6-49C2-8C12-51DEE2FC981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A12DD1-3CE9-4E8D-B87F-7E20ED87BAB0}"/>
   <bookViews>
-    <workbookView xWindow="4253" yWindow="788" windowWidth="10492" windowHeight="11850" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="1" activeTab="1" xr2:uid="{8391C37B-1672-4229-8478-45F991E75901}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Progress" sheetId="1" r:id="rId1"/>
@@ -1305,10 +1305,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1628,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18B98B-9FEB-4551-88CC-94F33BC1EF6E}">
   <dimension ref="A1:BR129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="57" zoomScaleNormal="45" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="45" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7738,8 +7734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DDFDEA-2838-4C23-95EB-05B925C7BB88}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7798,7 +7794,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>260</v>
